--- a/src/data/collected/ai_gpu_energy_stocks.xlsx
+++ b/src/data/collected/ai_gpu_energy_stocks.xlsx
@@ -507,135 +507,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intel Corporation</t>
+          <t>Advanced Micro Devices, Inc.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.14</v>
+        <v>110.73</v>
       </c>
       <c r="D2" t="n">
-        <v>72991540.90000001</v>
+        <v>39937796.66666666</v>
       </c>
       <c r="E2" t="n">
-        <v>36.92575583925323</v>
+        <v>187.2799987792969</v>
       </c>
       <c r="F2" t="n">
-        <v>17.67000007629395</v>
+        <v>76.48000335693359</v>
       </c>
       <c r="G2" t="n">
-        <v>-32.7322927244442</v>
+        <v>-33.65487872599255</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3571556272662635</v>
+        <v>0.384275784222053</v>
       </c>
       <c r="I2" t="n">
-        <v>20.90049991607666</v>
+        <v>109.2939994812012</v>
       </c>
       <c r="J2" t="n">
-        <v>21.12279991149902</v>
+        <v>101.6473997497559</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.468280</t>
+          <t>2025-06-01T00:42:51.838338</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NVIDIA Corporation</t>
+          <t>Intel Corporation</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>138.3702</v>
+        <v>19.55</v>
       </c>
       <c r="D3" t="n">
-        <v>229507504.7666667</v>
+        <v>74517170</v>
       </c>
       <c r="E3" t="n">
-        <v>153.1159160516902</v>
+        <v>36.92575583925323</v>
       </c>
       <c r="F3" t="n">
-        <v>86.62000274658203</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="G3" t="n">
-        <v>20.54471407137253</v>
+        <v>-36.22685299684944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3570627599270912</v>
+        <v>0.3762416662813228</v>
       </c>
       <c r="I3" t="n">
-        <v>126.8799995422363</v>
+        <v>20.88449993133545</v>
       </c>
       <c r="J3" t="n">
-        <v>115.8329997253418</v>
+        <v>21.0335998916626</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.488009</t>
+          <t>2025-06-01T00:42:51.863482</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices, Inc.</t>
+          <t>NVIDIA Corporation</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112.36</v>
+        <v>135.13</v>
       </c>
       <c r="D4" t="n">
-        <v>40526356.73333333</v>
+        <v>230300623.3333333</v>
       </c>
       <c r="E4" t="n">
-        <v>187.2799987792969</v>
+        <v>153.1159160516902</v>
       </c>
       <c r="F4" t="n">
-        <v>76.48000335693359</v>
+        <v>86.62000274658203</v>
       </c>
       <c r="G4" t="n">
-        <v>-31.96075994572476</v>
+        <v>23.29718344401015</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3764277118831732</v>
+        <v>0.3866295528802315</v>
       </c>
       <c r="I4" t="n">
-        <v>108.5564994812012</v>
+        <v>128.0970001220703</v>
       </c>
       <c r="J4" t="n">
-        <v>101.543999786377</v>
+        <v>116.2016000366211</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -644,96 +644,94 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.542047</t>
+          <t>2025-06-01T00:42:51.867299</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>QUALCOMM Incorporated</t>
+          <t>Marvell Technology, Inc.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>147.44</v>
+        <v>60.19</v>
       </c>
       <c r="D5" t="n">
-        <v>8616220.300000001</v>
+        <v>19021673.33333333</v>
       </c>
       <c r="E5" t="n">
-        <v>227.0261500347901</v>
+        <v>127.3353330911318</v>
       </c>
       <c r="F5" t="n">
-        <v>120.8000030517578</v>
+        <v>47.03656077049741</v>
       </c>
       <c r="G5" t="n">
-        <v>-27.78531075895306</v>
+        <v>-12.23791428282197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4360260707955821</v>
+        <v>0.5733775838315094</v>
       </c>
       <c r="I5" t="n">
-        <v>147.2870002746582</v>
+        <v>62.14599990844727</v>
       </c>
       <c r="J5" t="n">
-        <v>146.2316007995605</v>
+        <v>59.94981170654297</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.875450</t>
+          <t>2025-06-01T00:42:52.208536</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>QUALCOMM Incorporated</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>240.795</v>
+        <v>145.2</v>
       </c>
       <c r="D6" t="n">
-        <v>19794166.9</v>
+        <v>8808443.333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>250.4490823233351</v>
+        <v>227.0261655314419</v>
       </c>
       <c r="F6" t="n">
-        <v>127.3511204867605</v>
-      </c>
-      <c r="G6" t="n">
-        <v>75.26715602187114</v>
-      </c>
+        <v>120.8000030517578</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.3317332110699321</v>
+        <v>0.2950187002183183</v>
       </c>
       <c r="I6" t="n">
-        <v>221.8547485351563</v>
+        <v>147.8314994812012</v>
       </c>
       <c r="J6" t="n">
-        <v>194.8848992919922</v>
+        <v>145.9884007263184</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -742,7 +740,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.902434</t>
+          <t>2025-06-01T00:42:52.217844</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -752,50 +750,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marvell Technology, Inc.</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.52</v>
+        <v>242.07</v>
       </c>
       <c r="D7" t="n">
-        <v>17515122.3</v>
+        <v>19771436.66666667</v>
       </c>
       <c r="E7" t="n">
-        <v>127.3353330911318</v>
+        <v>250.4490823233351</v>
       </c>
       <c r="F7" t="n">
-        <v>47.03656077049741</v>
+        <v>127.3511204867605</v>
       </c>
       <c r="G7" t="n">
-        <v>-15.90115992186176</v>
+        <v>84.43369092455522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.555772323245507</v>
+        <v>0.3293211826753084</v>
       </c>
       <c r="I7" t="n">
-        <v>62.17350006103516</v>
+        <v>224.1504989624023</v>
       </c>
       <c r="J7" t="n">
-        <v>60.13642723083496</v>
+        <v>195.8501992797852</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.931143</t>
+          <t>2025-06-01T00:42:52.234830</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -810,10 +808,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83.78</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>10699456.26666667</v>
+        <v>10879480</v>
       </c>
       <c r="E8" t="n">
         <v>111.9745134294298</v>
@@ -822,16 +820,16 @@
         <v>56.31999969482422</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.13952678038365</v>
+        <v>-12.56285626878236</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4120946696357358</v>
+        <v>0.4449884761488646</v>
       </c>
       <c r="I8" t="n">
-        <v>80.32850036621093</v>
+        <v>80.80050048828124</v>
       </c>
       <c r="J8" t="n">
-        <v>74.04920013427734</v>
+        <v>74.11400024414063</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -840,11 +838,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:31.231140</t>
+          <t>2025-06-01T00:42:52.649884</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -859,28 +857,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>773.59</v>
+        <v>756.88</v>
       </c>
       <c r="D9" t="n">
-        <v>1113001.666666667</v>
+        <v>1115460</v>
       </c>
       <c r="E9" t="n">
-        <v>888.0588896868824</v>
+        <v>888.0589538254965</v>
       </c>
       <c r="F9" t="n">
         <v>550.0059693767323</v>
       </c>
       <c r="G9" t="n">
-        <v>1.09097223130592</v>
+        <v>0.578095723035732</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4523107126648693</v>
+        <v>0.4357521351352004</v>
       </c>
       <c r="I9" t="n">
-        <v>750.22626953125</v>
+        <v>754.3549774169921</v>
       </c>
       <c r="J9" t="n">
-        <v>702.2615502929688</v>
+        <v>703.0491125488281</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -889,207 +887,207 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:31.398826</t>
+          <t>2025-06-01T00:42:53.090105</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASML Holding N.V. - New York Re</t>
+          <t>Applied Materials, Inc.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>746.66</v>
+        <v>156.75</v>
       </c>
       <c r="D10" t="n">
-        <v>1359173.633333333</v>
+        <v>7338410</v>
       </c>
       <c r="E10" t="n">
-        <v>1102.566121914793</v>
+        <v>253.4949750137349</v>
       </c>
       <c r="F10" t="n">
-        <v>576.8708473389951</v>
+        <v>123.3891353973954</v>
       </c>
       <c r="G10" t="n">
-        <v>-21.51885830327139</v>
+        <v>-26.43157132979388</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3266358915683068</v>
+        <v>0.4323057455707556</v>
       </c>
       <c r="I10" t="n">
-        <v>729.135498046875</v>
+        <v>161.5378234863281</v>
       </c>
       <c r="J10" t="n">
-        <v>691.971162109375</v>
+        <v>151.1494679260254</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>High Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:31.772529</t>
+          <t>2025-06-01T00:42:53.129566</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Applied Materials, Inc.</t>
+          <t>ASML Holding N.V. - New York Re</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>159.03</v>
+        <v>736.77</v>
       </c>
       <c r="D11" t="n">
-        <v>7046594.833333333</v>
+        <v>1295506.666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>253.4949750137349</v>
+        <v>1102.565994376884</v>
       </c>
       <c r="F11" t="n">
-        <v>123.3891353973954</v>
+        <v>576.8708473389951</v>
       </c>
       <c r="G11" t="n">
-        <v>-26.7142089782669</v>
+        <v>-22.75756474180417</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4308515288795763</v>
+        <v>0.3328605747137696</v>
       </c>
       <c r="I11" t="n">
-        <v>161.1047058105469</v>
+        <v>732.6585021972656</v>
       </c>
       <c r="J11" t="n">
-        <v>151.0859089660645</v>
+        <v>692.0582104492188</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>High Price</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:31.869797</t>
+          <t>2025-06-01T00:42:53.230960</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Micron Technology, Inc.</t>
+          <t>Taiwan Semiconductor Manufactur</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>96.54000000000001</v>
+        <v>193.32</v>
       </c>
       <c r="D12" t="n">
-        <v>18635673.73333333</v>
+        <v>13960903.33333333</v>
       </c>
       <c r="E12" t="n">
-        <v>156.8171092098565</v>
+        <v>225.5213062145149</v>
       </c>
       <c r="F12" t="n">
-        <v>61.54000091552734</v>
+        <v>132.1427057909592</v>
       </c>
       <c r="G12" t="n">
-        <v>-26.29197525204577</v>
+        <v>29.78323568413597</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3933863076696874</v>
+        <v>0.3487232458735466</v>
       </c>
       <c r="I12" t="n">
-        <v>91.04650001525879</v>
+        <v>188.4789985656738</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3373666381836</v>
+        <v>172.5351992797852</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.148476</t>
+          <t>2025-06-01T00:42:53.480308</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Taiwan Semiconductor Manufactur</t>
+          <t>Micron Technology, Inc.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>196.61</v>
+        <v>94.45999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>14169746.76666667</v>
+        <v>18647493.33333333</v>
       </c>
       <c r="E13" t="n">
-        <v>225.5213062145149</v>
+        <v>156.8171248753474</v>
       </c>
       <c r="F13" t="n">
-        <v>132.1427057909592</v>
+        <v>61.54000091552734</v>
       </c>
       <c r="G13" t="n">
-        <v>29.16975388438068</v>
+        <v>-24.08365387050357</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3515608461175786</v>
+        <v>0.413085489343842</v>
       </c>
       <c r="I13" t="n">
-        <v>187.4219985961914</v>
+        <v>91.89400024414063</v>
       </c>
       <c r="J13" t="n">
-        <v>172.1331991577148</v>
+        <v>84.1932209777832</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.219623</t>
+          <t>2025-06-01T00:42:53.552439</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14">
@@ -1104,28 +1102,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>57.62</v>
+        <v>58.04</v>
       </c>
       <c r="D14" t="n">
-        <v>10451451.8</v>
+        <v>10439130</v>
       </c>
       <c r="E14" t="n">
-        <v>95.43428856581536</v>
+        <v>95.4342963930855</v>
       </c>
       <c r="F14" t="n">
         <v>33.86790419123942</v>
       </c>
       <c r="G14" t="n">
-        <v>-38.01855938426019</v>
+        <v>-38.63910861820173</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6459903771818624</v>
+        <v>0.6447315399768672</v>
       </c>
       <c r="I14" t="n">
-        <v>55.48207511901855</v>
+        <v>56.12723007202148</v>
       </c>
       <c r="J14" t="n">
-        <v>48.83882270812988</v>
+        <v>48.92640403747559</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1134,11 +1132,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.313351</t>
+          <t>2025-06-01T00:42:53.578637</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -1153,10 +1151,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>214.765</v>
+        <v>213.98</v>
       </c>
       <c r="D15" t="n">
-        <v>4013489.733333333</v>
+        <v>4300040</v>
       </c>
       <c r="E15" t="n">
         <v>246.0295685061852</v>
@@ -1165,16 +1163,16 @@
         <v>158.6499938964844</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.304341375849385</v>
+        <v>-7.232033747197542</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3791623528514754</v>
+        <v>0.3789912117284463</v>
       </c>
       <c r="I15" t="n">
-        <v>213.3802490234375</v>
+        <v>214.4414985656738</v>
       </c>
       <c r="J15" t="n">
-        <v>199.8078991699219</v>
+        <v>199.9077990722656</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1183,47 +1181,47 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.485425</t>
+          <t>2025-06-01T00:42:53.866959</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NXP Semiconductors N.V.</t>
+          <t>Texas Instruments Incorporated</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>195.01</v>
+        <v>182.85</v>
       </c>
       <c r="D16" t="n">
-        <v>3110932.5</v>
+        <v>7889393.333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>292.0064086917568</v>
+        <v>216.9215523476831</v>
       </c>
       <c r="F16" t="n">
-        <v>148.0899963378906</v>
+        <v>138.7661291265372</v>
       </c>
       <c r="G16" t="n">
-        <v>-27.53112234835868</v>
+        <v>-3.484891196316997</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4320620203717328</v>
+        <v>0.4270298619319276</v>
       </c>
       <c r="I16" t="n">
-        <v>198.1639991760254</v>
+        <v>179.2040000915527</v>
       </c>
       <c r="J16" t="n">
-        <v>189.889599609375</v>
+        <v>168.987751159668</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1232,47 +1230,47 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.664404</t>
+          <t>2025-06-01T00:42:53.970735</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Texas Instruments Incorporated</t>
+          <t>NXP Semiconductors N.V.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>183.75</v>
+        <v>191.13</v>
       </c>
       <c r="D17" t="n">
-        <v>7667998.5</v>
+        <v>3129176.666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>216.9215523476831</v>
+        <v>292.0064086917568</v>
       </c>
       <c r="F17" t="n">
-        <v>138.7661291265372</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.960077675517114</v>
+        <v>-28.52141385200991</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4281066502364654</v>
+        <v>0.4383813197799525</v>
       </c>
       <c r="I17" t="n">
-        <v>177.9124992370606</v>
+        <v>198.6724998474121</v>
       </c>
       <c r="J17" t="n">
-        <v>168.9100033569336</v>
+        <v>189.5821997070312</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1281,11 +1279,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.702270</t>
+          <t>2025-06-01T00:42:54.036671</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -1300,10 +1298,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>69.06999999999999</v>
+        <v>69.03</v>
       </c>
       <c r="D18" t="n">
-        <v>3507252.6</v>
+        <v>3938626.666666667</v>
       </c>
       <c r="E18" t="n">
         <v>116.6971922375318</v>
@@ -1312,16 +1310,16 @@
         <v>47.44648554166133</v>
       </c>
       <c r="G18" t="n">
-        <v>-20.53560072618412</v>
+        <v>-22.84434629900329</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3451451733244907</v>
+        <v>0.3425013347872142</v>
       </c>
       <c r="I18" t="n">
-        <v>69.24248809814453</v>
+        <v>69.4868896484375</v>
       </c>
       <c r="J18" t="n">
-        <v>63.90758377075196</v>
+        <v>63.90991683959961</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1330,11 +1328,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.818713</t>
+          <t>2025-06-01T00:42:54.170482</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19">
@@ -1349,10 +1347,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>75.8</v>
+        <v>76.02</v>
       </c>
       <c r="D19" t="n">
-        <v>2085394.033333333</v>
+        <v>2084130</v>
       </c>
       <c r="E19" t="n">
         <v>130.9900054931641</v>
@@ -1361,16 +1359,16 @@
         <v>49.45999908447266</v>
       </c>
       <c r="G19" t="n">
-        <v>-21.27128789696545</v>
+        <v>-22.7360533441934</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3567516412082473</v>
+        <v>0.3410998918913754</v>
       </c>
       <c r="I19" t="n">
-        <v>75.33550033569335</v>
+        <v>75.67650032043457</v>
       </c>
       <c r="J19" t="n">
-        <v>68.82060035705567</v>
+        <v>68.90960029602051</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1379,11 +1377,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:32.979225</t>
+          <t>2025-06-01T00:42:54.289732</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
@@ -1398,10 +1396,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>678.5</v>
+        <v>661.9</v>
       </c>
       <c r="D20" t="n">
-        <v>741974.8666666667</v>
+        <v>737563.3333333334</v>
       </c>
       <c r="E20" t="n">
         <v>953.7859836887119</v>
@@ -1410,16 +1408,16 @@
         <v>438.8599853515625</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.39783323189689</v>
+        <v>-9.330658990332397</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5360754985965975</v>
+        <v>0.5491089932265747</v>
       </c>
       <c r="I20" t="n">
-        <v>673.3670043945312</v>
+        <v>676.49150390625</v>
       </c>
       <c r="J20" t="n">
-        <v>603.9286431884766</v>
+        <v>604.6481292724609</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1428,11 +1426,11 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.175631</t>
+          <t>2025-06-01T00:42:54.481938</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
@@ -1447,28 +1445,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>457.38</v>
+        <v>460.36</v>
       </c>
       <c r="D21" t="n">
-        <v>21620501.53333334</v>
+        <v>22264463.33333333</v>
       </c>
       <c r="E21" t="n">
-        <v>464.7865306658392</v>
+        <v>464.7864695275555</v>
       </c>
       <c r="F21" t="n">
         <v>344.1581969485817</v>
       </c>
       <c r="G21" t="n">
-        <v>7.394682532483055</v>
+        <v>11.74560797897401</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3050667683499473</v>
+        <v>0.1644783728041524</v>
       </c>
       <c r="I21" t="n">
-        <v>447.0600555419922</v>
+        <v>448.9110870361328</v>
       </c>
       <c r="J21" t="n">
-        <v>407.0402532958984</v>
+        <v>408.5308880615235</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1477,11 +1475,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.243069</t>
+          <t>2025-06-01T00:42:54.566488</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22">
@@ -1496,10 +1494,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>171.08</v>
+        <v>171.74</v>
       </c>
       <c r="D22" t="n">
-        <v>40649002.66666666</v>
+        <v>41768930</v>
       </c>
       <c r="E22" t="n">
         <v>206.8118208130025</v>
@@ -1508,16 +1506,16 @@
         <v>140.5299987792969</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.275190382927461</v>
+        <v>0.03541854499018449</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3851977891558863</v>
+        <v>0.3816439111419104</v>
       </c>
       <c r="I22" t="n">
-        <v>163.9724998474121</v>
+        <v>164.5334999084473</v>
       </c>
       <c r="J22" t="n">
-        <v>159.8072009277344</v>
+        <v>159.9798010253906</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1526,11 +1524,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.430990</t>
+          <t>2025-06-01T00:42:54.656301</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
@@ -1545,10 +1543,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>204.62</v>
+        <v>205.01</v>
       </c>
       <c r="D23" t="n">
-        <v>44919093.73333333</v>
+        <v>45338356.66666666</v>
       </c>
       <c r="E23" t="n">
         <v>242.5200042724609</v>
@@ -1557,16 +1555,16 @@
         <v>151.6100006103516</v>
       </c>
       <c r="G23" t="n">
-        <v>12.41621267676558</v>
+        <v>16.19246864095769</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3649293798512054</v>
+        <v>0.3525302413067643</v>
       </c>
       <c r="I23" t="n">
-        <v>199.8605003356934</v>
+        <v>200.6550003051758</v>
       </c>
       <c r="J23" t="n">
-        <v>191.6767999267578</v>
+        <v>191.887799987793</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1575,11 +1573,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.588302</t>
+          <t>2025-06-01T00:42:54.787475</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
@@ -1594,10 +1592,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>642.0001</v>
+        <v>647.49</v>
       </c>
       <c r="D24" t="n">
-        <v>14847758.63333333</v>
+        <v>14869060</v>
       </c>
       <c r="E24" t="n">
         <v>740.2514192957425</v>
@@ -1606,16 +1604,16 @@
         <v>441.4789064419887</v>
       </c>
       <c r="G24" t="n">
-        <v>35.83400985412011</v>
+        <v>39.2053082502082</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3909917537972233</v>
+        <v>0.3686143808998931</v>
       </c>
       <c r="I24" t="n">
-        <v>624.3360107421875</v>
+        <v>628.2525024414062</v>
       </c>
       <c r="J24" t="n">
-        <v>581.3812048339844</v>
+        <v>582.7108020019531</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1624,11 +1622,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.621917</t>
+          <t>2025-06-01T00:42:54.958576</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
@@ -1643,28 +1641,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>161.71</v>
+        <v>165.53</v>
       </c>
       <c r="D25" t="n">
-        <v>7910254.866666666</v>
+        <v>8319586.666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>197.1156885625032</v>
+        <v>197.1156726739735</v>
       </c>
       <c r="F25" t="n">
         <v>113.2848267763727</v>
       </c>
       <c r="G25" t="n">
-        <v>32.144821018028</v>
+        <v>42.82673510864592</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3199881639672288</v>
+        <v>0.3011883978509222</v>
       </c>
       <c r="I25" t="n">
-        <v>156.1714996337891</v>
+        <v>157.2329986572266</v>
       </c>
       <c r="J25" t="n">
-        <v>145.4426136779785</v>
+        <v>145.7389268493652</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1673,11 +1671,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.957455</t>
+          <t>2025-06-01T00:42:55.059176</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -1692,28 +1690,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>261.91</v>
+        <v>265.37</v>
       </c>
       <c r="D26" t="n">
-        <v>6538874.233333333</v>
+        <v>7003306.666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>368.0012138342595</v>
+        <v>368.00124444558</v>
       </c>
       <c r="F26" t="n">
-        <v>210.7666833035836</v>
+        <v>214.8030626524035</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.010611995073609</v>
+        <v>13.85549527793282</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3307970134813852</v>
+        <v>0.2996049665032905</v>
       </c>
       <c r="I26" t="n">
-        <v>280.2040008544922</v>
+        <v>280.2565017700196</v>
       </c>
       <c r="J26" t="n">
-        <v>269.613226928711</v>
+        <v>269.4417926025391</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1722,11 +1720,11 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.021328</t>
+          <t>2025-06-01T00:42:55.198354</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
@@ -1741,10 +1739,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1013.03</v>
+        <v>1011.09</v>
       </c>
       <c r="D27" t="n">
-        <v>1681760.366666667</v>
+        <v>1719846.666666667</v>
       </c>
       <c r="E27" t="n">
         <v>1198.089965820312</v>
@@ -1753,16 +1751,16 @@
         <v>637.989990234375</v>
       </c>
       <c r="G27" t="n">
-        <v>38.55865467535211</v>
+        <v>53.91138144524912</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2246084183077701</v>
+        <v>0.2247897511812254</v>
       </c>
       <c r="I27" t="n">
-        <v>1005.758502197266</v>
+        <v>1008.525500488281</v>
       </c>
       <c r="J27" t="n">
-        <v>896.235</v>
+        <v>899.6183996582031</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1771,47 +1769,47 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.057970</t>
+          <t>2025-06-01T00:42:55.331968</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>SNOW</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Snowflake Inc.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>122.4</v>
+        <v>205.67</v>
       </c>
       <c r="D28" t="n">
-        <v>95192819.66666667</v>
+        <v>5203520</v>
       </c>
       <c r="E28" t="n">
-        <v>133.4900054931641</v>
+        <v>209.8000030517578</v>
       </c>
       <c r="F28" t="n">
-        <v>20.63999938964844</v>
+        <v>107.129997253418</v>
       </c>
       <c r="G28" t="n">
-        <v>484.5272130093925</v>
+        <v>51.02805788703968</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6928896593612107</v>
+        <v>0.5124865411259437</v>
       </c>
       <c r="I28" t="n">
-        <v>122.1034999847412</v>
+        <v>184.8859992980957</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7857998657227</v>
+        <v>163.9647994995117</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1820,47 +1818,47 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.314229</t>
+          <t>2025-06-01T00:42:55.360960</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Snowflake Inc.</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>202.72</v>
+        <v>131.78</v>
       </c>
       <c r="D29" t="n">
-        <v>5025880.766666667</v>
+        <v>97790753.33333333</v>
       </c>
       <c r="E29" t="n">
-        <v>209.8000030517578</v>
+        <v>133.4900054931641</v>
       </c>
       <c r="F29" t="n">
-        <v>107.129997253418</v>
+        <v>21.0049991607666</v>
       </c>
       <c r="G29" t="n">
-        <v>36.79735331731155</v>
+        <v>507.8413142265332</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5190386311152727</v>
+        <v>0.736416975725012</v>
       </c>
       <c r="I29" t="n">
-        <v>182.8909996032715</v>
+        <v>122.8784999847412</v>
       </c>
       <c r="J29" t="n">
-        <v>162.9787997436523</v>
+        <v>105.6977998352051</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1869,11 +1867,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.344082</t>
+          <t>2025-06-01T00:42:55.627242</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -1888,10 +1886,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>28.4952</v>
+        <v>26.59</v>
       </c>
       <c r="D30" t="n">
-        <v>5302314.9</v>
+        <v>5905093.333333333</v>
       </c>
       <c r="E30" t="n">
         <v>45.08000183105469</v>
@@ -1900,16 +1898,16 @@
         <v>17.03000068664551</v>
       </c>
       <c r="G30" t="n">
-        <v>19.12708659115576</v>
+        <v>-10.07778009127924</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9658140486635466</v>
+        <v>0.8950444396189311</v>
       </c>
       <c r="I30" t="n">
-        <v>23.29825992584228</v>
+        <v>23.50149993896484</v>
       </c>
       <c r="J30" t="n">
-        <v>22.02230396270752</v>
+        <v>22.08619995117187</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1918,11 +1916,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.424937</t>
+          <t>2025-06-01T00:42:55.704552</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -1937,10 +1935,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>46.0627</v>
+        <v>47.17</v>
       </c>
       <c r="D31" t="n">
-        <v>6551405.333333333</v>
+        <v>6596316.666666667</v>
       </c>
       <c r="E31" t="n">
         <v>96.42900085449219</v>
@@ -1949,16 +1947,16 @@
         <v>20.60000038146973</v>
       </c>
       <c r="G31" t="n">
-        <v>97.52443810915335</v>
+        <v>90.81714999669377</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7880015728053466</v>
+        <v>0.7858327035609028</v>
       </c>
       <c r="I31" t="n">
-        <v>48.28963470458984</v>
+        <v>48.29499969482422</v>
       </c>
       <c r="J31" t="n">
-        <v>46.24485359191895</v>
+        <v>46.18079956054687</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1967,11 +1965,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.769683</t>
+          <t>2025-06-01T00:42:56.055748</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1986,28 +1984,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12.82</v>
+        <v>13.31</v>
       </c>
       <c r="D32" t="n">
-        <v>9918936.966666667</v>
+        <v>11502650</v>
       </c>
       <c r="E32" t="n">
-        <v>18.625</v>
+        <v>15.93000030517578</v>
       </c>
       <c r="F32" t="n">
         <v>9.380000114440918</v>
       </c>
       <c r="G32" t="n">
-        <v>-29.94535393825818</v>
+        <v>8.5644385899871</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2950488787539624</v>
+        <v>0.3016032442261908</v>
       </c>
       <c r="I32" t="n">
-        <v>12.51999998092651</v>
+        <v>12.59749999046326</v>
       </c>
       <c r="J32" t="n">
-        <v>11.48519998550415</v>
+        <v>11.53779998779297</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2016,47 +2014,47 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.897973</t>
+          <t>2025-06-01T00:42:56.098277</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GFAI</t>
+          <t>BBAI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Guardforce AI Co., Limited</t>
+          <t>BigBear.ai, Inc.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.185</v>
+        <v>4.16</v>
       </c>
       <c r="D33" t="n">
-        <v>314011.0666666667</v>
+        <v>76393363.33333333</v>
       </c>
       <c r="E33" t="n">
-        <v>3.880000114440918</v>
+        <v>10.35999965667725</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7599999904632568</v>
+        <v>1.164999961853027</v>
       </c>
       <c r="G33" t="n">
-        <v>-57.22021837764849</v>
+        <v>177.3333231608073</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5233853202470455</v>
+        <v>1.166658419719626</v>
       </c>
       <c r="I33" t="n">
-        <v>1.102499985694885</v>
+        <v>3.609999966621399</v>
       </c>
       <c r="J33" t="n">
-        <v>1.052659996747971</v>
+        <v>3.237799978256226</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2065,47 +2063,47 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:35.330402</t>
+          <t>2025-06-01T00:42:56.207042</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BBAI</t>
+          <t>SOUN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BigBear.ai, Inc.</t>
+          <t>SoundHound AI, Inc.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.9183</v>
+        <v>10.11</v>
       </c>
       <c r="D34" t="n">
-        <v>72014745.09999999</v>
+        <v>31980463.33333333</v>
       </c>
       <c r="E34" t="n">
-        <v>10.35999965667725</v>
+        <v>24.97999954223633</v>
       </c>
       <c r="F34" t="n">
-        <v>1.164999961853027</v>
+        <v>3.819999933242798</v>
       </c>
       <c r="G34" t="n">
-        <v>156.0980383448764</v>
+        <v>100.1980054421753</v>
       </c>
       <c r="H34" t="n">
-        <v>1.139755197843574</v>
+        <v>1.193322200188092</v>
       </c>
       <c r="I34" t="n">
-        <v>3.571414971351623</v>
+        <v>10.17050004005432</v>
       </c>
       <c r="J34" t="n">
-        <v>3.217765979766846</v>
+        <v>9.274400005340576</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2114,47 +2112,47 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:35.384428</t>
+          <t>2025-06-01T00:42:56.358594</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOUN</t>
+          <t>GFAI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SoundHound AI, Inc.</t>
+          <t>Guardforce AI Co., Limited</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10.5801</v>
+        <v>1.15</v>
       </c>
       <c r="D35" t="n">
-        <v>31483631.1</v>
+        <v>321386.6666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>24.97999954223633</v>
+        <v>3.880000114440918</v>
       </c>
       <c r="F35" t="n">
-        <v>3.819999933242798</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="G35" t="n">
-        <v>125.108521039781</v>
+        <v>-56.43939657343748</v>
       </c>
       <c r="H35" t="n">
-        <v>1.181072383004584</v>
+        <v>0.5327091123394169</v>
       </c>
       <c r="I35" t="n">
-        <v>10.12500505447388</v>
+        <v>1.108499991893768</v>
       </c>
       <c r="J35" t="n">
-        <v>9.270202026367187</v>
+        <v>1.05395999789238</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2163,11 +2161,11 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:35.444902</t>
+          <t>2025-06-01T00:42:56.455388</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
@@ -2182,28 +2180,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.00134</v>
+        <v>0.0014</v>
       </c>
       <c r="D36" t="n">
-        <v>118640073.7666667</v>
+        <v>118279158.9666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.007600000128149986</v>
+        <v>0.007400000002235174</v>
       </c>
       <c r="F36" t="n">
         <v>0.001200000056996942</v>
       </c>
       <c r="G36" t="n">
-        <v>-80.71942459539896</v>
+        <v>-80.66298459806035</v>
       </c>
       <c r="H36" t="n">
-        <v>1.144971294263843</v>
+        <v>1.163329794793312</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001521999994292855</v>
+        <v>0.001502499991329387</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001811600008513778</v>
+        <v>0.001793800010345876</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2212,11 +2210,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:35.639964</t>
+          <t>2025-06-01T00:42:56.628602</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -2231,28 +2229,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.5701</v>
+        <v>1.57</v>
       </c>
       <c r="D37" t="n">
-        <v>525276.6666666666</v>
+        <v>545453.3333333334</v>
       </c>
       <c r="E37" t="n">
         <v>5.635000228881836</v>
       </c>
       <c r="F37" t="n">
-        <v>1.570000052452087</v>
+        <v>1.529999971389771</v>
       </c>
       <c r="G37" t="n">
-        <v>-46.2294551776349</v>
+        <v>-46.77966009916435</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6346509394828305</v>
+        <v>0.6524791242374974</v>
       </c>
       <c r="I37" t="n">
-        <v>1.815254992246628</v>
+        <v>1.791499996185303</v>
       </c>
       <c r="J37" t="n">
-        <v>2.121801993846893</v>
+        <v>2.097899994850159</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2261,11 +2259,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:35.839419</t>
+          <t>2025-06-01T00:42:56.751541</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
@@ -2280,10 +2278,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>28.445</v>
+        <v>27.52</v>
       </c>
       <c r="D38" t="n">
-        <v>51643.73333333333</v>
+        <v>51713.33333333334</v>
       </c>
       <c r="E38" t="n">
         <v>84.44000244140625</v>
@@ -2292,16 +2290,16 @@
         <v>2.710000038146973</v>
       </c>
       <c r="G38" t="n">
-        <v>549.4291998084813</v>
+        <v>541.4918578665128</v>
       </c>
       <c r="H38" t="n">
-        <v>1.937004228639527</v>
+        <v>1.896072260532236</v>
       </c>
       <c r="I38" t="n">
-        <v>25.14089984893799</v>
+        <v>25.71014995574951</v>
       </c>
       <c r="J38" t="n">
-        <v>20.61055990219116</v>
+        <v>20.79945993423462</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2310,11 +2308,11 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.084820</t>
+          <t>2025-06-01T00:42:56.979496</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39">
@@ -2329,10 +2327,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>356.995</v>
+        <v>346.46</v>
       </c>
       <c r="D39" t="n">
-        <v>108808455.6333333</v>
+        <v>109983446.6666667</v>
       </c>
       <c r="E39" t="n">
         <v>488.5400085449219</v>
@@ -2341,16 +2339,16 @@
         <v>167.4100036621094</v>
       </c>
       <c r="G39" t="n">
-        <v>102.6221664414381</v>
+        <v>94.55300308440377</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4844383812494647</v>
+        <v>0.5065269580190835</v>
       </c>
       <c r="I39" t="n">
-        <v>322.6635025024414</v>
+        <v>326.0320022583008</v>
       </c>
       <c r="J39" t="n">
-        <v>284.1728021240235</v>
+        <v>286.4134017944336</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2359,11 +2357,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.249482</t>
+          <t>2025-06-01T00:42:57.214328</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -2378,10 +2376,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>38.68</v>
+        <v>41.39</v>
       </c>
       <c r="D40" t="n">
-        <v>7738787.2</v>
+        <v>8054286.666666667</v>
       </c>
       <c r="E40" t="n">
         <v>141.6300048828125</v>
@@ -2390,16 +2388,16 @@
         <v>37.59000015258789</v>
       </c>
       <c r="G40" t="n">
-        <v>-69.22587353500332</v>
+        <v>-67.6387811603945</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9678664469887632</v>
+        <v>0.9914614076746127</v>
       </c>
       <c r="I40" t="n">
-        <v>45.22749977111816</v>
+        <v>45.09749984741211</v>
       </c>
       <c r="J40" t="n">
-        <v>51.09540000915527</v>
+        <v>50.68819999694824</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2408,11 +2406,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.568525</t>
+          <t>2025-06-01T00:42:57.432778</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41">
@@ -2427,10 +2425,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16.52</v>
+        <v>17.86</v>
       </c>
       <c r="D41" t="n">
-        <v>5470622.266666667</v>
+        <v>5551740</v>
       </c>
       <c r="E41" t="n">
         <v>51.5</v>
@@ -2439,16 +2437,16 @@
         <v>10.23999977111816</v>
       </c>
       <c r="G41" t="n">
-        <v>-65.98023066191672</v>
+        <v>-63.5435803256937</v>
       </c>
       <c r="H41" t="n">
-        <v>1.576051912696914</v>
+        <v>1.586818169510589</v>
       </c>
       <c r="I41" t="n">
-        <v>17.37450008392334</v>
+        <v>17.64450011253357</v>
       </c>
       <c r="J41" t="n">
-        <v>15.52180015563965</v>
+        <v>15.54100017547607</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2457,11 +2455,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.606501</t>
+          <t>2025-06-01T00:42:57.521823</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42">
@@ -2476,10 +2474,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>153.965</v>
+        <v>158.08</v>
       </c>
       <c r="D42" t="n">
-        <v>5519440.433333334</v>
+        <v>5643810</v>
       </c>
       <c r="E42" t="n">
         <v>306.7699890136719</v>
@@ -2488,16 +2486,16 @@
         <v>116.5599975585938</v>
       </c>
       <c r="G42" t="n">
-        <v>-44.65473417927034</v>
+        <v>-41.83102879360793</v>
       </c>
       <c r="H42" t="n">
-        <v>1.021041086978748</v>
+        <v>1.017142443930709</v>
       </c>
       <c r="I42" t="n">
-        <v>154.8532493591309</v>
+        <v>156.52799949646</v>
       </c>
       <c r="J42" t="n">
-        <v>139.7015005493164</v>
+        <v>140.3160006713867</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2506,47 +2504,47 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.641417</t>
+          <t>2025-06-01T00:42:57.526957</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RUN</t>
+          <t>SPWR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sunrun Inc.</t>
+          <t>Complete Solaria, Inc.</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6.8117</v>
+        <v>1.39</v>
       </c>
       <c r="D43" t="n">
-        <v>19062364.43333333</v>
+        <v>883906.6666666666</v>
       </c>
       <c r="E43" t="n">
-        <v>22.26000022888184</v>
+        <v>3.369999885559082</v>
       </c>
       <c r="F43" t="n">
-        <v>5.449999809265137</v>
+        <v>1.059999942779541</v>
       </c>
       <c r="G43" t="n">
-        <v>-49.05235657776002</v>
+        <v>-20.57142938886371</v>
       </c>
       <c r="H43" t="n">
-        <v>1.774760788555627</v>
+        <v>1.025758611520389</v>
       </c>
       <c r="I43" t="n">
-        <v>9.11408498287201</v>
+        <v>1.683499991893768</v>
       </c>
       <c r="J43" t="n">
-        <v>7.60603401184082</v>
+        <v>1.684299998283386</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2555,47 +2553,47 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.913337</t>
+          <t>2025-06-01T00:42:57.759883</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>RUN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NextEra Energy, Inc.</t>
+          <t>Sunrun Inc.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>68.77</v>
+        <v>7.49</v>
       </c>
       <c r="D44" t="n">
-        <v>13676568.03333333</v>
+        <v>19793273.33333333</v>
       </c>
       <c r="E44" t="n">
-        <v>84.82785464854152</v>
+        <v>22.26000022888184</v>
       </c>
       <c r="F44" t="n">
-        <v>61.72000122070312</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.787572885734417</v>
+        <v>-48.20193809572081</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3813484162901976</v>
+        <v>1.797408540191027</v>
       </c>
       <c r="I44" t="n">
-        <v>69.69200057983399</v>
+        <v>9.130999970436097</v>
       </c>
       <c r="J44" t="n">
-        <v>68.69020004272461</v>
+        <v>7.623400011062622</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2604,47 +2602,47 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:37.151681</t>
+          <t>2025-06-01T00:42:57.841942</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SPWR</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Complete Solaria, Inc.</t>
+          <t>NextEra Energy, Inc.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.2001</v>
+        <v>70.64</v>
       </c>
       <c r="D45" t="n">
-        <v>861852</v>
+        <v>14094040</v>
       </c>
       <c r="E45" t="n">
-        <v>3.369999885559082</v>
+        <v>84.82785464854152</v>
       </c>
       <c r="F45" t="n">
-        <v>1.059999942779541</v>
+        <v>61.72000122070312</v>
       </c>
       <c r="G45" t="n">
-        <v>-24.52201761793303</v>
+        <v>-9.233681660890836</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9593726495521095</v>
+        <v>0.387725349909488</v>
       </c>
       <c r="I45" t="n">
-        <v>1.708004993200302</v>
+        <v>69.93250045776367</v>
       </c>
       <c r="J45" t="n">
-        <v>1.687101998329163</v>
+        <v>68.69740005493163</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2653,11 +2651,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:37.226916</t>
+          <t>2025-06-01T00:42:57.914326</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46">
@@ -2672,28 +2670,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>102.53</v>
+        <v>103.49</v>
       </c>
       <c r="D46" t="n">
-        <v>3198639.333333333</v>
+        <v>3279620</v>
       </c>
       <c r="E46" t="n">
         <v>109.5032352622282</v>
       </c>
       <c r="F46" t="n">
-        <v>82.81623792348712</v>
+        <v>82.81623040175873</v>
       </c>
       <c r="G46" t="n">
-        <v>21.62451500878733</v>
+        <v>18.98179587358633</v>
       </c>
       <c r="H46" t="n">
-        <v>0.220488296478831</v>
+        <v>0.2232794287725422</v>
       </c>
       <c r="I46" t="n">
-        <v>103.3903553009033</v>
+        <v>103.2353939056397</v>
       </c>
       <c r="J46" t="n">
-        <v>104.330212097168</v>
+        <v>104.3019270324707</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2702,11 +2700,11 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:37.416959</t>
+          <t>2025-06-01T00:42:58.153622</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47">
@@ -2721,10 +2719,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>43.715</v>
+        <v>43.82</v>
       </c>
       <c r="D47" t="n">
-        <v>6928427.466666667</v>
+        <v>7453600</v>
       </c>
       <c r="E47" t="n">
         <v>47.684343798177</v>
@@ -2733,16 +2731,16 @@
         <v>32.7299056577115</v>
       </c>
       <c r="G47" t="n">
-        <v>25.55204718983193</v>
+        <v>21.2618926045568</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2213940068194549</v>
+        <v>0.2216406524945297</v>
       </c>
       <c r="I47" t="n">
-        <v>44.31779460906982</v>
+        <v>44.19865951538086</v>
       </c>
       <c r="J47" t="n">
-        <v>44.84207420349121</v>
+        <v>44.8372380065918</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2751,47 +2749,47 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:37.723990</t>
+          <t>2025-06-01T00:42:58.273827</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Southern Company (The)</t>
+          <t>Dominion Energy, Inc.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>88.64879999999999</v>
+        <v>56.67</v>
       </c>
       <c r="D48" t="n">
-        <v>4632789.633333334</v>
+        <v>5853750</v>
       </c>
       <c r="E48" t="n">
-        <v>92.86879114413949</v>
+        <v>59.82802351443791</v>
       </c>
       <c r="F48" t="n">
-        <v>74.12817107657035</v>
+        <v>45.77975626947909</v>
       </c>
       <c r="G48" t="n">
-        <v>18.72107040251465</v>
+        <v>10.17438251484781</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2392201213942639</v>
+        <v>0.2239685924340421</v>
       </c>
       <c r="I48" t="n">
-        <v>88.90986251831055</v>
+        <v>54.94292602539063</v>
       </c>
       <c r="J48" t="n">
-        <v>89.23665222167969</v>
+        <v>53.81852775573731</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2800,47 +2798,47 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:37.760081</t>
+          <t>2025-06-01T00:42:58.275159</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dominion Energy, Inc.</t>
+          <t>Southern Company (The)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>55.97</v>
+        <v>90</v>
       </c>
       <c r="D49" t="n">
-        <v>5658917.333333333</v>
+        <v>4970146.666666667</v>
       </c>
       <c r="E49" t="n">
-        <v>60.55187296229579</v>
+        <v>92.86879114413949</v>
       </c>
       <c r="F49" t="n">
-        <v>46.33364077034297</v>
+        <v>74.43768185532164</v>
       </c>
       <c r="G49" t="n">
-        <v>11.94475107434061</v>
+        <v>16.10885795993935</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2175313906987404</v>
+        <v>0.2452322485768124</v>
       </c>
       <c r="I49" t="n">
-        <v>55.44500026702881</v>
+        <v>88.88006935119628</v>
       </c>
       <c r="J49" t="n">
-        <v>54.40620025634766</v>
+        <v>89.26162460327149</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2849,11 +2847,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:38.058041</t>
+          <t>2025-06-01T00:42:58.567827</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50">
@@ -2868,10 +2866,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>115.36</v>
+        <v>117.72</v>
       </c>
       <c r="D50" t="n">
-        <v>3423480.5</v>
+        <v>3643666.666666667</v>
       </c>
       <c r="E50" t="n">
         <v>124.1408994783785</v>
@@ -2880,16 +2878,16 @@
         <v>95.60293041590454</v>
       </c>
       <c r="G50" t="n">
-        <v>19.21181970840205</v>
+        <v>17.95070665485463</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2422976558527712</v>
+        <v>0.2543317878740757</v>
       </c>
       <c r="I50" t="n">
-        <v>117.0160491943359</v>
+        <v>116.8947280883789</v>
       </c>
       <c r="J50" t="n">
-        <v>117.9707598876953</v>
+        <v>117.9622674560547</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2898,11 +2896,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:38.181632</t>
+          <t>2025-06-01T00:42:58.643601</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
@@ -2917,10 +2915,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>69.45999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>4138062.833333333</v>
+        <v>4217696.666666667</v>
       </c>
       <c r="E51" t="n">
         <v>73</v>
@@ -2929,16 +2927,16 @@
         <v>50.67669981819753</v>
       </c>
       <c r="G51" t="n">
-        <v>35.00626669735263</v>
+        <v>30.96727937219954</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2603500633679323</v>
+        <v>0.2623235412700014</v>
       </c>
       <c r="I51" t="n">
-        <v>70.26899948120118</v>
+        <v>70.2544994354248</v>
       </c>
       <c r="J51" t="n">
-        <v>69.90079971313476</v>
+        <v>69.89819976806641</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2947,11 +2945,11 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:38.274342</t>
+          <t>2025-06-01T00:42:58.651656</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52">
@@ -2966,28 +2964,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>77.79000000000001</v>
+        <v>78.59</v>
       </c>
       <c r="D52" t="n">
-        <v>3660186.033333333</v>
+        <v>3894500</v>
       </c>
       <c r="E52" t="n">
-        <v>94.25803150822675</v>
+        <v>94.2580237983279</v>
       </c>
       <c r="F52" t="n">
         <v>61.90000152587891</v>
       </c>
       <c r="G52" t="n">
-        <v>8.451550957148735</v>
+        <v>5.299695732330312</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1671606387499485</v>
+        <v>0.1683990220263886</v>
       </c>
       <c r="I52" t="n">
-        <v>76.47600021362305</v>
+        <v>76.67849998474121</v>
       </c>
       <c r="J52" t="n">
-        <v>72.89449958801269</v>
+        <v>73.06059959411621</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2996,11 +2994,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:38.474906</t>
+          <t>2025-06-01T00:42:58.975394</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53">
@@ -3015,28 +3013,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>79.255</v>
+        <v>81.03</v>
       </c>
       <c r="D53" t="n">
-        <v>2897075.366666667</v>
+        <v>3290726.666666667</v>
       </c>
       <c r="E53" t="n">
         <v>93.81673229214083</v>
       </c>
       <c r="F53" t="n">
-        <v>70.29891724747476</v>
+        <v>70.29890969685289</v>
       </c>
       <c r="G53" t="n">
-        <v>11.62207884337207</v>
+        <v>10.26568172512057</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2035001702818268</v>
+        <v>0.2090904841425538</v>
       </c>
       <c r="I53" t="n">
-        <v>78.81625022888184</v>
+        <v>78.94950027465821</v>
       </c>
       <c r="J53" t="n">
-        <v>80.5177001953125</v>
+        <v>80.48160034179688</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3045,11 +3043,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:38.602852</t>
+          <t>2025-06-01T00:42:59.024715</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -3064,10 +3062,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>103.5224</v>
+        <v>104.49</v>
       </c>
       <c r="D54" t="n">
-        <v>2730120.233333333</v>
+        <v>2937163.333333333</v>
       </c>
       <c r="E54" t="n">
         <v>113.8992412655479</v>
@@ -3076,16 +3074,16 @@
         <v>85.24458353220552</v>
       </c>
       <c r="G54" t="n">
-        <v>16.55275857549004</v>
+        <v>14.35737880648507</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2774671222693798</v>
+        <v>0.2810563069731485</v>
       </c>
       <c r="I54" t="n">
-        <v>105.1974075317383</v>
+        <v>104.8343494415283</v>
       </c>
       <c r="J54" t="n">
-        <v>107.3234831237793</v>
+        <v>107.278802947998</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3094,11 +3092,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:38.791256</t>
+          <t>2025-06-01T00:42:59.090351</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55">
@@ -3113,10 +3111,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>55.5638</v>
+        <v>55.65</v>
       </c>
       <c r="D55" t="n">
-        <v>2688299.066666667</v>
+        <v>2877643.333333333</v>
       </c>
       <c r="E55" t="n">
         <v>86.38769513808452</v>
@@ -3125,16 +3123,16 @@
         <v>48.31805252497342</v>
       </c>
       <c r="G55" t="n">
-        <v>-20.70028896012899</v>
+        <v>-24.19444299236151</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2251931459549467</v>
+        <v>0.2196605819623975</v>
       </c>
       <c r="I55" t="n">
-        <v>56.32519035339355</v>
+        <v>56.39550037384033</v>
       </c>
       <c r="J55" t="n">
-        <v>56.61079315185547</v>
+        <v>56.57781143188477</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3143,11 +3141,11 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.043473</t>
+          <t>2025-06-01T00:42:59.364522</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56">
@@ -3162,10 +3160,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17.049</v>
+        <v>16.88</v>
       </c>
       <c r="D56" t="n">
-        <v>13483303.26666667</v>
+        <v>13783183.33333333</v>
       </c>
       <c r="E56" t="n">
         <v>21.66112345522239</v>
@@ -3174,16 +3172,16 @@
         <v>14.96795557625283</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.448848409046869</v>
+        <v>-8.607791094104433</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1999167837888728</v>
+        <v>0.2035198699415901</v>
       </c>
       <c r="I56" t="n">
-        <v>17.17194995880127</v>
+        <v>17.18349990844727</v>
       </c>
       <c r="J56" t="n">
-        <v>17.07795831680298</v>
+        <v>17.07468091964722</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3192,11 +3190,11 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.055925</t>
+          <t>2025-06-01T00:42:59.379423</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57">
@@ -3211,10 +3209,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>141.685</v>
+        <v>142.97</v>
       </c>
       <c r="D57" t="n">
-        <v>1274229.566666667</v>
+        <v>1385383.333333333</v>
       </c>
       <c r="E57" t="n">
         <v>154.5713060033486</v>
@@ -3223,16 +3221,16 @@
         <v>117.3025579842723</v>
       </c>
       <c r="G57" t="n">
-        <v>16.84648184292787</v>
+        <v>11.90135817269509</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3238529649382935</v>
+        <v>0.325939047621549</v>
       </c>
       <c r="I57" t="n">
-        <v>142.7858833312988</v>
+        <v>142.6493598937988</v>
       </c>
       <c r="J57" t="n">
-        <v>143.5325341796875</v>
+        <v>143.5650015258789</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3241,47 +3239,47 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.162702</t>
+          <t>2025-06-01T00:42:59.435785</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>PLUG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CenterPoint Energy, Inc (Holdin</t>
+          <t>Plug Power, Inc.</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>37.145</v>
+        <v>0.8827</v>
       </c>
       <c r="D58" t="n">
-        <v>5189148.7</v>
+        <v>148271590</v>
       </c>
       <c r="E58" t="n">
-        <v>39.07352052045635</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="F58" t="n">
-        <v>24.9089671049893</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="G58" t="n">
-        <v>29.88624111473383</v>
+        <v>-73.57357311130954</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1806522170521242</v>
+        <v>1.10782531330222</v>
       </c>
       <c r="I58" t="n">
-        <v>37.57894630432129</v>
+        <v>0.8189999997615814</v>
       </c>
       <c r="J58" t="n">
-        <v>36.9042000579834</v>
+        <v>1.015800002813339</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3290,47 +3288,47 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.486359</t>
+          <t>2025-06-01T00:42:59.707651</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PLUG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Plug Power, Inc.</t>
+          <t>Bloom Energy Corporation</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.912</v>
+        <v>18.47</v>
       </c>
       <c r="D59" t="n">
-        <v>147116978.0333333</v>
+        <v>5813933.333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>3.549999952316284</v>
+        <v>29.82500076293945</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6899999976158142</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="G59" t="n">
-        <v>-71.50000040978193</v>
+        <v>13.17401751675358</v>
       </c>
       <c r="H59" t="n">
-        <v>1.095271194621868</v>
+        <v>0.5499533422643637</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8166000008583069</v>
+        <v>18.47650003433228</v>
       </c>
       <c r="J59" t="n">
-        <v>1.029440003633499</v>
+        <v>18.92240001678467</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3339,47 +3337,47 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.495144</t>
+          <t>2025-06-01T00:42:59.810484</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bloom Energy Corporation</t>
+          <t>CenterPoint Energy, Inc (Holdin</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18.54</v>
+        <v>37.24</v>
       </c>
       <c r="D60" t="n">
-        <v>5781814.266666667</v>
+        <v>5439630</v>
       </c>
       <c r="E60" t="n">
-        <v>29.82500076293945</v>
+        <v>39.07352052045635</v>
       </c>
       <c r="F60" t="n">
-        <v>9.020000457763672</v>
+        <v>24.9089671049893</v>
       </c>
       <c r="G60" t="n">
-        <v>19.45876526216825</v>
+        <v>25.39551847418442</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6334314629586513</v>
+        <v>0.1812591240049838</v>
       </c>
       <c r="I60" t="n">
-        <v>18.39200010299682</v>
+        <v>37.52080707550049</v>
       </c>
       <c r="J60" t="n">
-        <v>19.03860004425049</v>
+        <v>36.93541465759277</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3388,11 +3386,11 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.755010</t>
+          <t>2025-06-01T00:42:59.820222</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61">
@@ -3407,10 +3405,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="D61" t="n">
-        <v>7056849.533333333</v>
+        <v>7356813.333333333</v>
       </c>
       <c r="E61" t="n">
         <v>3.230000019073486</v>
@@ -3419,16 +3417,16 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-53.13531450518978</v>
+        <v>-58.25242725937682</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5315356388724944</v>
+        <v>0.6514000652288174</v>
       </c>
       <c r="I61" t="n">
-        <v>1.338499987125397</v>
+        <v>1.341999983787537</v>
       </c>
       <c r="J61" t="n">
-        <v>1.245000002384186</v>
+        <v>1.244200000762939</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3437,11 +3435,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.838680</t>
+          <t>2025-06-01T00:43:00.050488</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62">
@@ -3456,10 +3454,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5.283</v>
+        <v>5.11</v>
       </c>
       <c r="D62" t="n">
-        <v>1001660.466666667</v>
+        <v>1027393.333333333</v>
       </c>
       <c r="E62" t="n">
         <v>30.89999961853027</v>
@@ -3468,16 +3466,16 @@
         <v>3.579999923706055</v>
       </c>
       <c r="G62" t="n">
-        <v>-79.03571495069126</v>
+        <v>-81.07407357957628</v>
       </c>
       <c r="H62" t="n">
-        <v>1.257889762723</v>
+        <v>1.272800278573597</v>
       </c>
       <c r="I62" t="n">
-        <v>4.470650029182434</v>
+        <v>4.51850004196167</v>
       </c>
       <c r="J62" t="n">
-        <v>4.396660013198852</v>
+        <v>4.389000015258789</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3486,11 +3484,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.900991</t>
+          <t>2025-06-01T00:43:00.179970</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63">
@@ -3505,10 +3503,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.0906</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>11637889.56666667</v>
+        <v>11899166.66666667</v>
       </c>
       <c r="E63" t="n">
         <v>9.520000457763672</v>
@@ -3517,16 +3515,16 @@
         <v>3.400000095367432</v>
       </c>
       <c r="G63" t="n">
-        <v>-28.48601112281066</v>
+        <v>-32.31810315948598</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8447715894507077</v>
+        <v>0.8538538824996308</v>
       </c>
       <c r="I63" t="n">
-        <v>4.085030043125153</v>
+        <v>4.087500035762787</v>
       </c>
       <c r="J63" t="n">
-        <v>4.067012000083923</v>
+        <v>4.056600003242493</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3535,11 +3533,11 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:40.437564</t>
+          <t>2025-06-01T00:43:00.509457</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64">
@@ -3554,10 +3552,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.615</v>
+        <v>1.54</v>
       </c>
       <c r="D64" t="n">
-        <v>2833775.166666667</v>
+        <v>2907686.666666667</v>
       </c>
       <c r="E64" t="n">
         <v>4.09499979019165</v>
@@ -3566,16 +3564,16 @@
         <v>1.110000014305115</v>
       </c>
       <c r="G64" t="n">
-        <v>12.15277398350077</v>
+        <v>4.054050135560283</v>
       </c>
       <c r="H64" t="n">
-        <v>2.093391386680884</v>
+        <v>2.103087905615612</v>
       </c>
       <c r="I64" t="n">
-        <v>1.495750004053116</v>
+        <v>1.497000002861023</v>
       </c>
       <c r="J64" t="n">
-        <v>1.471699995994568</v>
+        <v>1.469199995994568</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3584,47 +3582,47 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:40.827165</t>
+          <t>2025-06-01T00:43:00.674685</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RIOT</t>
+          <t>CLSK</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Riot Platforms, Inc.</t>
+          <t>CleanSpark, Inc.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.119999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>31832864.96666666</v>
+        <v>27249850</v>
       </c>
       <c r="E65" t="n">
-        <v>15.86999988555908</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="F65" t="n">
-        <v>6.190000057220459</v>
+        <v>6.452000141143799</v>
       </c>
       <c r="G65" t="n">
-        <v>-18.80000114440918</v>
+        <v>-46.29744693013004</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7392071669509701</v>
+        <v>0.7327576642140592</v>
       </c>
       <c r="I65" t="n">
-        <v>8.553500008583068</v>
+        <v>9.226499891281128</v>
       </c>
       <c r="J65" t="n">
-        <v>7.840100030899048</v>
+        <v>8.410699949264526</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3633,109 +3631,109 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:40.913645</t>
+          <t>2025-06-01T00:43:00.916260</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CLSK</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CleanSpark, Inc.</t>
+          <t>Digital Realty Trust, Inc.</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8.7607</v>
+        <v>171.52</v>
       </c>
       <c r="D66" t="n">
-        <v>26988994.13333333</v>
+        <v>1859240</v>
       </c>
       <c r="E66" t="n">
-        <v>20.63999938964844</v>
+        <v>195.0647082124082</v>
       </c>
       <c r="F66" t="n">
-        <v>6.452000141143799</v>
+        <v>129.9499969482422</v>
       </c>
       <c r="G66" t="n">
-        <v>-48.67779506471577</v>
+        <v>21.69775675031937</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7611847588287493</v>
+        <v>0.1415471873589546</v>
       </c>
       <c r="I66" t="n">
-        <v>9.227534914016724</v>
+        <v>168.0949989318848</v>
       </c>
       <c r="J66" t="n">
-        <v>8.397913961410522</v>
+        <v>156.4829989624023</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:40.974561</t>
+          <t>2025-06-01T00:43:01.004950</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>RIOT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Digital Realty Trust, Inc.</t>
+          <t>Riot Platforms, Inc.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>171.935</v>
+        <v>8.07</v>
       </c>
       <c r="D67" t="n">
-        <v>1759832.266666667</v>
+        <v>32103553.33333333</v>
       </c>
       <c r="E67" t="n">
-        <v>195.0647082124082</v>
+        <v>15.86999988555908</v>
       </c>
       <c r="F67" t="n">
-        <v>129.9499969482422</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="G67" t="n">
-        <v>25.36480956961604</v>
+        <v>-17.14579174063191</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1380184246266882</v>
+        <v>0.6947165513539697</v>
       </c>
       <c r="I67" t="n">
-        <v>167.5967491149902</v>
+        <v>8.571500015258788</v>
       </c>
       <c r="J67" t="n">
-        <v>156.0678988647461</v>
+        <v>7.847100028991699</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:41.190136</t>
+          <t>2025-06-01T00:43:01.075619</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68">
@@ -3750,28 +3748,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>212.935</v>
+        <v>214.65</v>
       </c>
       <c r="D68" t="n">
-        <v>2805856.266666667</v>
+        <v>2921640</v>
       </c>
       <c r="E68" t="n">
-        <v>237.7157447690579</v>
+        <v>237.7157600737179</v>
       </c>
       <c r="F68" t="n">
         <v>171.1022197758145</v>
       </c>
       <c r="G68" t="n">
-        <v>18.70331741170112</v>
+        <v>13.28942519434433</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2736359756776865</v>
+        <v>0.275518364576428</v>
       </c>
       <c r="I68" t="n">
-        <v>214.9787506103516</v>
+        <v>214.5485008239746</v>
       </c>
       <c r="J68" t="n">
-        <v>214.6836709594727</v>
+        <v>214.7518591308594</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3780,11 +3778,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:41.330385</t>
+          <t>2025-06-01T00:43:01.383677</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69">
@@ -3799,10 +3797,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>108.73</v>
+        <v>108.6</v>
       </c>
       <c r="D69" t="n">
-        <v>4567348.1</v>
+        <v>4629393.333333333</v>
       </c>
       <c r="E69" t="n">
         <v>129.3028015732399</v>
@@ -3811,16 +3809,16 @@
         <v>85.34999847412109</v>
       </c>
       <c r="G69" t="n">
-        <v>7.084431525164248</v>
+        <v>1.641975857849376</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2599641172567133</v>
+        <v>0.2627130497548597</v>
       </c>
       <c r="I69" t="n">
-        <v>106.9810009002686</v>
+        <v>107.2820007324219</v>
       </c>
       <c r="J69" t="n">
-        <v>104.9474002075195</v>
+        <v>104.8700001525879</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3829,11 +3827,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:41.428455</t>
+          <t>2025-06-01T00:43:01.426581</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70">
@@ -3848,10 +3846,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>99.95999999999999</v>
+        <v>100.35</v>
       </c>
       <c r="D70" t="n">
-        <v>2696934.833333333</v>
+        <v>2817113.333333333</v>
       </c>
       <c r="E70" t="n">
         <v>117.0454491695627</v>
@@ -3860,29 +3858,29 @@
         <v>82.81422764194471</v>
       </c>
       <c r="G70" t="n">
-        <v>8.62466233968442</v>
+        <v>4.122673906949714</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2434180236277844</v>
+        <v>0.2436324815582972</v>
       </c>
       <c r="I70" t="n">
-        <v>102.3685005187988</v>
+        <v>102.0905002593994</v>
       </c>
       <c r="J70" t="n">
-        <v>102.0225997924805</v>
+        <v>101.9503997802734</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:41.537923</t>
+          <t>2025-06-01T00:43:01.460800</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71">
@@ -3897,28 +3895,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>228.98</v>
+        <v>231.89</v>
       </c>
       <c r="D71" t="n">
-        <v>928494.7666666667</v>
+        <v>924283.3333333334</v>
       </c>
       <c r="E71" t="n">
         <v>249.0196497006875</v>
       </c>
       <c r="F71" t="n">
-        <v>181.9658224208827</v>
+        <v>183.5554799338477</v>
       </c>
       <c r="G71" t="n">
-        <v>25.20216069700032</v>
+        <v>20.15321307794185</v>
       </c>
       <c r="H71" t="n">
-        <v>0.240226219520122</v>
+        <v>0.2418599634504373</v>
       </c>
       <c r="I71" t="n">
-        <v>232.7807060241699</v>
+        <v>232.4588218688965</v>
       </c>
       <c r="J71" t="n">
-        <v>225.5891241455078</v>
+        <v>225.8773651123047</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3927,11 +3925,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:41.829768</t>
+          <t>2025-06-01T00:43:01.795734</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72">
@@ -3946,10 +3944,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>885.37</v>
+        <v>888.8200000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>504100.1</v>
+        <v>527866.6666666666</v>
       </c>
       <c r="E72" t="n">
         <v>983.5930564746006</v>
@@ -3958,16 +3956,16 @@
         <v>697.6542756159126</v>
       </c>
       <c r="G72" t="n">
-        <v>18.8974738009458</v>
+        <v>18.89772580679401</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1403612188912454</v>
+        <v>0.1414107849641806</v>
       </c>
       <c r="I72" t="n">
-        <v>867.7995849609375</v>
+        <v>869.4758575439453</v>
       </c>
       <c r="J72" t="n">
-        <v>830.2253100585938</v>
+        <v>831.0279077148438</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3976,47 +3974,47 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:41.910286</t>
+          <t>2025-06-01T00:43:01.864326</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>REIT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ventas, Inc.</t>
+          <t>ALPS Active REIT ETF</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>64.17</v>
+        <v>26.78</v>
       </c>
       <c r="D73" t="n">
-        <v>2777352.9</v>
+        <v>9740</v>
       </c>
       <c r="E73" t="n">
-        <v>71.36000061035156</v>
+        <v>29.82946413966954</v>
       </c>
       <c r="F73" t="n">
-        <v>45.25449477796216</v>
+        <v>23.39999961853027</v>
       </c>
       <c r="G73" t="n">
-        <v>39.55489850570937</v>
+        <v>10.62684643237453</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2843407051039019</v>
+        <v>0.1611891944445347</v>
       </c>
       <c r="I73" t="n">
-        <v>65.05850028991699</v>
+        <v>26.56500015258789</v>
       </c>
       <c r="J73" t="n">
-        <v>66.52740425109863</v>
+        <v>26.34640003204346</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -4025,47 +4023,47 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:42.298164</t>
+          <t>2025-06-01T00:43:02.148285</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>REIT</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ALPS Active REIT ETF</t>
+          <t>Ventas, Inc.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>26.669</v>
+        <v>64.28</v>
       </c>
       <c r="D74" t="n">
-        <v>10013.76666666667</v>
+        <v>2921816.666666667</v>
       </c>
       <c r="E74" t="n">
-        <v>29.82946413966954</v>
+        <v>71.36000061035156</v>
       </c>
       <c r="F74" t="n">
-        <v>23.39999961853027</v>
+        <v>47.56280722708716</v>
       </c>
       <c r="G74" t="n">
-        <v>13.40923452821967</v>
+        <v>31.86707721086832</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1590004172289922</v>
+        <v>0.1726656639098496</v>
       </c>
       <c r="I74" t="n">
-        <v>26.54395017623902</v>
+        <v>64.99450035095215</v>
       </c>
       <c r="J74" t="n">
-        <v>26.35437999725342</v>
+        <v>66.47043952941894</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -4074,47 +4072,47 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:42.357804</t>
+          <t>2025-06-01T00:43:02.335596</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>International Business Machines</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>258.7075</v>
+        <v>200.85</v>
       </c>
       <c r="D75" t="n">
-        <v>4276816.6</v>
+        <v>53767810</v>
       </c>
       <c r="E75" t="n">
-        <v>269.2799987792969</v>
+        <v>259.4740855511754</v>
       </c>
       <c r="F75" t="n">
-        <v>158.7237963777188</v>
+        <v>168.9884109270566</v>
       </c>
       <c r="G75" t="n">
-        <v>59.5577614177413</v>
+        <v>4.961928602094567</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2339096447902863</v>
+        <v>0.3436386156783971</v>
       </c>
       <c r="I75" t="n">
-        <v>256.4655548095703</v>
+        <v>203.4002479553223</v>
       </c>
       <c r="J75" t="n">
-        <v>245.7203353881836</v>
+        <v>205.2064944458008</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -4123,305 +4121,305 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:42.867979</t>
+          <t>2025-06-01T00:43:02.590115</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Apple Inc.</t>
+          <t>Cisco Systems, Inc.</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>199.21</v>
+        <v>63.04</v>
       </c>
       <c r="D76" t="n">
-        <v>52703737.26666667</v>
+        <v>20196510</v>
       </c>
       <c r="E76" t="n">
-        <v>259.4740855511754</v>
+        <v>66.05896139250312</v>
       </c>
       <c r="F76" t="n">
-        <v>168.9884109270566</v>
+        <v>43.57268363013593</v>
       </c>
       <c r="G76" t="n">
-        <v>5.177174036951393</v>
+        <v>39.64125450649995</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3436587231141293</v>
+        <v>0.2285103532391835</v>
       </c>
       <c r="I76" t="n">
-        <v>203.9727798461914</v>
+        <v>61.98649997711182</v>
       </c>
       <c r="J76" t="n">
-        <v>205.4738568115234</v>
+        <v>59.47278663635254</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:42.875763</t>
+          <t>2025-06-01T00:43:02.848742</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cisco Systems, Inc.</t>
+          <t>International Business Machines</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>62.8325</v>
+        <v>259.06</v>
       </c>
       <c r="D77" t="n">
-        <v>19790727.1</v>
+        <v>4474303.333333333</v>
       </c>
       <c r="E77" t="n">
-        <v>66.05896139250312</v>
+        <v>269.2799987792969</v>
       </c>
       <c r="F77" t="n">
-        <v>43.57268741422033</v>
+        <v>158.7237812804912</v>
       </c>
       <c r="G77" t="n">
-        <v>40.45019337184996</v>
+        <v>59.96667579985429</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2302229142736048</v>
+        <v>0.2293048621729493</v>
       </c>
       <c r="I77" t="n">
-        <v>61.72962493896485</v>
+        <v>257.5138938903809</v>
       </c>
       <c r="J77" t="n">
-        <v>59.42192947387695</v>
+        <v>245.8887411499023</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:43.026365</t>
+          <t>2025-06-01T00:43:02.868225</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>HPQ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dell Technologies Inc.</t>
+          <t>HP Inc.</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>112.77</v>
+        <v>24.9</v>
       </c>
       <c r="D78" t="n">
-        <v>5589524.433333334</v>
+        <v>8187650</v>
       </c>
       <c r="E78" t="n">
-        <v>176.6002820995238</v>
+        <v>39.07222845821735</v>
       </c>
       <c r="F78" t="n">
-        <v>65.82784360249838</v>
+        <v>21.20999908447266</v>
       </c>
       <c r="G78" t="n">
-        <v>-35.96933855640706</v>
+        <v>-29.39583407021471</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3553841925080758</v>
+        <v>0.4549955270511286</v>
       </c>
       <c r="I78" t="n">
-        <v>105.7574993133545</v>
+        <v>27.42350006103516</v>
       </c>
       <c r="J78" t="n">
-        <v>95.31047454833984</v>
+        <v>26.28900001525879</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:43.343834</t>
+          <t>2025-06-01T00:43:03.065440</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HP Inc.</t>
+          <t>Dell Technologies Inc.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>24.905</v>
+        <v>111.27</v>
       </c>
       <c r="D79" t="n">
-        <v>7611070.733333333</v>
+        <v>6312450</v>
       </c>
       <c r="E79" t="n">
-        <v>39.07223232144766</v>
+        <v>158.7338882580659</v>
       </c>
       <c r="F79" t="n">
-        <v>21.20999908447266</v>
+        <v>65.82784360249838</v>
       </c>
       <c r="G79" t="n">
-        <v>-21.41555709679757</v>
+        <v>-18.87142892585219</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4595205876019728</v>
+        <v>0.3675546638263243</v>
       </c>
       <c r="I79" t="n">
-        <v>27.44575004577637</v>
+        <v>106.7664993286133</v>
       </c>
       <c r="J79" t="n">
-        <v>26.36530002593994</v>
+        <v>95.59125564575196</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:43.407027</t>
+          <t>2025-06-01T00:43:03.265248</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Zoom Communications, Inc.</t>
+          <t>Datadog, Inc.</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>79.44159999999999</v>
+        <v>117.88</v>
       </c>
       <c r="D80" t="n">
-        <v>2231510.733333333</v>
+        <v>4759986.666666667</v>
       </c>
       <c r="E80" t="n">
-        <v>92.80000305175781</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="F80" t="n">
-        <v>55.06000137329102</v>
+        <v>81.62999725341797</v>
       </c>
       <c r="G80" t="n">
-        <v>29.46805116468873</v>
+        <v>6.988561378575775</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1955651953269735</v>
+        <v>0.3051433544445593</v>
       </c>
       <c r="I80" t="n">
-        <v>80.87957954406738</v>
+        <v>113.4929988861084</v>
       </c>
       <c r="J80" t="n">
-        <v>76.55673156738281</v>
+        <v>104.2201991271973</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:43.830272</t>
+          <t>2025-06-01T00:43:03.605634</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Datadog, Inc.</t>
+          <t>Zoom Communications, Inc.</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>116.935</v>
+        <v>81.25</v>
       </c>
       <c r="D81" t="n">
-        <v>4582204.866666666</v>
+        <v>2396536.666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>170.0800018310547</v>
+        <v>92.80000305175781</v>
       </c>
       <c r="F81" t="n">
-        <v>81.62999725341797</v>
+        <v>55.06000137329102</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.899574897009761</v>
+        <v>32.45842810219184</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3300503440656272</v>
+        <v>0.2007599058820047</v>
       </c>
       <c r="I81" t="n">
-        <v>112.9117488861084</v>
+        <v>81.10449981689453</v>
       </c>
       <c r="J81" t="n">
-        <v>103.9498991394043</v>
+        <v>76.66649963378906</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:43.976454</t>
+          <t>2025-06-01T00:43:03.608816</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82">
@@ -4436,10 +4434,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>459.525</v>
+        <v>471.37</v>
       </c>
       <c r="D82" t="n">
-        <v>3277673.3</v>
+        <v>3325866.666666667</v>
       </c>
       <c r="E82" t="n">
         <v>474.2300109863281</v>
@@ -4448,16 +4446,16 @@
         <v>200.8099975585938</v>
       </c>
       <c r="G82" t="n">
-        <v>31.47316558152831</v>
+        <v>50.2757595366333</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3812193043050298</v>
+        <v>0.3915969218581774</v>
       </c>
       <c r="I82" t="n">
-        <v>440.9557495117188</v>
+        <v>442.8944992065429</v>
       </c>
       <c r="J82" t="n">
-        <v>401.4634985351562</v>
+        <v>403.3755987548828</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4466,11 +4464,11 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:44.699375</t>
+          <t>2025-06-01T00:43:03.937344</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83">
@@ -4485,10 +4483,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>106.305</v>
+        <v>103.17</v>
       </c>
       <c r="D83" t="n">
-        <v>4688556.833333333</v>
+        <v>4954803.333333333</v>
       </c>
       <c r="E83" t="n">
         <v>127.5670013427734</v>
@@ -4497,16 +4495,16 @@
         <v>70.55999755859375</v>
       </c>
       <c r="G83" t="n">
-        <v>10.32067209613101</v>
+        <v>16.33964570805693</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6435161319794869</v>
+        <v>0.653597784362045</v>
       </c>
       <c r="I83" t="n">
-        <v>119.8860000610352</v>
+        <v>119.467749786377</v>
       </c>
       <c r="J83" t="n">
-        <v>110.3693998718262</v>
+        <v>110.1576997375488</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4515,11 +4513,11 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:44.783558</t>
+          <t>2025-06-01T00:43:03.954849</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84">
@@ -4534,10 +4532,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>204.795</v>
+        <v>207.63</v>
       </c>
       <c r="D84" t="n">
-        <v>2256060.566666667</v>
+        <v>2321146.666666667</v>
       </c>
       <c r="E84" t="n">
         <v>326</v>
@@ -4546,16 +4544,16 @@
         <v>135.2899932861328</v>
       </c>
       <c r="G84" t="n">
-        <v>23.54911013254139</v>
+        <v>32.36644401052649</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5006578220372121</v>
+        <v>0.5104832557897822</v>
       </c>
       <c r="I84" t="n">
-        <v>213.8357513427734</v>
+        <v>212.7205009460449</v>
       </c>
       <c r="J84" t="n">
-        <v>213.4873007202148</v>
+        <v>213.0254006958008</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4564,11 +4562,11 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:45.725004</t>
+          <t>2025-06-01T00:43:04.443175</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85">
@@ -4583,10 +4581,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>189.55</v>
+        <v>188.83</v>
       </c>
       <c r="D85" t="n">
-        <v>2138183.733333333</v>
+        <v>2183100</v>
       </c>
       <c r="E85" t="n">
         <v>370</v>
@@ -4595,16 +4593,16 @@
         <v>140.7799987792969</v>
       </c>
       <c r="G85" t="n">
-        <v>-43.24680122337124</v>
+        <v>-20.00762357705941</v>
       </c>
       <c r="H85" t="n">
-        <v>0.331868746561553</v>
+        <v>0.3325814240189678</v>
       </c>
       <c r="I85" t="n">
-        <v>184.4259994506836</v>
+        <v>185.2484992980957</v>
       </c>
       <c r="J85" t="n">
-        <v>176.5041995239258</v>
+        <v>176.4757995605469</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4613,109 +4611,109 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:45.791126</t>
+          <t>2025-06-01T00:43:04.544294</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>DOCN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cloudflare, Inc.</t>
+          <t>DigitalOcean Holdings, Inc.</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>163.9</v>
+        <v>28.3</v>
       </c>
       <c r="D86" t="n">
-        <v>3265856.266666667</v>
+        <v>1483240</v>
       </c>
       <c r="E86" t="n">
-        <v>177.3679962158203</v>
+        <v>47.02000045776367</v>
       </c>
       <c r="F86" t="n">
-        <v>66.23999786376953</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="G86" t="n">
-        <v>117.9521283881057</v>
+        <v>-23.61673462936946</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3981532125832632</v>
+        <v>0.6931927711190304</v>
       </c>
       <c r="I86" t="n">
-        <v>145.2340000152588</v>
+        <v>29.85699996948242</v>
       </c>
       <c r="J86" t="n">
-        <v>125.9458004760742</v>
+        <v>30.65559986114502</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:46.334552</t>
+          <t>2025-06-01T00:43:04.942171</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Elastic N.V.</t>
+          <t>Cloudflare, Inc.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>91.65000000000001</v>
+        <v>165.89</v>
       </c>
       <c r="D87" t="n">
-        <v>1875614.133333333</v>
+        <v>3300513.333333333</v>
       </c>
       <c r="E87" t="n">
-        <v>123.9599990844727</v>
+        <v>177.3679962158203</v>
       </c>
       <c r="F87" t="n">
-        <v>69</v>
+        <v>66.23999786376953</v>
       </c>
       <c r="G87" t="n">
-        <v>-10.41055836576137</v>
+        <v>145.0731177521318</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4020766643116991</v>
+        <v>0.3984186155525242</v>
       </c>
       <c r="I87" t="n">
-        <v>89.7375</v>
+        <v>147.4110004425049</v>
       </c>
       <c r="J87" t="n">
-        <v>87.22599975585938</v>
+        <v>126.9172006225586</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:46.656752</t>
+          <t>2025-06-01T00:43:04.956945</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88">
@@ -4730,10 +4728,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.33</v>
+        <v>7.28</v>
       </c>
       <c r="D88" t="n">
-        <v>2462526.3</v>
+        <v>2469296.666666667</v>
       </c>
       <c r="E88" t="n">
         <v>12.07999992370605</v>
@@ -4742,16 +4740,16 @@
         <v>4.650000095367432</v>
       </c>
       <c r="G88" t="n">
-        <v>-9.057077641509114</v>
+        <v>-7.142856273984788</v>
       </c>
       <c r="H88" t="n">
-        <v>1.014152719180539</v>
+        <v>1.01661135077318</v>
       </c>
       <c r="I88" t="n">
-        <v>7.231000089645386</v>
+        <v>7.306500101089478</v>
       </c>
       <c r="J88" t="n">
-        <v>6.482800035476685</v>
+        <v>6.4864000415802</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -4760,47 +4758,47 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:46.691149</t>
+          <t>2025-06-01T00:43:05.161340</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DOCN</t>
+          <t>ESTC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DigitalOcean Holdings, Inc.</t>
+          <t>Elastic N.V.</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>27.88</v>
+        <v>80.87</v>
       </c>
       <c r="D89" t="n">
-        <v>1441754.8</v>
+        <v>2178640</v>
       </c>
       <c r="E89" t="n">
-        <v>47.02000045776367</v>
+        <v>123.9599990844727</v>
       </c>
       <c r="F89" t="n">
-        <v>25.45000076293945</v>
+        <v>69</v>
       </c>
       <c r="G89" t="n">
-        <v>-23.61644065543397</v>
+        <v>-22.27775072110791</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6954482003702026</v>
+        <v>0.5977830811279652</v>
       </c>
       <c r="I89" t="n">
-        <v>30.01399993896484</v>
+        <v>89.48499984741211</v>
       </c>
       <c r="J89" t="n">
-        <v>30.81679988861084</v>
+        <v>86.94459976196289</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4809,11 +4807,11 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:46.713658</t>
+          <t>2025-06-01T00:43:05.240891</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4905,135 +4903,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intel Corporation</t>
+          <t>Advanced Micro Devices, Inc.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.14</v>
+        <v>110.73</v>
       </c>
       <c r="D2" t="n">
-        <v>72991540.90000001</v>
+        <v>39937796.66666666</v>
       </c>
       <c r="E2" t="n">
-        <v>36.92575583925323</v>
+        <v>187.2799987792969</v>
       </c>
       <c r="F2" t="n">
-        <v>17.67000007629395</v>
+        <v>76.48000335693359</v>
       </c>
       <c r="G2" t="n">
-        <v>-32.7322927244442</v>
+        <v>-33.65487872599255</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3571556272662635</v>
+        <v>0.384275784222053</v>
       </c>
       <c r="I2" t="n">
-        <v>20.90049991607666</v>
+        <v>109.2939994812012</v>
       </c>
       <c r="J2" t="n">
-        <v>21.12279991149902</v>
+        <v>101.6473997497559</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.468280</t>
+          <t>2025-06-01T00:42:51.838338</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NVIDIA Corporation</t>
+          <t>Intel Corporation</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>138.3702</v>
+        <v>19.55</v>
       </c>
       <c r="D3" t="n">
-        <v>229507504.7666667</v>
+        <v>74517170</v>
       </c>
       <c r="E3" t="n">
-        <v>153.1159160516902</v>
+        <v>36.92575583925323</v>
       </c>
       <c r="F3" t="n">
-        <v>86.62000274658203</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="G3" t="n">
-        <v>20.54471407137253</v>
+        <v>-36.22685299684944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3570627599270912</v>
+        <v>0.3762416662813228</v>
       </c>
       <c r="I3" t="n">
-        <v>126.8799995422363</v>
+        <v>20.88449993133545</v>
       </c>
       <c r="J3" t="n">
-        <v>115.8329997253418</v>
+        <v>21.0335998916626</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.488009</t>
+          <t>2025-06-01T00:42:51.863482</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices, Inc.</t>
+          <t>NVIDIA Corporation</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112.36</v>
+        <v>135.13</v>
       </c>
       <c r="D4" t="n">
-        <v>40526356.73333333</v>
+        <v>230300623.3333333</v>
       </c>
       <c r="E4" t="n">
-        <v>187.2799987792969</v>
+        <v>153.1159160516902</v>
       </c>
       <c r="F4" t="n">
-        <v>76.48000335693359</v>
+        <v>86.62000274658203</v>
       </c>
       <c r="G4" t="n">
-        <v>-31.96075994572476</v>
+        <v>23.29718344401015</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3764277118831732</v>
+        <v>0.3866295528802315</v>
       </c>
       <c r="I4" t="n">
-        <v>108.5564994812012</v>
+        <v>128.0970001220703</v>
       </c>
       <c r="J4" t="n">
-        <v>101.543999786377</v>
+        <v>116.2016000366211</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5042,96 +5040,94 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.542047</t>
+          <t>2025-06-01T00:42:51.867299</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>QUALCOMM Incorporated</t>
+          <t>Marvell Technology, Inc.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>147.44</v>
+        <v>60.19</v>
       </c>
       <c r="D5" t="n">
-        <v>8616220.300000001</v>
+        <v>19021673.33333333</v>
       </c>
       <c r="E5" t="n">
-        <v>227.0261500347901</v>
+        <v>127.3353330911318</v>
       </c>
       <c r="F5" t="n">
-        <v>120.8000030517578</v>
+        <v>47.03656077049741</v>
       </c>
       <c r="G5" t="n">
-        <v>-27.78531075895306</v>
+        <v>-12.23791428282197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4360260707955821</v>
+        <v>0.5733775838315094</v>
       </c>
       <c r="I5" t="n">
-        <v>147.2870002746582</v>
+        <v>62.14599990844727</v>
       </c>
       <c r="J5" t="n">
-        <v>146.2316007995605</v>
+        <v>59.94981170654297</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.875450</t>
+          <t>2025-06-01T00:42:52.208536</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>QUALCOMM Incorporated</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>240.795</v>
+        <v>145.2</v>
       </c>
       <c r="D6" t="n">
-        <v>19794166.9</v>
+        <v>8808443.333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>250.4490823233351</v>
+        <v>227.0261655314419</v>
       </c>
       <c r="F6" t="n">
-        <v>127.3511204867605</v>
-      </c>
-      <c r="G6" t="n">
-        <v>75.26715602187114</v>
-      </c>
+        <v>120.8000030517578</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.3317332110699321</v>
+        <v>0.2950187002183183</v>
       </c>
       <c r="I6" t="n">
-        <v>221.8547485351563</v>
+        <v>147.8314994812012</v>
       </c>
       <c r="J6" t="n">
-        <v>194.8848992919922</v>
+        <v>145.9884007263184</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5140,7 +5136,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.902434</t>
+          <t>2025-06-01T00:42:52.217844</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -5150,50 +5146,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marvell Technology, Inc.</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.52</v>
+        <v>242.07</v>
       </c>
       <c r="D7" t="n">
-        <v>17515122.3</v>
+        <v>19771436.66666667</v>
       </c>
       <c r="E7" t="n">
-        <v>127.3353330911318</v>
+        <v>250.4490823233351</v>
       </c>
       <c r="F7" t="n">
-        <v>47.03656077049741</v>
+        <v>127.3511204867605</v>
       </c>
       <c r="G7" t="n">
-        <v>-15.90115992186176</v>
+        <v>84.43369092455522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.555772323245507</v>
+        <v>0.3293211826753084</v>
       </c>
       <c r="I7" t="n">
-        <v>62.17350006103516</v>
+        <v>224.1504989624023</v>
       </c>
       <c r="J7" t="n">
-        <v>60.13642723083496</v>
+        <v>195.8501992797852</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:30.931143</t>
+          <t>2025-06-01T00:42:52.234830</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -5208,10 +5204,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83.78</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>10699456.26666667</v>
+        <v>10879480</v>
       </c>
       <c r="E8" t="n">
         <v>111.9745134294298</v>
@@ -5220,16 +5216,16 @@
         <v>56.31999969482422</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.13952678038365</v>
+        <v>-12.56285626878236</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4120946696357358</v>
+        <v>0.4449884761488646</v>
       </c>
       <c r="I8" t="n">
-        <v>80.32850036621093</v>
+        <v>80.80050048828124</v>
       </c>
       <c r="J8" t="n">
-        <v>74.04920013427734</v>
+        <v>74.11400024414063</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5238,11 +5234,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:31.231140</t>
+          <t>2025-06-01T00:42:52.649884</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -5257,28 +5253,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>773.59</v>
+        <v>756.88</v>
       </c>
       <c r="D9" t="n">
-        <v>1113001.666666667</v>
+        <v>1115460</v>
       </c>
       <c r="E9" t="n">
-        <v>888.0588896868824</v>
+        <v>888.0589538254965</v>
       </c>
       <c r="F9" t="n">
         <v>550.0059693767323</v>
       </c>
       <c r="G9" t="n">
-        <v>1.09097223130592</v>
+        <v>0.578095723035732</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4523107126648693</v>
+        <v>0.4357521351352004</v>
       </c>
       <c r="I9" t="n">
-        <v>750.22626953125</v>
+        <v>754.3549774169921</v>
       </c>
       <c r="J9" t="n">
-        <v>702.2615502929688</v>
+        <v>703.0491125488281</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5287,11 +5283,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:31.398826</t>
+          <t>2025-06-01T00:42:53.090105</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -5306,10 +5302,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>159.03</v>
+        <v>156.75</v>
       </c>
       <c r="D10" t="n">
-        <v>7046594.833333333</v>
+        <v>7338410</v>
       </c>
       <c r="E10" t="n">
         <v>253.4949750137349</v>
@@ -5318,16 +5314,16 @@
         <v>123.3891353973954</v>
       </c>
       <c r="G10" t="n">
-        <v>-26.7142089782669</v>
+        <v>-26.43157132979388</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4308515288795763</v>
+        <v>0.4323057455707556</v>
       </c>
       <c r="I10" t="n">
-        <v>161.1047058105469</v>
+        <v>161.5378234863281</v>
       </c>
       <c r="J10" t="n">
-        <v>151.0859089660645</v>
+        <v>151.1494679260254</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5336,11 +5332,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:31.869797</t>
+          <t>2025-06-01T00:42:53.129566</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5441,10 +5437,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>356.995</v>
+        <v>346.46</v>
       </c>
       <c r="D2" t="n">
-        <v>108808455.6333333</v>
+        <v>109983446.6666667</v>
       </c>
       <c r="E2" t="n">
         <v>488.5400085449219</v>
@@ -5453,16 +5449,16 @@
         <v>167.4100036621094</v>
       </c>
       <c r="G2" t="n">
-        <v>102.6221664414381</v>
+        <v>94.55300308440377</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4844383812494647</v>
+        <v>0.5065269580190835</v>
       </c>
       <c r="I2" t="n">
-        <v>322.6635025024414</v>
+        <v>326.0320022583008</v>
       </c>
       <c r="J2" t="n">
-        <v>284.1728021240235</v>
+        <v>286.4134017944336</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -5471,11 +5467,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.249482</t>
+          <t>2025-06-01T00:42:57.214328</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -5490,10 +5486,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.68</v>
+        <v>41.39</v>
       </c>
       <c r="D3" t="n">
-        <v>7738787.2</v>
+        <v>8054286.666666667</v>
       </c>
       <c r="E3" t="n">
         <v>141.6300048828125</v>
@@ -5502,16 +5498,16 @@
         <v>37.59000015258789</v>
       </c>
       <c r="G3" t="n">
-        <v>-69.22587353500332</v>
+        <v>-67.6387811603945</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9678664469887632</v>
+        <v>0.9914614076746127</v>
       </c>
       <c r="I3" t="n">
-        <v>45.22749977111816</v>
+        <v>45.09749984741211</v>
       </c>
       <c r="J3" t="n">
-        <v>51.09540000915527</v>
+        <v>50.68819999694824</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -5520,11 +5516,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.568525</t>
+          <t>2025-06-01T00:42:57.432778</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -5539,10 +5535,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.52</v>
+        <v>17.86</v>
       </c>
       <c r="D4" t="n">
-        <v>5470622.266666667</v>
+        <v>5551740</v>
       </c>
       <c r="E4" t="n">
         <v>51.5</v>
@@ -5551,16 +5547,16 @@
         <v>10.23999977111816</v>
       </c>
       <c r="G4" t="n">
-        <v>-65.98023066191672</v>
+        <v>-63.5435803256937</v>
       </c>
       <c r="H4" t="n">
-        <v>1.576051912696914</v>
+        <v>1.586818169510589</v>
       </c>
       <c r="I4" t="n">
-        <v>17.37450008392334</v>
+        <v>17.64450011253357</v>
       </c>
       <c r="J4" t="n">
-        <v>15.52180015563965</v>
+        <v>15.54100017547607</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5569,11 +5565,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.606501</t>
+          <t>2025-06-01T00:42:57.521823</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -5588,10 +5584,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153.965</v>
+        <v>158.08</v>
       </c>
       <c r="D5" t="n">
-        <v>5519440.433333334</v>
+        <v>5643810</v>
       </c>
       <c r="E5" t="n">
         <v>306.7699890136719</v>
@@ -5600,16 +5596,16 @@
         <v>116.5599975585938</v>
       </c>
       <c r="G5" t="n">
-        <v>-44.65473417927034</v>
+        <v>-41.83102879360793</v>
       </c>
       <c r="H5" t="n">
-        <v>1.021041086978748</v>
+        <v>1.017142443930709</v>
       </c>
       <c r="I5" t="n">
-        <v>154.8532493591309</v>
+        <v>156.52799949646</v>
       </c>
       <c r="J5" t="n">
-        <v>139.7015005493164</v>
+        <v>140.3160006713867</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5618,47 +5614,47 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.641417</t>
+          <t>2025-06-01T00:42:57.526957</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RUN</t>
+          <t>SPWR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sunrun Inc.</t>
+          <t>Complete Solaria, Inc.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.8117</v>
+        <v>1.39</v>
       </c>
       <c r="D6" t="n">
-        <v>19062364.43333333</v>
+        <v>883906.6666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>22.26000022888184</v>
+        <v>3.369999885559082</v>
       </c>
       <c r="F6" t="n">
-        <v>5.449999809265137</v>
+        <v>1.059999942779541</v>
       </c>
       <c r="G6" t="n">
-        <v>-49.05235657776002</v>
+        <v>-20.57142938886371</v>
       </c>
       <c r="H6" t="n">
-        <v>1.774760788555627</v>
+        <v>1.025758611520389</v>
       </c>
       <c r="I6" t="n">
-        <v>9.11408498287201</v>
+        <v>1.683499991893768</v>
       </c>
       <c r="J6" t="n">
-        <v>7.60603401184082</v>
+        <v>1.684299998283386</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5667,47 +5663,47 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:36.913337</t>
+          <t>2025-06-01T00:42:57.759883</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>RUN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NextEra Energy, Inc.</t>
+          <t>Sunrun Inc.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68.77</v>
+        <v>7.49</v>
       </c>
       <c r="D7" t="n">
-        <v>13676568.03333333</v>
+        <v>19793273.33333333</v>
       </c>
       <c r="E7" t="n">
-        <v>84.82785464854152</v>
+        <v>22.26000022888184</v>
       </c>
       <c r="F7" t="n">
-        <v>61.72000122070312</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.787572885734417</v>
+        <v>-48.20193809572081</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3813484162901976</v>
+        <v>1.797408540191027</v>
       </c>
       <c r="I7" t="n">
-        <v>69.69200057983399</v>
+        <v>9.130999970436097</v>
       </c>
       <c r="J7" t="n">
-        <v>68.69020004272461</v>
+        <v>7.623400011062622</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -5716,47 +5712,47 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:37.151681</t>
+          <t>2025-06-01T00:42:57.841942</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SPWR</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Complete Solaria, Inc.</t>
+          <t>NextEra Energy, Inc.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.2001</v>
+        <v>70.64</v>
       </c>
       <c r="D8" t="n">
-        <v>861852</v>
+        <v>14094040</v>
       </c>
       <c r="E8" t="n">
-        <v>3.369999885559082</v>
+        <v>84.82785464854152</v>
       </c>
       <c r="F8" t="n">
-        <v>1.059999942779541</v>
+        <v>61.72000122070312</v>
       </c>
       <c r="G8" t="n">
-        <v>-24.52201761793303</v>
+        <v>-9.233681660890836</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9593726495521095</v>
+        <v>0.387725349909488</v>
       </c>
       <c r="I8" t="n">
-        <v>1.708004993200302</v>
+        <v>69.93250045776367</v>
       </c>
       <c r="J8" t="n">
-        <v>1.687101998329163</v>
+        <v>68.69740005493163</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5765,11 +5761,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:37.226916</t>
+          <t>2025-06-01T00:42:57.914326</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -5784,10 +5780,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.912</v>
+        <v>0.8827</v>
       </c>
       <c r="D9" t="n">
-        <v>147116978.0333333</v>
+        <v>148271590</v>
       </c>
       <c r="E9" t="n">
         <v>3.549999952316284</v>
@@ -5796,16 +5792,16 @@
         <v>0.6899999976158142</v>
       </c>
       <c r="G9" t="n">
-        <v>-71.50000040978193</v>
+        <v>-73.57357311130954</v>
       </c>
       <c r="H9" t="n">
-        <v>1.095271194621868</v>
+        <v>1.10782531330222</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8166000008583069</v>
+        <v>0.8189999997615814</v>
       </c>
       <c r="J9" t="n">
-        <v>1.029440003633499</v>
+        <v>1.015800002813339</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5814,11 +5810,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.495144</t>
+          <t>2025-06-01T00:42:59.707651</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -5833,10 +5829,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.54</v>
+        <v>18.47</v>
       </c>
       <c r="D10" t="n">
-        <v>5781814.266666667</v>
+        <v>5813933.333333333</v>
       </c>
       <c r="E10" t="n">
         <v>29.82500076293945</v>
@@ -5845,16 +5841,16 @@
         <v>9.020000457763672</v>
       </c>
       <c r="G10" t="n">
-        <v>19.45876526216825</v>
+        <v>13.17401751675358</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6334314629586513</v>
+        <v>0.5499533422643637</v>
       </c>
       <c r="I10" t="n">
-        <v>18.39200010299682</v>
+        <v>18.47650003433228</v>
       </c>
       <c r="J10" t="n">
-        <v>19.03860004425049</v>
+        <v>18.92240001678467</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5863,11 +5859,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.755010</t>
+          <t>2025-06-01T00:42:59.810484</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -5882,10 +5878,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="D11" t="n">
-        <v>7056849.533333333</v>
+        <v>7356813.333333333</v>
       </c>
       <c r="E11" t="n">
         <v>3.230000019073486</v>
@@ -5894,16 +5890,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-53.13531450518978</v>
+        <v>-58.25242725937682</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5315356388724944</v>
+        <v>0.6514000652288174</v>
       </c>
       <c r="I11" t="n">
-        <v>1.338499987125397</v>
+        <v>1.341999983787537</v>
       </c>
       <c r="J11" t="n">
-        <v>1.245000002384186</v>
+        <v>1.244200000762939</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5912,11 +5908,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:39.838680</t>
+          <t>2025-06-01T00:43:00.050488</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6017,28 +6013,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>457.38</v>
+        <v>460.36</v>
       </c>
       <c r="D2" t="n">
-        <v>21620501.53333334</v>
+        <v>22264463.33333333</v>
       </c>
       <c r="E2" t="n">
-        <v>464.7865306658392</v>
+        <v>464.7864695275555</v>
       </c>
       <c r="F2" t="n">
         <v>344.1581969485817</v>
       </c>
       <c r="G2" t="n">
-        <v>7.394682532483055</v>
+        <v>11.74560797897401</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3050667683499473</v>
+        <v>0.1644783728041524</v>
       </c>
       <c r="I2" t="n">
-        <v>447.0600555419922</v>
+        <v>448.9110870361328</v>
       </c>
       <c r="J2" t="n">
-        <v>407.0402532958984</v>
+        <v>408.5308880615235</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -6047,11 +6043,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.243069</t>
+          <t>2025-06-01T00:42:54.566488</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -6066,10 +6062,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171.08</v>
+        <v>171.74</v>
       </c>
       <c r="D3" t="n">
-        <v>40649002.66666666</v>
+        <v>41768930</v>
       </c>
       <c r="E3" t="n">
         <v>206.8118208130025</v>
@@ -6078,16 +6074,16 @@
         <v>140.5299987792969</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.275190382927461</v>
+        <v>0.03541854499018449</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3851977891558863</v>
+        <v>0.3816439111419104</v>
       </c>
       <c r="I3" t="n">
-        <v>163.9724998474121</v>
+        <v>164.5334999084473</v>
       </c>
       <c r="J3" t="n">
-        <v>159.8072009277344</v>
+        <v>159.9798010253906</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6096,11 +6092,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.430990</t>
+          <t>2025-06-01T00:42:54.656301</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -6115,10 +6111,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>204.62</v>
+        <v>205.01</v>
       </c>
       <c r="D4" t="n">
-        <v>44919093.73333333</v>
+        <v>45338356.66666666</v>
       </c>
       <c r="E4" t="n">
         <v>242.5200042724609</v>
@@ -6127,16 +6123,16 @@
         <v>151.6100006103516</v>
       </c>
       <c r="G4" t="n">
-        <v>12.41621267676558</v>
+        <v>16.19246864095769</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3649293798512054</v>
+        <v>0.3525302413067643</v>
       </c>
       <c r="I4" t="n">
-        <v>199.8605003356934</v>
+        <v>200.6550003051758</v>
       </c>
       <c r="J4" t="n">
-        <v>191.6767999267578</v>
+        <v>191.887799987793</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6145,11 +6141,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.588302</t>
+          <t>2025-06-01T00:42:54.787475</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -6164,10 +6160,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>642.0001</v>
+        <v>647.49</v>
       </c>
       <c r="D5" t="n">
-        <v>14847758.63333333</v>
+        <v>14869060</v>
       </c>
       <c r="E5" t="n">
         <v>740.2514192957425</v>
@@ -6176,16 +6172,16 @@
         <v>441.4789064419887</v>
       </c>
       <c r="G5" t="n">
-        <v>35.83400985412011</v>
+        <v>39.2053082502082</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3909917537972233</v>
+        <v>0.3686143808998931</v>
       </c>
       <c r="I5" t="n">
-        <v>624.3360107421875</v>
+        <v>628.2525024414062</v>
       </c>
       <c r="J5" t="n">
-        <v>581.3812048339844</v>
+        <v>582.7108020019531</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6194,11 +6190,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.621917</t>
+          <t>2025-06-01T00:42:54.958576</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -6213,28 +6209,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>161.71</v>
+        <v>165.53</v>
       </c>
       <c r="D6" t="n">
-        <v>7910254.866666666</v>
+        <v>8319586.666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>197.1156885625032</v>
+        <v>197.1156726739735</v>
       </c>
       <c r="F6" t="n">
         <v>113.2848267763727</v>
       </c>
       <c r="G6" t="n">
-        <v>32.144821018028</v>
+        <v>42.82673510864592</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3199881639672288</v>
+        <v>0.3011883978509222</v>
       </c>
       <c r="I6" t="n">
-        <v>156.1714996337891</v>
+        <v>157.2329986572266</v>
       </c>
       <c r="J6" t="n">
-        <v>145.4426136779785</v>
+        <v>145.7389268493652</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -6243,11 +6239,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:33.957455</t>
+          <t>2025-06-01T00:42:55.059176</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -6262,28 +6258,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>261.91</v>
+        <v>265.37</v>
       </c>
       <c r="D7" t="n">
-        <v>6538874.233333333</v>
+        <v>7003306.666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>368.0012138342595</v>
+        <v>368.00124444558</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7666833035836</v>
+        <v>214.8030626524035</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.010611995073609</v>
+        <v>13.85549527793282</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3307970134813852</v>
+        <v>0.2996049665032905</v>
       </c>
       <c r="I7" t="n">
-        <v>280.2040008544922</v>
+        <v>280.2565017700196</v>
       </c>
       <c r="J7" t="n">
-        <v>269.613226928711</v>
+        <v>269.4417926025391</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6292,11 +6288,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.021328</t>
+          <t>2025-06-01T00:42:55.198354</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -6311,10 +6307,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1013.03</v>
+        <v>1011.09</v>
       </c>
       <c r="D8" t="n">
-        <v>1681760.366666667</v>
+        <v>1719846.666666667</v>
       </c>
       <c r="E8" t="n">
         <v>1198.089965820312</v>
@@ -6323,16 +6319,16 @@
         <v>637.989990234375</v>
       </c>
       <c r="G8" t="n">
-        <v>38.55865467535211</v>
+        <v>53.91138144524912</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2246084183077701</v>
+        <v>0.2247897511812254</v>
       </c>
       <c r="I8" t="n">
-        <v>1005.758502197266</v>
+        <v>1008.525500488281</v>
       </c>
       <c r="J8" t="n">
-        <v>896.235</v>
+        <v>899.6183996582031</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -6341,47 +6337,47 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.057970</t>
+          <t>2025-06-01T00:42:55.331968</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>SNOW</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Snowflake Inc.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>122.4</v>
+        <v>205.67</v>
       </c>
       <c r="D9" t="n">
-        <v>95192819.66666667</v>
+        <v>5203520</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4900054931641</v>
+        <v>209.8000030517578</v>
       </c>
       <c r="F9" t="n">
-        <v>20.63999938964844</v>
+        <v>107.129997253418</v>
       </c>
       <c r="G9" t="n">
-        <v>484.5272130093925</v>
+        <v>51.02805788703968</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6928896593612107</v>
+        <v>0.5124865411259437</v>
       </c>
       <c r="I9" t="n">
-        <v>122.1034999847412</v>
+        <v>184.8859992980957</v>
       </c>
       <c r="J9" t="n">
-        <v>104.7857998657227</v>
+        <v>163.9647994995117</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -6390,47 +6386,47 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.314229</t>
+          <t>2025-06-01T00:42:55.360960</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SNOW</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Snowflake Inc.</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>202.72</v>
+        <v>131.78</v>
       </c>
       <c r="D10" t="n">
-        <v>5025880.766666667</v>
+        <v>97790753.33333333</v>
       </c>
       <c r="E10" t="n">
-        <v>209.8000030517578</v>
+        <v>133.4900054931641</v>
       </c>
       <c r="F10" t="n">
-        <v>107.129997253418</v>
+        <v>21.0049991607666</v>
       </c>
       <c r="G10" t="n">
-        <v>36.79735331731155</v>
+        <v>507.8413142265332</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5190386311152727</v>
+        <v>0.736416975725012</v>
       </c>
       <c r="I10" t="n">
-        <v>182.8909996032715</v>
+        <v>122.8784999847412</v>
       </c>
       <c r="J10" t="n">
-        <v>162.9787997436523</v>
+        <v>105.6977998352051</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -6439,11 +6435,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.344082</t>
+          <t>2025-06-01T00:42:55.627242</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -6458,10 +6454,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28.4952</v>
+        <v>26.59</v>
       </c>
       <c r="D11" t="n">
-        <v>5302314.9</v>
+        <v>5905093.333333333</v>
       </c>
       <c r="E11" t="n">
         <v>45.08000183105469</v>
@@ -6470,16 +6466,16 @@
         <v>17.03000068664551</v>
       </c>
       <c r="G11" t="n">
-        <v>19.12708659115576</v>
+        <v>-10.07778009127924</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9658140486635466</v>
+        <v>0.8950444396189311</v>
       </c>
       <c r="I11" t="n">
-        <v>23.29825992584228</v>
+        <v>23.50149993896484</v>
       </c>
       <c r="J11" t="n">
-        <v>22.02230396270752</v>
+        <v>22.08619995117187</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -6488,11 +6484,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-05-29T18:21:34.424937</t>
+          <t>2025-06-01T00:42:55.704552</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6506,7 +6502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6584,6 +6580,22 @@
         <v>14.48170546163422</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>149.8732284090909</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.97072367055732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/data/collected/ai_gpu_energy_stocks.xlsx
+++ b/src/data/collected/ai_gpu_energy_stocks.xlsx
@@ -507,37 +507,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices, Inc.</t>
+          <t>NVIDIA Corporation</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>110.73</v>
+        <v>139.99</v>
       </c>
       <c r="D2" t="n">
-        <v>39937796.66666666</v>
+        <v>221995621.3</v>
       </c>
       <c r="E2" t="n">
-        <v>187.2799987792969</v>
+        <v>153.1159160516902</v>
       </c>
       <c r="F2" t="n">
-        <v>76.48000335693359</v>
+        <v>86.62000274658203</v>
       </c>
       <c r="G2" t="n">
-        <v>-33.65487872599255</v>
+        <v>15.73415061207601</v>
       </c>
       <c r="H2" t="n">
-        <v>0.384275784222053</v>
+        <v>0.3837902888200692</v>
       </c>
       <c r="I2" t="n">
-        <v>109.2939994812012</v>
+        <v>133.1765007019043</v>
       </c>
       <c r="J2" t="n">
-        <v>101.6473997497559</v>
+        <v>117.8452001953125</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:51.838338</t>
+          <t>2025-06-05T23:32:51.746325</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -556,46 +556,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intel Corporation</t>
+          <t>Advanced Micro Devices, Inc.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.55</v>
+        <v>115.69</v>
       </c>
       <c r="D3" t="n">
-        <v>74517170</v>
+        <v>39639065.16666666</v>
       </c>
       <c r="E3" t="n">
-        <v>36.92575583925323</v>
+        <v>187.2799987792969</v>
       </c>
       <c r="F3" t="n">
-        <v>17.67000007629395</v>
+        <v>76.48000335693359</v>
       </c>
       <c r="G3" t="n">
-        <v>-36.22685299684944</v>
+        <v>-30.63316747321661</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3762416662813228</v>
+        <v>0.3992399366979723</v>
       </c>
       <c r="I3" t="n">
-        <v>20.88449993133545</v>
+        <v>112.6859992980957</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0335998916626</v>
+        <v>102.1267997741699</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:51.863482</t>
+          <t>2025-06-05T23:32:51.754329</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -605,46 +605,46 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NVIDIA Corporation</t>
+          <t>Intel Corporation</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135.13</v>
+        <v>19.99</v>
       </c>
       <c r="D4" t="n">
-        <v>230300623.3333333</v>
+        <v>72968224.63333334</v>
       </c>
       <c r="E4" t="n">
-        <v>153.1159160516902</v>
+        <v>36.92575583925323</v>
       </c>
       <c r="F4" t="n">
-        <v>86.62000274658203</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="G4" t="n">
-        <v>23.29718344401015</v>
+        <v>-33.86979655743648</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3866295528802315</v>
+        <v>0.360460108530831</v>
       </c>
       <c r="I4" t="n">
-        <v>128.0970001220703</v>
+        <v>20.84099988937378</v>
       </c>
       <c r="J4" t="n">
-        <v>116.2016000366211</v>
+        <v>20.7061999130249</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:51.867299</t>
+          <t>2025-06-05T23:32:51.861514</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -654,46 +654,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marvell Technology, Inc.</t>
+          <t>QUALCOMM Incorporated</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60.19</v>
+        <v>147.56</v>
       </c>
       <c r="D5" t="n">
-        <v>19021673.33333333</v>
+        <v>8568465.233333332</v>
       </c>
       <c r="E5" t="n">
-        <v>127.3353330911318</v>
+        <v>227.0261655314419</v>
       </c>
       <c r="F5" t="n">
-        <v>47.03656077049741</v>
+        <v>120.8000030517578</v>
       </c>
       <c r="G5" t="n">
-        <v>-12.23791428282197</v>
+        <v>-28.42704866964717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5733775838315094</v>
+        <v>0.2598546029473691</v>
       </c>
       <c r="I5" t="n">
-        <v>62.14599990844727</v>
+        <v>149.2680000305176</v>
       </c>
       <c r="J5" t="n">
-        <v>59.94981170654297</v>
+        <v>145.1320008850098</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.208536</t>
+          <t>2025-06-05T23:32:52.118151</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -703,35 +703,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QUALCOMM Incorporated</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>145.2</v>
+        <v>259.93</v>
       </c>
       <c r="D6" t="n">
-        <v>8808443.333333334</v>
+        <v>20851626.36666667</v>
       </c>
       <c r="E6" t="n">
-        <v>227.0261655314419</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="F6" t="n">
-        <v>120.8000030517578</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>127.3511204867605</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87.76374628683541</v>
+      </c>
       <c r="H6" t="n">
-        <v>0.2950187002183183</v>
+        <v>0.3200645082349693</v>
       </c>
       <c r="I6" t="n">
-        <v>147.8314994812012</v>
+        <v>235.015998840332</v>
       </c>
       <c r="J6" t="n">
-        <v>145.9884007263184</v>
+        <v>201.1473992919922</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -740,56 +742,56 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.217844</t>
+          <t>2025-06-05T23:32:52.184244</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>Marvell Technology, Inc.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>242.07</v>
+        <v>65.16</v>
       </c>
       <c r="D7" t="n">
-        <v>19771436.66666667</v>
+        <v>19908750.73333333</v>
       </c>
       <c r="E7" t="n">
-        <v>250.4490823233351</v>
+        <v>127.3353330911318</v>
       </c>
       <c r="F7" t="n">
-        <v>127.3511204867605</v>
+        <v>47.03656077049741</v>
       </c>
       <c r="G7" t="n">
-        <v>84.43369092455522</v>
+        <v>-4.000685207432609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3293211826753084</v>
+        <v>0.5324739787865247</v>
       </c>
       <c r="I7" t="n">
-        <v>224.1504989624023</v>
+        <v>62.8185001373291</v>
       </c>
       <c r="J7" t="n">
-        <v>195.8501992797852</v>
+        <v>59.35588775634766</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.234830</t>
+          <t>2025-06-05T23:32:52.448503</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -808,10 +810,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80.79000000000001</v>
+        <v>84.91</v>
       </c>
       <c r="D8" t="n">
-        <v>10879480</v>
+        <v>10174193.1</v>
       </c>
       <c r="E8" t="n">
         <v>111.9745134294298</v>
@@ -820,16 +822,16 @@
         <v>56.31999969482422</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.56285626878236</v>
+        <v>-10.94521037371275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4449884761488646</v>
+        <v>0.4207420306646481</v>
       </c>
       <c r="I8" t="n">
-        <v>80.80050048828124</v>
+        <v>82.75900077819824</v>
       </c>
       <c r="J8" t="n">
-        <v>74.11400024414063</v>
+        <v>74.64940048217774</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -838,7 +840,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.649884</t>
+          <t>2025-06-05T23:32:52.715119</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -857,10 +859,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>756.88</v>
+        <v>791.89</v>
       </c>
       <c r="D9" t="n">
-        <v>1115460</v>
+        <v>1094718.466666667</v>
       </c>
       <c r="E9" t="n">
         <v>888.0589538254965</v>
@@ -869,16 +871,16 @@
         <v>550.0059693767323</v>
       </c>
       <c r="G9" t="n">
-        <v>0.578095723035732</v>
+        <v>2.566079702608537</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4357521351352004</v>
+        <v>0.41017706794535</v>
       </c>
       <c r="I9" t="n">
-        <v>754.3549774169921</v>
+        <v>772.0365203857422</v>
       </c>
       <c r="J9" t="n">
-        <v>703.0491125488281</v>
+        <v>707.9806823730469</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -887,7 +889,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.090105</t>
+          <t>2025-06-05T23:32:52.883946</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -906,28 +908,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>156.75</v>
+        <v>164.19</v>
       </c>
       <c r="D10" t="n">
-        <v>7338410</v>
+        <v>7253533.4</v>
       </c>
       <c r="E10" t="n">
-        <v>253.4949750137349</v>
+        <v>253.4949443860414</v>
       </c>
       <c r="F10" t="n">
         <v>123.3891353973954</v>
       </c>
       <c r="G10" t="n">
-        <v>-26.43157132979388</v>
+        <v>-25.25759056643078</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4323057455707556</v>
+        <v>0.4145496262739519</v>
       </c>
       <c r="I10" t="n">
-        <v>161.5378234863281</v>
+        <v>162.9545166015625</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1494679260254</v>
+        <v>151.7851493835449</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -936,7 +938,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.129566</t>
+          <t>2025-06-05T23:32:53.151006</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -955,28 +957,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>736.77</v>
+        <v>747.76</v>
       </c>
       <c r="D11" t="n">
-        <v>1295506.666666667</v>
+        <v>1220568.333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>1102.565994376884</v>
+        <v>1099.73286725134</v>
       </c>
       <c r="F11" t="n">
-        <v>576.8708473389951</v>
+        <v>576.7238966481891</v>
       </c>
       <c r="G11" t="n">
-        <v>-22.75756474180417</v>
+        <v>-28.2922957106252</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3328605747137696</v>
+        <v>0.296699459681473</v>
       </c>
       <c r="I11" t="n">
-        <v>732.6585021972656</v>
+        <v>744.1710052490234</v>
       </c>
       <c r="J11" t="n">
-        <v>692.0582104492188</v>
+        <v>693.738779296875</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -985,7 +987,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.230960</t>
+          <t>2025-06-05T23:32:53.299914</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1004,10 +1006,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>193.32</v>
+        <v>203.34</v>
       </c>
       <c r="D12" t="n">
-        <v>13960903.33333333</v>
+        <v>12896315.63333333</v>
       </c>
       <c r="E12" t="n">
         <v>225.5213062145149</v>
@@ -1016,16 +1018,16 @@
         <v>132.1427057909592</v>
       </c>
       <c r="G12" t="n">
-        <v>29.78323568413597</v>
+        <v>27.21954894740519</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3487232458735466</v>
+        <v>0.3065439130668404</v>
       </c>
       <c r="I12" t="n">
-        <v>188.4789985656738</v>
+        <v>193.2634986877441</v>
       </c>
       <c r="J12" t="n">
-        <v>172.5351992797852</v>
+        <v>174.1737991333008</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1034,7 +1036,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.480308</t>
+          <t>2025-06-05T23:32:53.306131</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1053,37 +1055,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>94.45999999999999</v>
+        <v>106.29</v>
       </c>
       <c r="D13" t="n">
-        <v>18647493.33333333</v>
+        <v>18504399</v>
       </c>
       <c r="E13" t="n">
-        <v>156.8171248753474</v>
+        <v>156.8170935443656</v>
       </c>
       <c r="F13" t="n">
         <v>61.54000091552734</v>
       </c>
       <c r="G13" t="n">
-        <v>-24.08365387050357</v>
+        <v>-17.9057740142371</v>
       </c>
       <c r="H13" t="n">
-        <v>0.413085489343842</v>
+        <v>0.4247977856981923</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89400024414063</v>
+        <v>96.17900009155274</v>
       </c>
       <c r="J13" t="n">
-        <v>84.1932209777832</v>
+        <v>84.62593338012695</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.552439</t>
+          <t>2025-06-05T23:32:53.558114</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1102,28 +1104,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58.04</v>
+        <v>64.37</v>
       </c>
       <c r="D14" t="n">
-        <v>10439130</v>
+        <v>10458352.46666667</v>
       </c>
       <c r="E14" t="n">
-        <v>95.4342963930855</v>
+        <v>94.34472854206108</v>
       </c>
       <c r="F14" t="n">
         <v>33.86790419123942</v>
       </c>
       <c r="G14" t="n">
-        <v>-38.63910861820173</v>
+        <v>-29.12595505934168</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6447315399768672</v>
+        <v>0.6597735300857382</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12723007202148</v>
+        <v>59.29407176971436</v>
       </c>
       <c r="J14" t="n">
-        <v>48.92640403747559</v>
+        <v>49.83669914245606</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1132,7 +1134,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.578637</t>
+          <t>2025-06-05T23:32:53.662263</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1151,28 +1153,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>213.98</v>
+        <v>218.04</v>
       </c>
       <c r="D15" t="n">
-        <v>4300040</v>
+        <v>4246543.366666666</v>
       </c>
       <c r="E15" t="n">
-        <v>246.0295685061852</v>
+        <v>244.9144861718026</v>
       </c>
       <c r="F15" t="n">
-        <v>158.6499938964844</v>
+        <v>157.9309433380635</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.232033747197542</v>
+        <v>-6.581013941585667</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3789912117284463</v>
+        <v>0.3631680331988975</v>
       </c>
       <c r="I15" t="n">
-        <v>214.4414985656738</v>
+        <v>217.483179473877</v>
       </c>
       <c r="J15" t="n">
-        <v>199.9077990722656</v>
+        <v>199.7222204589844</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1181,7 +1183,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.866959</t>
+          <t>2025-06-05T23:32:53.735363</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1191,37 +1193,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Texas Instruments Incorporated</t>
+          <t>NXP Semiconductors N.V.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>182.85</v>
+        <v>206.9</v>
       </c>
       <c r="D16" t="n">
-        <v>7889393.333333333</v>
+        <v>3104620.133333333</v>
       </c>
       <c r="E16" t="n">
-        <v>216.9215523476831</v>
+        <v>292.0064086917568</v>
       </c>
       <c r="F16" t="n">
-        <v>138.7661291265372</v>
+        <v>148.0899963378906</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.484891196316997</v>
+        <v>-22.59816170464225</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4270298619319276</v>
+        <v>0.4632210611860048</v>
       </c>
       <c r="I16" t="n">
-        <v>179.2040000915527</v>
+        <v>201.988500213623</v>
       </c>
       <c r="J16" t="n">
-        <v>168.987751159668</v>
+        <v>189.2413998413086</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1230,7 +1232,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.970735</t>
+          <t>2025-06-05T23:32:54.011600</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1240,37 +1242,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NXP Semiconductors N.V.</t>
+          <t>Texas Instruments Incorporated</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>191.13</v>
+        <v>190.49</v>
       </c>
       <c r="D17" t="n">
-        <v>3129176.666666667</v>
+        <v>7416829.1</v>
       </c>
       <c r="E17" t="n">
-        <v>292.0064086917568</v>
+        <v>216.9215523476831</v>
       </c>
       <c r="F17" t="n">
-        <v>148.0899963378906</v>
+        <v>138.7661291265372</v>
       </c>
       <c r="G17" t="n">
-        <v>-28.52141385200991</v>
+        <v>-0.08242190748368738</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4383813197799525</v>
+        <v>0.401148858264656</v>
       </c>
       <c r="I17" t="n">
-        <v>198.6724998474121</v>
+        <v>184.2385017395019</v>
       </c>
       <c r="J17" t="n">
-        <v>189.5821997070312</v>
+        <v>169.5979150390625</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1279,7 +1281,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.036671</t>
+          <t>2025-06-05T23:32:54.014297</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1298,10 +1300,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>69.03</v>
+        <v>70.785</v>
       </c>
       <c r="D18" t="n">
-        <v>3938626.666666667</v>
+        <v>4017933.533333333</v>
       </c>
       <c r="E18" t="n">
         <v>116.6971922375318</v>
@@ -1310,16 +1312,16 @@
         <v>47.44648554166133</v>
       </c>
       <c r="G18" t="n">
-        <v>-22.84434629900329</v>
+        <v>-20.07191684937348</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3425013347872142</v>
+        <v>0.3540784959793752</v>
       </c>
       <c r="I18" t="n">
-        <v>69.4868896484375</v>
+        <v>70.46484489440918</v>
       </c>
       <c r="J18" t="n">
-        <v>63.90991683959961</v>
+        <v>64.14667251586914</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1328,7 +1330,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.170482</t>
+          <t>2025-06-05T23:32:54.129797</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1347,10 +1349,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>76.02</v>
+        <v>78.12</v>
       </c>
       <c r="D19" t="n">
-        <v>2084130</v>
+        <v>2157930.433333333</v>
       </c>
       <c r="E19" t="n">
         <v>130.9900054931641</v>
@@ -1359,16 +1361,16 @@
         <v>49.45999908447266</v>
       </c>
       <c r="G19" t="n">
-        <v>-22.7360533441934</v>
+        <v>-21.86437275092927</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3410998918913754</v>
+        <v>0.3619495568837661</v>
       </c>
       <c r="I19" t="n">
-        <v>75.67650032043457</v>
+        <v>77.1640007019043</v>
       </c>
       <c r="J19" t="n">
-        <v>68.90960029602051</v>
+        <v>69.31520042419433</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1377,7 +1379,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.289732</t>
+          <t>2025-06-05T23:32:54.347062</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1396,28 +1398,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>661.9</v>
+        <v>681.0599999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>737563.3333333334</v>
+        <v>694101.8</v>
       </c>
       <c r="E20" t="n">
-        <v>953.7859836887119</v>
+        <v>953.7859207495868</v>
       </c>
       <c r="F20" t="n">
         <v>438.8599853515625</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.330658990332397</v>
+        <v>-9.532138282174763</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5491089932265747</v>
+        <v>0.5167336002940383</v>
       </c>
       <c r="I20" t="n">
-        <v>676.49150390625</v>
+        <v>686.803500366211</v>
       </c>
       <c r="J20" t="n">
-        <v>604.6481292724609</v>
+        <v>610.167133178711</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1426,7 +1428,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.481938</t>
+          <t>2025-06-05T23:32:54.366965</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1445,28 +1447,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>460.36</v>
+        <v>467.68</v>
       </c>
       <c r="D21" t="n">
-        <v>22264463.33333333</v>
+        <v>21753175.03333334</v>
       </c>
       <c r="E21" t="n">
-        <v>464.7864695275555</v>
+        <v>469.6499938964844</v>
       </c>
       <c r="F21" t="n">
         <v>344.1581969485817</v>
       </c>
       <c r="G21" t="n">
-        <v>11.74560797897401</v>
+        <v>11.01142940633311</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1644783728041524</v>
+        <v>0.144086887336154</v>
       </c>
       <c r="I21" t="n">
-        <v>448.9110870361328</v>
+        <v>454.989338684082</v>
       </c>
       <c r="J21" t="n">
-        <v>408.5308880615235</v>
+        <v>414.3912939453125</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1475,7 +1477,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.566488</t>
+          <t>2025-06-05T23:32:54.636947</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1494,10 +1496,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>171.74</v>
+        <v>168.21</v>
       </c>
       <c r="D22" t="n">
-        <v>41768930</v>
+        <v>42703369.43333333</v>
       </c>
       <c r="E22" t="n">
         <v>206.8118208130025</v>
@@ -1506,16 +1508,16 @@
         <v>140.5299987792969</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03541854499018449</v>
+        <v>-4.36585511005142</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3816439111419104</v>
+        <v>0.2748133075318104</v>
       </c>
       <c r="I22" t="n">
-        <v>164.5334999084473</v>
+        <v>165.9644996643066</v>
       </c>
       <c r="J22" t="n">
-        <v>159.9798010253906</v>
+        <v>160.1086010742187</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1524,7 +1526,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.656301</t>
+          <t>2025-06-05T23:32:54.740878</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1543,10 +1545,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>205.01</v>
+        <v>207.91</v>
       </c>
       <c r="D23" t="n">
-        <v>45338356.66666666</v>
+        <v>43045635.36666667</v>
       </c>
       <c r="E23" t="n">
         <v>242.5200042724609</v>
@@ -1555,16 +1557,16 @@
         <v>151.6100006103516</v>
       </c>
       <c r="G23" t="n">
-        <v>16.19246864095769</v>
+        <v>12.38378576330237</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3525302413067643</v>
+        <v>0.335899957159056</v>
       </c>
       <c r="I23" t="n">
-        <v>200.6550003051758</v>
+        <v>204.5275001525879</v>
       </c>
       <c r="J23" t="n">
-        <v>191.887799987793</v>
+        <v>192.4351998901367</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1573,7 +1575,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.787475</t>
+          <t>2025-06-05T23:32:54.792101</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1592,10 +1594,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>647.49</v>
+        <v>684.62</v>
       </c>
       <c r="D24" t="n">
-        <v>14869060</v>
+        <v>14456261.03333333</v>
       </c>
       <c r="E24" t="n">
         <v>740.2514192957425</v>
@@ -1604,16 +1606,16 @@
         <v>441.4789064419887</v>
       </c>
       <c r="G24" t="n">
-        <v>39.2053082502082</v>
+        <v>39.16022847121325</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3686143808998931</v>
+        <v>0.3618946675579996</v>
       </c>
       <c r="I24" t="n">
-        <v>628.2525024414062</v>
+        <v>644.7480010986328</v>
       </c>
       <c r="J24" t="n">
-        <v>582.7108020019531</v>
+        <v>588.3690026855469</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1622,7 +1624,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.958576</t>
+          <t>2025-06-05T23:32:54.964527</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1641,28 +1643,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>165.53</v>
+        <v>171.14</v>
       </c>
       <c r="D25" t="n">
-        <v>8319586.666666667</v>
+        <v>7869926.666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>197.1156726739735</v>
+        <v>197.1156885625032</v>
       </c>
       <c r="F25" t="n">
-        <v>113.2848267763727</v>
+        <v>118.4345550853782</v>
       </c>
       <c r="G25" t="n">
-        <v>42.82673510864592</v>
+        <v>40.12251034709016</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3011883978509222</v>
+        <v>0.2764794878937573</v>
       </c>
       <c r="I25" t="n">
-        <v>157.2329986572266</v>
+        <v>161.1260002136231</v>
       </c>
       <c r="J25" t="n">
-        <v>145.7389268493652</v>
+        <v>147.0068644714355</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1671,7 +1673,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.059176</t>
+          <t>2025-06-05T23:32:55.081875</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1690,28 +1692,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>265.37</v>
+        <v>267.14</v>
       </c>
       <c r="D26" t="n">
-        <v>7003306.666666667</v>
+        <v>7179870</v>
       </c>
       <c r="E26" t="n">
-        <v>368.00124444558</v>
+        <v>368.0012138342595</v>
       </c>
       <c r="F26" t="n">
-        <v>214.8030626524035</v>
+        <v>226.4449644491641</v>
       </c>
       <c r="G26" t="n">
-        <v>13.85549527793282</v>
+        <v>10.68677208301341</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2996049665032905</v>
+        <v>0.2916840078971484</v>
       </c>
       <c r="I26" t="n">
-        <v>280.2565017700196</v>
+        <v>278.1115036010742</v>
       </c>
       <c r="J26" t="n">
-        <v>269.4417926025391</v>
+        <v>267.9209808349609</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1720,7 +1722,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.198354</t>
+          <t>2025-06-05T23:32:55.232492</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1739,28 +1741,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1011.09</v>
+        <v>1017.6</v>
       </c>
       <c r="D27" t="n">
-        <v>1719846.666666667</v>
+        <v>1572228.266666667</v>
       </c>
       <c r="E27" t="n">
         <v>1198.089965820312</v>
       </c>
       <c r="F27" t="n">
-        <v>637.989990234375</v>
+        <v>678.6599731445312</v>
       </c>
       <c r="G27" t="n">
-        <v>53.91138144524912</v>
+        <v>44.71813164154248</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2247897511812254</v>
+        <v>0.199478829031951</v>
       </c>
       <c r="I27" t="n">
-        <v>1008.525500488281</v>
+        <v>1015.994000244141</v>
       </c>
       <c r="J27" t="n">
-        <v>899.6183996582031</v>
+        <v>913.4253991699219</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1769,7 +1771,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.331968</t>
+          <t>2025-06-05T23:32:55.283834</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1788,28 +1790,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>205.67</v>
+        <v>210.1</v>
       </c>
       <c r="D28" t="n">
-        <v>5203520</v>
+        <v>5395056.133333334</v>
       </c>
       <c r="E28" t="n">
-        <v>209.8000030517578</v>
+        <v>214.8300018310547</v>
       </c>
       <c r="F28" t="n">
         <v>107.129997253418</v>
       </c>
       <c r="G28" t="n">
-        <v>51.02805788703968</v>
+        <v>59.11846166806862</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5124865411259437</v>
+        <v>0.5171638358880306</v>
       </c>
       <c r="I28" t="n">
-        <v>184.8859992980957</v>
+        <v>193.1099998474121</v>
       </c>
       <c r="J28" t="n">
-        <v>163.9647994995117</v>
+        <v>167.9135995483398</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1818,7 +1820,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.360960</t>
+          <t>2025-06-05T23:32:55.410486</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1837,28 +1839,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>131.78</v>
+        <v>119.91</v>
       </c>
       <c r="D29" t="n">
-        <v>97790753.33333333</v>
+        <v>99071277.8</v>
       </c>
       <c r="E29" t="n">
-        <v>133.4900054931641</v>
+        <v>135.2799987792969</v>
       </c>
       <c r="F29" t="n">
-        <v>21.0049991607666</v>
+        <v>21.22999954223633</v>
       </c>
       <c r="G29" t="n">
-        <v>507.8413142265332</v>
+        <v>404.0353049496778</v>
       </c>
       <c r="H29" t="n">
-        <v>0.736416975725012</v>
+        <v>0.6158409486391677</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8784999847412</v>
+        <v>125.26549949646</v>
       </c>
       <c r="J29" t="n">
-        <v>105.6977998352051</v>
+        <v>108.5683996582031</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1867,7 +1869,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.627242</t>
+          <t>2025-06-05T23:32:55.560603</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1886,10 +1888,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26.59</v>
+        <v>25.34</v>
       </c>
       <c r="D30" t="n">
-        <v>5905093.333333333</v>
+        <v>6550707.2</v>
       </c>
       <c r="E30" t="n">
         <v>45.08000183105469</v>
@@ -1898,16 +1900,16 @@
         <v>17.03000068664551</v>
       </c>
       <c r="G30" t="n">
-        <v>-10.07778009127924</v>
+        <v>-15.3357838482686</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8950444396189311</v>
+        <v>0.9359111690524528</v>
       </c>
       <c r="I30" t="n">
-        <v>23.50149993896484</v>
+        <v>24.18499994277954</v>
       </c>
       <c r="J30" t="n">
-        <v>22.08619995117187</v>
+        <v>22.29119995117188</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1916,7 +1918,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.704552</t>
+          <t>2025-06-05T23:32:55.685406</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1935,10 +1937,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>47.17</v>
+        <v>51.38</v>
       </c>
       <c r="D31" t="n">
-        <v>6596316.666666667</v>
+        <v>6598902.666666667</v>
       </c>
       <c r="E31" t="n">
         <v>96.42900085449219</v>
@@ -1947,16 +1949,16 @@
         <v>20.60000038146973</v>
       </c>
       <c r="G31" t="n">
-        <v>90.81714999669377</v>
+        <v>91.21696860200434</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7858327035609028</v>
+        <v>0.700928707083202</v>
       </c>
       <c r="I31" t="n">
-        <v>48.29499969482422</v>
+        <v>48.34499969482422</v>
       </c>
       <c r="J31" t="n">
-        <v>46.18079956054687</v>
+        <v>45.96319961547852</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1965,7 +1967,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.055748</t>
+          <t>2025-06-05T23:32:56.013497</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1984,10 +1986,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13.31</v>
+        <v>13.26</v>
       </c>
       <c r="D32" t="n">
-        <v>11502650</v>
+        <v>12086902.73333333</v>
       </c>
       <c r="E32" t="n">
         <v>15.93000030517578</v>
@@ -1996,16 +1998,16 @@
         <v>9.380000114440918</v>
       </c>
       <c r="G32" t="n">
-        <v>8.5644385899871</v>
+        <v>8.244899827606833</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3016032442261908</v>
+        <v>0.402539179021655</v>
       </c>
       <c r="I32" t="n">
-        <v>12.59749999046326</v>
+        <v>12.80699996948242</v>
       </c>
       <c r="J32" t="n">
-        <v>11.53779998779297</v>
+        <v>11.69119998931885</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2014,7 +2016,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.098277</t>
+          <t>2025-06-05T23:32:56.111333</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -2033,10 +2035,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.16</v>
+        <v>3.77</v>
       </c>
       <c r="D33" t="n">
-        <v>76393363.33333333</v>
+        <v>88602540.59999999</v>
       </c>
       <c r="E33" t="n">
         <v>10.35999965667725</v>
@@ -2045,16 +2047,16 @@
         <v>1.164999961853027</v>
       </c>
       <c r="G33" t="n">
-        <v>177.3333231608073</v>
+        <v>177.2058780346982</v>
       </c>
       <c r="H33" t="n">
-        <v>1.166658419719626</v>
+        <v>1.321328919036764</v>
       </c>
       <c r="I33" t="n">
-        <v>3.609999966621399</v>
+        <v>3.762999987602234</v>
       </c>
       <c r="J33" t="n">
-        <v>3.237799978256226</v>
+        <v>3.292799983024597</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2063,7 +2065,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.207042</t>
+          <t>2025-06-05T23:32:56.265962</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -2073,37 +2075,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOUN</t>
+          <t>GFAI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SoundHound AI, Inc.</t>
+          <t>Guardforce AI Co., Limited</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10.11</v>
+        <v>1.15</v>
       </c>
       <c r="D34" t="n">
-        <v>31980463.33333333</v>
+        <v>346706.7666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>24.97999954223633</v>
+        <v>3.880000114440918</v>
       </c>
       <c r="F34" t="n">
-        <v>3.819999933242798</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="G34" t="n">
-        <v>100.1980054421753</v>
+        <v>-55.25291805330576</v>
       </c>
       <c r="H34" t="n">
-        <v>1.193322200188092</v>
+        <v>0.5775534994675577</v>
       </c>
       <c r="I34" t="n">
-        <v>10.17050004005432</v>
+        <v>1.132999992370606</v>
       </c>
       <c r="J34" t="n">
-        <v>9.274400005340576</v>
+        <v>1.052759996652603</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2112,7 +2114,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.358594</t>
+          <t>2025-06-05T23:32:56.413503</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -2122,37 +2124,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GFAI</t>
+          <t>SOUN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Guardforce AI Co., Limited</t>
+          <t>SoundHound AI, Inc.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.15</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>321386.6666666667</v>
+        <v>33000230.7</v>
       </c>
       <c r="E35" t="n">
-        <v>3.880000114440918</v>
+        <v>24.97999954223633</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7599999904632568</v>
+        <v>3.819999933242798</v>
       </c>
       <c r="G35" t="n">
-        <v>-56.43939657343748</v>
+        <v>95.66115637342101</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5327091123394169</v>
+        <v>1.220471821525</v>
       </c>
       <c r="I35" t="n">
-        <v>1.108499991893768</v>
+        <v>10.30250005722046</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05395999789238</v>
+        <v>9.265800018310546</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2161,7 +2163,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.455388</t>
+          <t>2025-06-05T23:32:56.464917</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -2180,28 +2182,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0014</v>
+        <v>0.0013</v>
       </c>
       <c r="D36" t="n">
-        <v>118279158.9666667</v>
+        <v>128029268.2666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.007400000002235174</v>
+        <v>0.006899999920278788</v>
       </c>
       <c r="F36" t="n">
         <v>0.001200000056996942</v>
       </c>
       <c r="G36" t="n">
-        <v>-80.66298459806035</v>
+        <v>-75.92592648484721</v>
       </c>
       <c r="H36" t="n">
-        <v>1.163329794793312</v>
+        <v>1.155376195676654</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001502499991329387</v>
+        <v>0.001432499982183799</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001793800010345876</v>
+        <v>0.001732800009194762</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2210,7 +2212,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.628602</t>
+          <t>2025-06-05T23:32:56.638835</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -2220,37 +2222,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VERI</t>
+          <t>AGFY</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Veritone, Inc.</t>
+          <t>Agrify Corporation</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.57</v>
+        <v>26.05</v>
       </c>
       <c r="D37" t="n">
-        <v>545453.3333333334</v>
+        <v>52764.6</v>
       </c>
       <c r="E37" t="n">
-        <v>5.635000228881836</v>
+        <v>84.44000244140625</v>
       </c>
       <c r="F37" t="n">
-        <v>1.529999971389771</v>
+        <v>2.710000038146973</v>
       </c>
       <c r="G37" t="n">
-        <v>-46.77966009916435</v>
+        <v>480.8249378277724</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6524791242374974</v>
+        <v>1.60318530826761</v>
       </c>
       <c r="I37" t="n">
-        <v>1.791499996185303</v>
+        <v>26.33864994049072</v>
       </c>
       <c r="J37" t="n">
-        <v>2.097899994850159</v>
+        <v>21.35069990158081</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2259,7 +2261,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.751541</t>
+          <t>2025-06-05T23:32:56.806575</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -2269,37 +2271,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AGFY</t>
+          <t>VERI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Agrify Corporation</t>
+          <t>Veritone, Inc.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27.52</v>
+        <v>1.48</v>
       </c>
       <c r="D38" t="n">
-        <v>51713.33333333334</v>
+        <v>613703.2666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>84.44000244140625</v>
+        <v>5.635000228881836</v>
       </c>
       <c r="F38" t="n">
-        <v>2.710000038146973</v>
+        <v>1.419999957084656</v>
       </c>
       <c r="G38" t="n">
-        <v>541.4918578665128</v>
+        <v>-41.50197486917369</v>
       </c>
       <c r="H38" t="n">
-        <v>1.896072260532236</v>
+        <v>0.6981657712182913</v>
       </c>
       <c r="I38" t="n">
-        <v>25.71014995574951</v>
+        <v>1.702499997615814</v>
       </c>
       <c r="J38" t="n">
-        <v>20.79945993423462</v>
+        <v>1.996499996185303</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2308,7 +2310,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:56.979496</t>
+          <t>2025-06-05T23:32:56.818558</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -2318,46 +2320,46 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Enphase Energy, Inc.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>346.46</v>
+        <v>41.3</v>
       </c>
       <c r="D39" t="n">
-        <v>109983446.6666667</v>
+        <v>7570030.666666667</v>
       </c>
       <c r="E39" t="n">
-        <v>488.5400085449219</v>
+        <v>141.6300048828125</v>
       </c>
       <c r="F39" t="n">
-        <v>167.4100036621094</v>
+        <v>37.59000015258789</v>
       </c>
       <c r="G39" t="n">
-        <v>94.55300308440377</v>
+        <v>-68.78307007982202</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5065269580190835</v>
+        <v>1.019445385562892</v>
       </c>
       <c r="I39" t="n">
-        <v>326.0320022583008</v>
+        <v>44.69499988555908</v>
       </c>
       <c r="J39" t="n">
-        <v>286.4134017944336</v>
+        <v>49.11559997558594</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.214328</t>
+          <t>2025-06-05T23:32:57.211275</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2367,46 +2369,46 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Enphase Energy, Inc.</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>41.39</v>
+        <v>284.7</v>
       </c>
       <c r="D40" t="n">
-        <v>8054286.666666667</v>
+        <v>113544045.6666667</v>
       </c>
       <c r="E40" t="n">
-        <v>141.6300048828125</v>
+        <v>488.5400085449219</v>
       </c>
       <c r="F40" t="n">
-        <v>37.59000015258789</v>
+        <v>167.4100036621094</v>
       </c>
       <c r="G40" t="n">
-        <v>-67.6387811603945</v>
+        <v>59.99775671621672</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9914614076746127</v>
+        <v>0.7457384561821915</v>
       </c>
       <c r="I40" t="n">
-        <v>45.09749984741211</v>
+        <v>335.2655014038086</v>
       </c>
       <c r="J40" t="n">
-        <v>50.68819999694824</v>
+        <v>291.4576010131836</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.432778</t>
+          <t>2025-06-05T23:32:57.275278</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -2425,28 +2427,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17.86</v>
+        <v>17.74</v>
       </c>
       <c r="D41" t="n">
-        <v>5551740</v>
+        <v>5445721.9</v>
       </c>
       <c r="E41" t="n">
-        <v>51.5</v>
+        <v>49.56999969482422</v>
       </c>
       <c r="F41" t="n">
         <v>10.23999977111816</v>
       </c>
       <c r="G41" t="n">
-        <v>-63.5435803256937</v>
+        <v>-63.28642408286609</v>
       </c>
       <c r="H41" t="n">
-        <v>1.586818169510589</v>
+        <v>1.576848027968764</v>
       </c>
       <c r="I41" t="n">
-        <v>17.64450011253357</v>
+        <v>18.40750007629395</v>
       </c>
       <c r="J41" t="n">
-        <v>15.54100017547607</v>
+        <v>15.57660011291504</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2455,7 +2457,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.521823</t>
+          <t>2025-06-05T23:32:57.438752</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -2474,10 +2476,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>158.08</v>
+        <v>163.84</v>
       </c>
       <c r="D42" t="n">
-        <v>5643810</v>
+        <v>5617673.466666667</v>
       </c>
       <c r="E42" t="n">
         <v>306.7699890136719</v>
@@ -2486,16 +2488,16 @@
         <v>116.5599975585938</v>
       </c>
       <c r="G42" t="n">
-        <v>-41.83102879360793</v>
+        <v>-40.08411445458411</v>
       </c>
       <c r="H42" t="n">
-        <v>1.017142443930709</v>
+        <v>1.049970409991838</v>
       </c>
       <c r="I42" t="n">
-        <v>156.52799949646</v>
+        <v>162.4494987487793</v>
       </c>
       <c r="J42" t="n">
-        <v>140.3160006713867</v>
+        <v>142.5681997680664</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2504,7 +2506,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.526957</t>
+          <t>2025-06-05T23:32:57.527504</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -2523,10 +2525,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
       <c r="D43" t="n">
-        <v>883906.6666666666</v>
+        <v>938167.8666666667</v>
       </c>
       <c r="E43" t="n">
         <v>3.369999885559082</v>
@@ -2535,16 +2537,16 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G43" t="n">
-        <v>-20.57142938886371</v>
+        <v>19.17807973108998</v>
       </c>
       <c r="H43" t="n">
-        <v>1.025758611520389</v>
+        <v>1.256332462573182</v>
       </c>
       <c r="I43" t="n">
-        <v>1.683499991893768</v>
+        <v>1.667999994754791</v>
       </c>
       <c r="J43" t="n">
-        <v>1.684299998283386</v>
+        <v>1.695499997138977</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2553,7 +2555,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.759883</t>
+          <t>2025-06-05T23:32:57.733347</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2572,10 +2574,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.49</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>19793273.33333333</v>
+        <v>21199808.43333333</v>
       </c>
       <c r="E44" t="n">
         <v>22.26000022888184</v>
@@ -2584,16 +2586,16 @@
         <v>5.449999809265137</v>
       </c>
       <c r="G44" t="n">
-        <v>-48.20193809572081</v>
+        <v>-41.96675652383588</v>
       </c>
       <c r="H44" t="n">
-        <v>1.797408540191027</v>
+        <v>1.877072010582525</v>
       </c>
       <c r="I44" t="n">
-        <v>9.130999970436097</v>
+        <v>9.292999958992004</v>
       </c>
       <c r="J44" t="n">
-        <v>7.623400011062622</v>
+        <v>7.737799997329712</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2602,7 +2604,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.841942</t>
+          <t>2025-06-05T23:32:57.806655</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2621,28 +2623,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>70.64</v>
+        <v>71.5</v>
       </c>
       <c r="D45" t="n">
-        <v>14094040</v>
+        <v>13614329.56666667</v>
       </c>
       <c r="E45" t="n">
-        <v>84.82785464854152</v>
+        <v>84.14697436217105</v>
       </c>
       <c r="F45" t="n">
-        <v>61.72000122070312</v>
+        <v>61.22460215339155</v>
       </c>
       <c r="G45" t="n">
-        <v>-9.233681660890836</v>
+        <v>-3.998265921474553</v>
       </c>
       <c r="H45" t="n">
-        <v>0.387725349909488</v>
+        <v>0.3916328892610191</v>
       </c>
       <c r="I45" t="n">
-        <v>69.93250045776367</v>
+        <v>70.24787139892578</v>
       </c>
       <c r="J45" t="n">
-        <v>68.69740005493163</v>
+        <v>68.22685356140137</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2651,7 +2653,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.914326</t>
+          <t>2025-06-05T23:32:57.915441</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2661,46 +2663,46 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>American Electric Power Company</t>
+          <t>Exelon Corporation</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>103.49</v>
+        <v>42.86</v>
       </c>
       <c r="D46" t="n">
-        <v>3279620</v>
+        <v>7219015.633333334</v>
       </c>
       <c r="E46" t="n">
-        <v>109.5032352622282</v>
+        <v>47.684343798177</v>
       </c>
       <c r="F46" t="n">
-        <v>82.81623040175873</v>
+        <v>32.72990186863904</v>
       </c>
       <c r="G46" t="n">
-        <v>18.98179587358633</v>
+        <v>21.95041790203669</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2232794287725422</v>
+        <v>0.2240079677903119</v>
       </c>
       <c r="I46" t="n">
-        <v>103.2353939056397</v>
+        <v>43.66804828643799</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3019270324707</v>
+        <v>44.8307568359375</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:58.153622</t>
+          <t>2025-06-05T23:32:58.196965</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2710,37 +2712,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Exelon Corporation</t>
+          <t>Dominion Energy, Inc.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>43.82</v>
+        <v>56</v>
       </c>
       <c r="D47" t="n">
-        <v>7453600</v>
+        <v>5760818.4</v>
       </c>
       <c r="E47" t="n">
-        <v>47.684343798177</v>
+        <v>59.82802351443791</v>
       </c>
       <c r="F47" t="n">
-        <v>32.7299056577115</v>
+        <v>45.7797600825875</v>
       </c>
       <c r="G47" t="n">
-        <v>21.2618926045568</v>
+        <v>12.3085503309186</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2216406524945297</v>
+        <v>0.223168984866363</v>
       </c>
       <c r="I47" t="n">
-        <v>44.19865951538086</v>
+        <v>55.38847408294678</v>
       </c>
       <c r="J47" t="n">
-        <v>44.8372380065918</v>
+        <v>54.04693962097168</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2749,7 +2751,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:58.273827</t>
+          <t>2025-06-05T23:32:58.306823</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2759,46 +2761,46 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dominion Energy, Inc.</t>
+          <t>American Electric Power Company</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>56.67</v>
+        <v>101.77</v>
       </c>
       <c r="D48" t="n">
-        <v>5853750</v>
+        <v>3160785.733333333</v>
       </c>
       <c r="E48" t="n">
-        <v>59.82802351443791</v>
+        <v>109.5032352622282</v>
       </c>
       <c r="F48" t="n">
-        <v>45.77975626947909</v>
+        <v>82.81623792348712</v>
       </c>
       <c r="G48" t="n">
-        <v>10.17438251484781</v>
+        <v>19.04892036031334</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2239685924340421</v>
+        <v>0.224666300812071</v>
       </c>
       <c r="I48" t="n">
-        <v>54.94292602539063</v>
+        <v>102.4044998168945</v>
       </c>
       <c r="J48" t="n">
-        <v>53.81852775573731</v>
+        <v>104.2084390258789</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:58.275159</t>
+          <t>2025-06-05T23:32:58.414489</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2817,28 +2819,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>90</v>
+        <v>88.38</v>
       </c>
       <c r="D49" t="n">
-        <v>4970146.666666667</v>
+        <v>5193242</v>
       </c>
       <c r="E49" t="n">
         <v>92.86879114413949</v>
       </c>
       <c r="F49" t="n">
-        <v>74.43768185532164</v>
+        <v>74.43767422989053</v>
       </c>
       <c r="G49" t="n">
-        <v>16.10885795993935</v>
+        <v>16.17895309453024</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2452322485768124</v>
+        <v>0.2469293054126963</v>
       </c>
       <c r="I49" t="n">
-        <v>88.88006935119628</v>
+        <v>88.57098617553712</v>
       </c>
       <c r="J49" t="n">
-        <v>89.26162460327149</v>
+        <v>89.32620803833008</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2847,7 +2849,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:58.567827</t>
+          <t>2025-06-05T23:32:58.562730</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2866,10 +2868,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>117.72</v>
+        <v>115.74</v>
       </c>
       <c r="D50" t="n">
-        <v>3643666.666666667</v>
+        <v>3547553.466666667</v>
       </c>
       <c r="E50" t="n">
         <v>124.1408994783785</v>
@@ -2878,16 +2880,16 @@
         <v>95.60293041590454</v>
       </c>
       <c r="G50" t="n">
-        <v>17.95070665485463</v>
+        <v>16.7672974322048</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2543317878740757</v>
+        <v>0.243795991572039</v>
       </c>
       <c r="I50" t="n">
-        <v>116.8947280883789</v>
+        <v>116.0050937652588</v>
       </c>
       <c r="J50" t="n">
-        <v>117.9622674560547</v>
+        <v>117.891421661377</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2896,7 +2898,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:58.643601</t>
+          <t>2025-06-05T23:32:58.852139</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2915,28 +2917,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>70.09999999999999</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>4217696.666666667</v>
+        <v>3907948.6</v>
       </c>
       <c r="E51" t="n">
         <v>73</v>
       </c>
       <c r="F51" t="n">
-        <v>50.67669981819753</v>
+        <v>50.67669603985149</v>
       </c>
       <c r="G51" t="n">
-        <v>30.96727937219954</v>
+        <v>29.58104262368968</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2623235412700014</v>
+        <v>0.2643893114999578</v>
       </c>
       <c r="I51" t="n">
-        <v>70.2544994354248</v>
+        <v>69.85699996948242</v>
       </c>
       <c r="J51" t="n">
-        <v>69.89819976806641</v>
+        <v>69.90099990844726</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2945,7 +2947,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:58.651656</t>
+          <t>2025-06-05T23:32:58.963845</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2964,28 +2966,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>78.59</v>
+        <v>75.95</v>
       </c>
       <c r="D52" t="n">
-        <v>3894500</v>
+        <v>3720646.166666667</v>
       </c>
       <c r="E52" t="n">
-        <v>94.2580237983279</v>
+        <v>94.25803150822675</v>
       </c>
       <c r="F52" t="n">
         <v>61.90000152587891</v>
       </c>
       <c r="G52" t="n">
-        <v>5.299695732330312</v>
+        <v>3.15518615804542</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1683990220263886</v>
+        <v>0.1800772829194859</v>
       </c>
       <c r="I52" t="n">
-        <v>76.67849998474121</v>
+        <v>76.99999961853027</v>
       </c>
       <c r="J52" t="n">
-        <v>73.06059959411621</v>
+        <v>73.64619941711426</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2994,7 +2996,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:58.975394</t>
+          <t>2025-06-05T23:32:58.982651</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -3013,28 +3015,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>81.03</v>
+        <v>79.83</v>
       </c>
       <c r="D53" t="n">
-        <v>3290726.666666667</v>
+        <v>3436233.566666667</v>
       </c>
       <c r="E53" t="n">
-        <v>93.81673229214083</v>
+        <v>93.81672458013468</v>
       </c>
       <c r="F53" t="n">
-        <v>70.29890969685289</v>
+        <v>70.29891724747476</v>
       </c>
       <c r="G53" t="n">
-        <v>10.26568172512057</v>
+        <v>10.55905372620245</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2090904841425538</v>
+        <v>0.2145048026104205</v>
       </c>
       <c r="I53" t="n">
-        <v>78.94950027465821</v>
+        <v>79.30500030517578</v>
       </c>
       <c r="J53" t="n">
-        <v>80.48160034179688</v>
+        <v>80.34960021972657</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3043,7 +3045,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.024715</t>
+          <t>2025-06-05T23:32:59.269833</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -3053,46 +3055,46 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>EIX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Consolidated Edison, Inc.</t>
+          <t>Edison International</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>104.49</v>
+        <v>53.64</v>
       </c>
       <c r="D54" t="n">
-        <v>2937163.333333333</v>
+        <v>2983540.633333333</v>
       </c>
       <c r="E54" t="n">
-        <v>113.8992412655479</v>
+        <v>86.38769513808452</v>
       </c>
       <c r="F54" t="n">
-        <v>85.24458353220552</v>
+        <v>48.31805252497342</v>
       </c>
       <c r="G54" t="n">
-        <v>14.35737880648507</v>
+        <v>-24.62761666410269</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2810563069731485</v>
+        <v>0.2423899480669099</v>
       </c>
       <c r="I54" t="n">
-        <v>104.8343494415283</v>
+        <v>56.34750022888183</v>
       </c>
       <c r="J54" t="n">
-        <v>107.278802947998</v>
+        <v>56.37826492309571</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.090351</t>
+          <t>2025-06-05T23:32:59.431115</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -3102,46 +3104,46 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EIX</t>
+          <t>ED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Edison International</t>
+          <t>Consolidated Edison, Inc.</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>55.65</v>
+        <v>102.27</v>
       </c>
       <c r="D55" t="n">
-        <v>2877643.333333333</v>
+        <v>2942298.2</v>
       </c>
       <c r="E55" t="n">
-        <v>86.38769513808452</v>
+        <v>113.8992412655479</v>
       </c>
       <c r="F55" t="n">
-        <v>48.31805252497342</v>
+        <v>85.24459110664442</v>
       </c>
       <c r="G55" t="n">
-        <v>-24.19444299236151</v>
+        <v>15.1677831706146</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2196605819623975</v>
+        <v>0.2687308449544782</v>
       </c>
       <c r="I55" t="n">
-        <v>56.39550037384033</v>
+        <v>103.5467189788818</v>
       </c>
       <c r="J55" t="n">
-        <v>56.57781143188477</v>
+        <v>107.0096545410156</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.364522</t>
+          <t>2025-06-05T23:32:59.542057</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -3160,10 +3162,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16.88</v>
+        <v>15.93</v>
       </c>
       <c r="D56" t="n">
-        <v>13783183.33333333</v>
+        <v>15138230.4</v>
       </c>
       <c r="E56" t="n">
         <v>21.66112345522239</v>
@@ -3172,16 +3174,16 @@
         <v>14.96795557625283</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.607791094104433</v>
+        <v>-12.18829761597854</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2035198699415901</v>
+        <v>0.2187664232291621</v>
       </c>
       <c r="I56" t="n">
-        <v>17.18349990844727</v>
+        <v>17.03799982070923</v>
       </c>
       <c r="J56" t="n">
-        <v>17.07468091964722</v>
+        <v>17.01508852005005</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3190,7 +3192,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.379423</t>
+          <t>2025-06-05T23:32:59.761617</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -3209,28 +3211,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>142.97</v>
+        <v>140.02</v>
       </c>
       <c r="D57" t="n">
-        <v>1385383.333333333</v>
+        <v>1377114.8</v>
       </c>
       <c r="E57" t="n">
         <v>154.5713060033486</v>
       </c>
       <c r="F57" t="n">
-        <v>117.3025579842723</v>
+        <v>117.3025504979962</v>
       </c>
       <c r="G57" t="n">
-        <v>11.90135817269509</v>
+        <v>9.718268229861016</v>
       </c>
       <c r="H57" t="n">
-        <v>0.325939047621549</v>
+        <v>0.3316388212630832</v>
       </c>
       <c r="I57" t="n">
-        <v>142.6493598937988</v>
+        <v>141.3563018798828</v>
       </c>
       <c r="J57" t="n">
-        <v>143.5650015258789</v>
+        <v>143.6589068603515</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3239,7 +3241,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.435785</t>
+          <t>2025-06-05T23:32:59.847175</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -3249,37 +3251,37 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PLUG</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Plug Power, Inc.</t>
+          <t>CenterPoint Energy, Inc (Holdin</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8827</v>
+        <v>36.83</v>
       </c>
       <c r="D58" t="n">
-        <v>148271590</v>
+        <v>5476550.866666666</v>
       </c>
       <c r="E58" t="n">
-        <v>3.549999952316284</v>
+        <v>39.07352052045635</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6899999976158142</v>
+        <v>24.90896899901534</v>
       </c>
       <c r="G58" t="n">
-        <v>-73.57357311130954</v>
+        <v>25.08086892843366</v>
       </c>
       <c r="H58" t="n">
-        <v>1.10782531330222</v>
+        <v>0.1804742083209575</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8189999997615814</v>
+        <v>37.21168231964111</v>
       </c>
       <c r="J58" t="n">
-        <v>1.015800002813339</v>
+        <v>37.0733814239502</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3288,7 +3290,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.707651</t>
+          <t>2025-06-05T23:33:00.060167</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -3298,37 +3300,37 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PLUG</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bloom Energy Corporation</t>
+          <t>Plug Power, Inc.</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18.47</v>
+        <v>0.8715000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>5813933.333333333</v>
+        <v>149733260.9666667</v>
       </c>
       <c r="E59" t="n">
-        <v>29.82500076293945</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="F59" t="n">
-        <v>9.020000457763672</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="G59" t="n">
-        <v>13.17401751675358</v>
+        <v>-70.9499994913737</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5499533422643637</v>
+        <v>1.201215112007532</v>
       </c>
       <c r="I59" t="n">
-        <v>18.47650003433228</v>
+        <v>0.8355750024318696</v>
       </c>
       <c r="J59" t="n">
-        <v>18.92240001678467</v>
+        <v>0.9626300048828125</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.810484</t>
+          <t>2025-06-05T23:33:00.094730</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -3347,37 +3349,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CenterPoint Energy, Inc (Holdin</t>
+          <t>Bloom Energy Corporation</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>37.24</v>
+        <v>20.45</v>
       </c>
       <c r="D60" t="n">
-        <v>5439630</v>
+        <v>5886388.3</v>
       </c>
       <c r="E60" t="n">
-        <v>39.07352052045635</v>
+        <v>29.82500076293945</v>
       </c>
       <c r="F60" t="n">
-        <v>24.9089671049893</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="G60" t="n">
-        <v>25.39551847418442</v>
+        <v>33.2247573597872</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1812591240049838</v>
+        <v>0.6702907238778909</v>
       </c>
       <c r="I60" t="n">
-        <v>37.52080707550049</v>
+        <v>19.16450004577637</v>
       </c>
       <c r="J60" t="n">
-        <v>36.93541465759277</v>
+        <v>18.60020000457764</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3386,7 +3388,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.820222</t>
+          <t>2025-06-05T23:33:00.145853</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -3405,28 +3407,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="D61" t="n">
-        <v>7356813.333333333</v>
+        <v>7730205.333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>3.230000019073486</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-58.25242725937682</v>
+        <v>-49.10394349462507</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6514000652288174</v>
+        <v>0.6658471105859257</v>
       </c>
       <c r="I61" t="n">
-        <v>1.341999983787537</v>
+        <v>1.364999973773956</v>
       </c>
       <c r="J61" t="n">
-        <v>1.244200000762939</v>
+        <v>1.247799999713898</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3435,7 +3437,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:00.050488</t>
+          <t>2025-06-05T23:33:00.430021</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -3454,10 +3456,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="D62" t="n">
-        <v>1027393.333333333</v>
+        <v>1080613.1</v>
       </c>
       <c r="E62" t="n">
         <v>30.89999961853027</v>
@@ -3466,16 +3468,16 @@
         <v>3.579999923706055</v>
       </c>
       <c r="G62" t="n">
-        <v>-81.07407357957628</v>
+        <v>-81.15942124132597</v>
       </c>
       <c r="H62" t="n">
-        <v>1.272800278573597</v>
+        <v>1.363986957673869</v>
       </c>
       <c r="I62" t="n">
-        <v>4.51850004196167</v>
+        <v>4.819500041007996</v>
       </c>
       <c r="J62" t="n">
-        <v>4.389000015258789</v>
+        <v>4.414000015258789</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3484,7 +3486,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:00.179970</t>
+          <t>2025-06-05T23:33:00.699375</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -3503,10 +3505,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="D63" t="n">
-        <v>11899166.66666667</v>
+        <v>12147384.6</v>
       </c>
       <c r="E63" t="n">
         <v>9.520000457763672</v>
@@ -3515,16 +3517,16 @@
         <v>3.400000095367432</v>
       </c>
       <c r="G63" t="n">
-        <v>-32.31810315948598</v>
+        <v>-30.05272444553015</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8538538824996308</v>
+        <v>0.9006760261657074</v>
       </c>
       <c r="I63" t="n">
-        <v>4.087500035762787</v>
+        <v>4.119000053405761</v>
       </c>
       <c r="J63" t="n">
-        <v>4.056600003242493</v>
+        <v>4.014600019454956</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3533,7 +3535,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:00.509457</t>
+          <t>2025-06-05T23:33:00.947207</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -3552,10 +3554,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="D64" t="n">
-        <v>2907686.666666667</v>
+        <v>2962563.3</v>
       </c>
       <c r="E64" t="n">
         <v>4.09499979019165</v>
@@ -3564,16 +3566,16 @@
         <v>1.110000014305115</v>
       </c>
       <c r="G64" t="n">
-        <v>4.054050135560283</v>
+        <v>4.166662527455389</v>
       </c>
       <c r="H64" t="n">
-        <v>2.103087905615612</v>
+        <v>2.113265877885365</v>
       </c>
       <c r="I64" t="n">
-        <v>1.497000002861023</v>
+        <v>1.47849999666214</v>
       </c>
       <c r="J64" t="n">
-        <v>1.469199995994568</v>
+        <v>1.459199993610382</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3582,7 +3584,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:00.674685</t>
+          <t>2025-06-05T23:33:01.216097</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -3601,10 +3603,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.630000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="D65" t="n">
-        <v>27249850</v>
+        <v>26244943.3</v>
       </c>
       <c r="E65" t="n">
         <v>20.63999938964844</v>
@@ -3613,16 +3615,16 @@
         <v>6.452000141143799</v>
       </c>
       <c r="G65" t="n">
-        <v>-46.29744693013004</v>
+        <v>-44.76423453824118</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7327576642140592</v>
+        <v>0.7418237020275629</v>
       </c>
       <c r="I65" t="n">
-        <v>9.226499891281128</v>
+        <v>9.393999862670899</v>
       </c>
       <c r="J65" t="n">
-        <v>8.410699949264526</v>
+        <v>8.483899955749513</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3631,7 +3633,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:00.916260</t>
+          <t>2025-06-05T23:33:01.301048</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -3641,46 +3643,46 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>RIOT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Digital Realty Trust, Inc.</t>
+          <t>Riot Platforms, Inc.</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>171.52</v>
+        <v>8.99</v>
       </c>
       <c r="D66" t="n">
-        <v>1859240</v>
+        <v>33193291.3</v>
       </c>
       <c r="E66" t="n">
-        <v>195.0647082124082</v>
+        <v>15.86999988555908</v>
       </c>
       <c r="F66" t="n">
-        <v>129.9499969482422</v>
+        <v>6.190000057220459</v>
       </c>
       <c r="G66" t="n">
-        <v>21.69775675031937</v>
+        <v>-11.51574895536992</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1415471873589546</v>
+        <v>0.7089374343958946</v>
       </c>
       <c r="I66" t="n">
-        <v>168.0949989318848</v>
+        <v>8.771999931335449</v>
       </c>
       <c r="J66" t="n">
-        <v>156.4829989624023</v>
+        <v>7.908299999237061</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:01.004950</t>
+          <t>2025-06-05T23:33:01.383531</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -3690,46 +3692,46 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RIOT</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Riot Platforms, Inc.</t>
+          <t>Digital Realty Trust, Inc.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.07</v>
+        <v>175.91</v>
       </c>
       <c r="D67" t="n">
-        <v>32103553.33333333</v>
+        <v>1771696.266666667</v>
       </c>
       <c r="E67" t="n">
-        <v>15.86999988555908</v>
+        <v>195.0647082124082</v>
       </c>
       <c r="F67" t="n">
-        <v>6.190000057220459</v>
+        <v>129.9499969482422</v>
       </c>
       <c r="G67" t="n">
-        <v>-17.14579174063191</v>
+        <v>23.30245505668991</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6947165513539697</v>
+        <v>0.1342295965865062</v>
       </c>
       <c r="I67" t="n">
-        <v>8.571500015258788</v>
+        <v>169.7634994506836</v>
       </c>
       <c r="J67" t="n">
-        <v>7.847100028991699</v>
+        <v>158.2763989257813</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:01.075619</t>
+          <t>2025-06-05T23:33:01.602571</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -3739,37 +3741,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>American Tower Corporation (REI</t>
+          <t>Prologis, Inc.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>214.65</v>
+        <v>107.82</v>
       </c>
       <c r="D68" t="n">
-        <v>2921640</v>
+        <v>4287082.3</v>
       </c>
       <c r="E68" t="n">
-        <v>237.7157600737179</v>
+        <v>129.3028015732399</v>
       </c>
       <c r="F68" t="n">
-        <v>171.1022197758145</v>
+        <v>85.34999847412109</v>
       </c>
       <c r="G68" t="n">
-        <v>13.28942519434433</v>
+        <v>1.352251888496747</v>
       </c>
       <c r="H68" t="n">
-        <v>0.275518364576428</v>
+        <v>0.251845207395427</v>
       </c>
       <c r="I68" t="n">
-        <v>214.5485008239746</v>
+        <v>107.9690002441406</v>
       </c>
       <c r="J68" t="n">
-        <v>214.7518591308594</v>
+        <v>104.7508000183105</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3778,7 +3780,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:01.383677</t>
+          <t>2025-06-05T23:33:01.708400</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -3788,37 +3790,37 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Prologis, Inc.</t>
+          <t>American Tower Corporation (REI</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>108.6</v>
+        <v>216.22</v>
       </c>
       <c r="D69" t="n">
-        <v>4629393.333333333</v>
+        <v>2691986.633333333</v>
       </c>
       <c r="E69" t="n">
-        <v>129.3028015732399</v>
+        <v>237.7157447690579</v>
       </c>
       <c r="F69" t="n">
-        <v>85.34999847412109</v>
+        <v>171.1022197758145</v>
       </c>
       <c r="G69" t="n">
-        <v>1.641975857849376</v>
+        <v>11.97288223024169</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2627130497548597</v>
+        <v>0.2708492360166014</v>
       </c>
       <c r="I69" t="n">
-        <v>107.2820007324219</v>
+        <v>212.9140007019043</v>
       </c>
       <c r="J69" t="n">
-        <v>104.8700001525879</v>
+        <v>214.9966448974609</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3827,7 +3829,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:01.426581</t>
+          <t>2025-06-05T23:33:01.789255</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -3846,28 +3848,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>100.35</v>
+        <v>100.28</v>
       </c>
       <c r="D70" t="n">
-        <v>2817113.333333333</v>
+        <v>2928671.966666667</v>
       </c>
       <c r="E70" t="n">
-        <v>117.0454491695627</v>
+        <v>117.045456841466</v>
       </c>
       <c r="F70" t="n">
         <v>82.81422764194471</v>
       </c>
       <c r="G70" t="n">
-        <v>4.122673906949714</v>
+        <v>4.930426382890407</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2436324815582972</v>
+        <v>0.2380867341131853</v>
       </c>
       <c r="I70" t="n">
-        <v>102.0905002593994</v>
+        <v>100.8525001525879</v>
       </c>
       <c r="J70" t="n">
-        <v>101.9503997802734</v>
+        <v>101.6408000183105</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3876,7 +3878,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:01.460800</t>
+          <t>2025-06-05T23:33:02.041341</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -3886,46 +3888,46 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>EQIX</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SBA Communications Corporation</t>
+          <t>Equinix, Inc.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>231.89</v>
+        <v>909.74</v>
       </c>
       <c r="D71" t="n">
-        <v>924283.3333333334</v>
+        <v>522784.4333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>249.0196497006875</v>
+        <v>983.5930564746006</v>
       </c>
       <c r="F71" t="n">
-        <v>183.5554799338477</v>
+        <v>697.6542756159126</v>
       </c>
       <c r="G71" t="n">
-        <v>20.15321307794185</v>
+        <v>21.72012923655249</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2418599634504373</v>
+        <v>0.1387750188707831</v>
       </c>
       <c r="I71" t="n">
-        <v>232.4588218688965</v>
+        <v>875.4322540283204</v>
       </c>
       <c r="J71" t="n">
-        <v>225.8773651123047</v>
+        <v>835.9358703613282</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>High Price</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:01.795734</t>
+          <t>2025-06-05T23:33:02.131610</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3935,46 +3937,46 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EQIX</t>
+          <t>SBAC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Equinix, Inc.</t>
+          <t>SBA Communications Corporation</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>888.8200000000001</v>
+        <v>229.65</v>
       </c>
       <c r="D72" t="n">
-        <v>527866.6666666666</v>
+        <v>824713.3</v>
       </c>
       <c r="E72" t="n">
-        <v>983.5930564746006</v>
+        <v>249.0196497006875</v>
       </c>
       <c r="F72" t="n">
-        <v>697.6542756159126</v>
+        <v>183.5554648316835</v>
       </c>
       <c r="G72" t="n">
-        <v>18.89772580679401</v>
+        <v>19.79044391658253</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1414107849641806</v>
+        <v>0.2401825514957996</v>
       </c>
       <c r="I72" t="n">
-        <v>869.4758575439453</v>
+        <v>230.3847633361816</v>
       </c>
       <c r="J72" t="n">
-        <v>831.0279077148438</v>
+        <v>226.8677877807617</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>High Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:01.864326</t>
+          <t>2025-06-05T23:33:02.145455</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3993,10 +3995,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>26.78</v>
+        <v>26.63</v>
       </c>
       <c r="D73" t="n">
-        <v>9740</v>
+        <v>11179.76666666667</v>
       </c>
       <c r="E73" t="n">
         <v>29.82946413966954</v>
@@ -4005,16 +4007,16 @@
         <v>23.39999961853027</v>
       </c>
       <c r="G73" t="n">
-        <v>10.62684643237453</v>
+        <v>9.341090543888919</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1611891944445347</v>
+        <v>0.1537060944360254</v>
       </c>
       <c r="I73" t="n">
-        <v>26.56500015258789</v>
+        <v>26.58700008392334</v>
       </c>
       <c r="J73" t="n">
-        <v>26.34640003204346</v>
+        <v>26.31880001068115</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -4023,7 +4025,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:02.148285</t>
+          <t>2025-06-05T23:33:02.646402</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -4042,28 +4044,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>64.28</v>
+        <v>63.3</v>
       </c>
       <c r="D74" t="n">
-        <v>2921816.666666667</v>
+        <v>2983614.833333333</v>
       </c>
       <c r="E74" t="n">
         <v>71.36000061035156</v>
       </c>
       <c r="F74" t="n">
-        <v>47.56280722708716</v>
+        <v>47.58220525853798</v>
       </c>
       <c r="G74" t="n">
-        <v>31.86707721086832</v>
+        <v>30.95094637240157</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1726656639098496</v>
+        <v>0.1614623228526725</v>
       </c>
       <c r="I74" t="n">
-        <v>64.99450035095215</v>
+        <v>64.43150005340576</v>
       </c>
       <c r="J74" t="n">
-        <v>66.47043952941894</v>
+        <v>66.17659164428711</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -4072,7 +4074,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:02.335596</t>
+          <t>2025-06-05T23:33:02.691761</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -4091,10 +4093,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>200.85</v>
+        <v>200.63</v>
       </c>
       <c r="D75" t="n">
-        <v>53767810</v>
+        <v>52982780.86666667</v>
       </c>
       <c r="E75" t="n">
         <v>259.4740855511754</v>
@@ -4103,16 +4105,16 @@
         <v>168.9884109270566</v>
       </c>
       <c r="G75" t="n">
-        <v>4.961928602094567</v>
+        <v>3.644741588281741</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3436386156783971</v>
+        <v>0.2980373891286031</v>
       </c>
       <c r="I75" t="n">
-        <v>203.4002479553223</v>
+        <v>203.9235687255859</v>
       </c>
       <c r="J75" t="n">
-        <v>205.2064944458008</v>
+        <v>203.8608618164062</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -4121,7 +4123,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:02.590115</t>
+          <t>2025-06-05T23:33:03.155505</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -4131,46 +4133,46 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cisco Systems, Inc.</t>
+          <t>International Business Machines</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>63.04</v>
+        <v>266.86</v>
       </c>
       <c r="D76" t="n">
-        <v>20196510</v>
+        <v>4102755.266666667</v>
       </c>
       <c r="E76" t="n">
-        <v>66.05896139250312</v>
+        <v>269.2799987792969</v>
       </c>
       <c r="F76" t="n">
-        <v>43.57268363013593</v>
+        <v>161.8976832541415</v>
       </c>
       <c r="G76" t="n">
-        <v>39.64125450649995</v>
+        <v>63.46052688149933</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2285103532391835</v>
+        <v>0.2137354507930254</v>
       </c>
       <c r="I76" t="n">
-        <v>61.98649997711182</v>
+        <v>261.0565002441406</v>
       </c>
       <c r="J76" t="n">
-        <v>59.47278663635254</v>
+        <v>247.5378393554687</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:02.848742</t>
+          <t>2025-06-05T23:33:03.186357</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -4180,46 +4182,46 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>International Business Machines</t>
+          <t>Cisco Systems, Inc.</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>259.06</v>
+        <v>64.62</v>
       </c>
       <c r="D77" t="n">
-        <v>4474303.333333333</v>
+        <v>19475988.8</v>
       </c>
       <c r="E77" t="n">
-        <v>269.2799987792969</v>
+        <v>66.05896139250312</v>
       </c>
       <c r="F77" t="n">
-        <v>158.7237812804912</v>
+        <v>43.57268741422033</v>
       </c>
       <c r="G77" t="n">
-        <v>59.96667579985429</v>
+        <v>43.9771557353871</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2293048621729493</v>
+        <v>0.2217542991102642</v>
       </c>
       <c r="I77" t="n">
-        <v>257.5138938903809</v>
+        <v>62.97549991607666</v>
       </c>
       <c r="J77" t="n">
-        <v>245.8887411499023</v>
+        <v>59.79180297851563</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:02.868225</t>
+          <t>2025-06-05T23:33:03.658792</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -4238,28 +4240,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D78" t="n">
-        <v>8187650</v>
+        <v>8642817.966666667</v>
       </c>
       <c r="E78" t="n">
-        <v>39.07222845821735</v>
+        <v>39.07223232144766</v>
       </c>
       <c r="F78" t="n">
         <v>21.20999908447266</v>
       </c>
       <c r="G78" t="n">
-        <v>-29.39583407021471</v>
+        <v>-29.34348145911536</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4549955270511286</v>
+        <v>0.4556565793520253</v>
       </c>
       <c r="I78" t="n">
-        <v>27.42350006103516</v>
+        <v>27.26550006866455</v>
       </c>
       <c r="J78" t="n">
-        <v>26.28900001525879</v>
+        <v>25.99240001678467</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4268,7 +4270,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:03.065440</t>
+          <t>2025-06-05T23:33:03.673219</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -4287,28 +4289,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>111.27</v>
+        <v>111.82</v>
       </c>
       <c r="D79" t="n">
-        <v>6312450</v>
+        <v>6343678.466666667</v>
       </c>
       <c r="E79" t="n">
-        <v>158.7338882580659</v>
+        <v>158.7338716636705</v>
       </c>
       <c r="F79" t="n">
         <v>65.82784360249838</v>
       </c>
       <c r="G79" t="n">
-        <v>-18.87142892585219</v>
+        <v>-15.06219975574213</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3675546638263243</v>
+        <v>0.395124854432456</v>
       </c>
       <c r="I79" t="n">
-        <v>106.7664993286133</v>
+        <v>110.0569995880127</v>
       </c>
       <c r="J79" t="n">
-        <v>95.59125564575196</v>
+        <v>96.62841613769531</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4317,7 +4319,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:03.265248</t>
+          <t>2025-06-05T23:33:03.727037</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -4327,46 +4329,46 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Datadog, Inc.</t>
+          <t>Zoom Communications, Inc.</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>117.88</v>
+        <v>81.33</v>
       </c>
       <c r="D80" t="n">
-        <v>4759986.666666667</v>
+        <v>2481576.733333333</v>
       </c>
       <c r="E80" t="n">
-        <v>170.0800018310547</v>
+        <v>92.80000305175781</v>
       </c>
       <c r="F80" t="n">
-        <v>81.62999725341797</v>
+        <v>55.06000137329102</v>
       </c>
       <c r="G80" t="n">
-        <v>6.988561378575775</v>
+        <v>28.87022824353229</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3051433544445593</v>
+        <v>0.1988292888655217</v>
       </c>
       <c r="I80" t="n">
-        <v>113.4929988861084</v>
+        <v>81.65999946594238</v>
       </c>
       <c r="J80" t="n">
-        <v>104.2201991271973</v>
+        <v>76.98509979248047</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:03.605634</t>
+          <t>2025-06-05T23:33:04.093355</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -4376,46 +4378,46 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>OKTA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Zoom Communications, Inc.</t>
+          <t>Okta, Inc.</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>81.25</v>
+        <v>104.18</v>
       </c>
       <c r="D81" t="n">
-        <v>2396536.666666667</v>
+        <v>5150067.266666667</v>
       </c>
       <c r="E81" t="n">
-        <v>92.80000305175781</v>
+        <v>127.5670013427734</v>
       </c>
       <c r="F81" t="n">
-        <v>55.06000137329102</v>
+        <v>70.55999755859375</v>
       </c>
       <c r="G81" t="n">
-        <v>32.45842810219184</v>
+        <v>18.80487787052807</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2007599058820047</v>
+        <v>0.6497845260695355</v>
       </c>
       <c r="I81" t="n">
-        <v>81.10449981689453</v>
+        <v>117.1867500305176</v>
       </c>
       <c r="J81" t="n">
-        <v>76.66649963378906</v>
+        <v>109.3266998291016</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:03.608816</t>
+          <t>2025-06-05T23:33:04.554287</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -4434,28 +4436,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>471.37</v>
+        <v>462.94</v>
       </c>
       <c r="D82" t="n">
-        <v>3325866.666666667</v>
+        <v>4045233.333333333</v>
       </c>
       <c r="E82" t="n">
-        <v>474.2300109863281</v>
+        <v>491.2000122070312</v>
       </c>
       <c r="F82" t="n">
         <v>200.8099975585938</v>
       </c>
       <c r="G82" t="n">
-        <v>50.2757595366333</v>
+        <v>35.96288164675363</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3915969218581774</v>
+        <v>0.4139496093096926</v>
       </c>
       <c r="I82" t="n">
-        <v>442.8944992065429</v>
+        <v>449.977001953125</v>
       </c>
       <c r="J82" t="n">
-        <v>403.3755987548828</v>
+        <v>411.4269989013672</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4464,7 +4466,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:03.937344</t>
+          <t>2025-06-05T23:33:04.553048</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -4474,37 +4476,37 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OKTA</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Okta, Inc.</t>
+          <t>Datadog, Inc.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>103.17</v>
+        <v>121.75</v>
       </c>
       <c r="D83" t="n">
-        <v>4954803.333333333</v>
+        <v>4785787.4</v>
       </c>
       <c r="E83" t="n">
-        <v>127.5670013427734</v>
+        <v>170.0800018310547</v>
       </c>
       <c r="F83" t="n">
-        <v>70.55999755859375</v>
+        <v>81.62999725341797</v>
       </c>
       <c r="G83" t="n">
-        <v>16.33964570805693</v>
+        <v>11.06549621373385</v>
       </c>
       <c r="H83" t="n">
-        <v>0.653597784362045</v>
+        <v>0.3003980703989191</v>
       </c>
       <c r="I83" t="n">
-        <v>119.467749786377</v>
+        <v>116.2464992523193</v>
       </c>
       <c r="J83" t="n">
-        <v>110.1576997375488</v>
+        <v>105.1981991577148</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4513,7 +4515,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:03.954849</t>
+          <t>2025-06-05T23:33:04.605858</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -4532,10 +4534,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>207.63</v>
+        <v>218.6</v>
       </c>
       <c r="D84" t="n">
-        <v>2321146.666666667</v>
+        <v>2379373.2</v>
       </c>
       <c r="E84" t="n">
         <v>326</v>
@@ -4544,16 +4546,16 @@
         <v>135.2899932861328</v>
       </c>
       <c r="G84" t="n">
-        <v>32.36644401052649</v>
+        <v>33.73302161070486</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5104832557897822</v>
+        <v>0.4259533117747202</v>
       </c>
       <c r="I84" t="n">
-        <v>212.7205009460449</v>
+        <v>213.5295013427734</v>
       </c>
       <c r="J84" t="n">
-        <v>213.0254006958008</v>
+        <v>211.4594009399414</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4562,7 +4564,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:04.443175</t>
+          <t>2025-06-05T23:33:05.102293</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -4581,10 +4583,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>188.83</v>
+        <v>225.38</v>
       </c>
       <c r="D85" t="n">
-        <v>2183100</v>
+        <v>2681126.333333333</v>
       </c>
       <c r="E85" t="n">
         <v>370</v>
@@ -4593,16 +4595,16 @@
         <v>140.7799987792969</v>
       </c>
       <c r="G85" t="n">
-        <v>-20.00762357705941</v>
+        <v>-1.957543024367858</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3325814240189678</v>
+        <v>0.5509859872651912</v>
       </c>
       <c r="I85" t="n">
-        <v>185.2484992980957</v>
+        <v>191.2839988708496</v>
       </c>
       <c r="J85" t="n">
-        <v>176.4757995605469</v>
+        <v>177.1533996582031</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -4611,7 +4613,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:04.544294</t>
+          <t>2025-06-05T23:33:05.476604</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -4630,10 +4632,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>28.3</v>
+        <v>27.77</v>
       </c>
       <c r="D86" t="n">
-        <v>1483240</v>
+        <v>1578645.066666667</v>
       </c>
       <c r="E86" t="n">
         <v>47.02000045776367</v>
@@ -4642,16 +4644,16 @@
         <v>25.45000076293945</v>
       </c>
       <c r="G86" t="n">
-        <v>-23.61673462936946</v>
+        <v>-26.84404339429278</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6931927711190304</v>
+        <v>0.5734929883037482</v>
       </c>
       <c r="I86" t="n">
-        <v>29.85699996948242</v>
+        <v>29.55199995040893</v>
       </c>
       <c r="J86" t="n">
-        <v>30.65559986114502</v>
+        <v>29.99139987945557</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4660,7 +4662,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:04.942171</t>
+          <t>2025-06-05T23:33:05.631784</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -4679,28 +4681,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>165.89</v>
+        <v>176.33</v>
       </c>
       <c r="D87" t="n">
-        <v>3300513.333333333</v>
+        <v>3375945.3</v>
       </c>
       <c r="E87" t="n">
-        <v>177.3679962158203</v>
+        <v>181.1163024902344</v>
       </c>
       <c r="F87" t="n">
-        <v>66.23999786376953</v>
+        <v>69.26000213623047</v>
       </c>
       <c r="G87" t="n">
-        <v>145.0731177521318</v>
+        <v>147.4807043242873</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3984186155525242</v>
+        <v>0.3807394740081821</v>
       </c>
       <c r="I87" t="n">
-        <v>147.4110004425049</v>
+        <v>157.2435005187988</v>
       </c>
       <c r="J87" t="n">
-        <v>126.9172006225586</v>
+        <v>130.9358006286621</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -4709,7 +4711,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:04.956945</t>
+          <t>2025-06-05T23:33:05.871538</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -4719,37 +4721,37 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FSLY</t>
+          <t>ESTC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fastly, Inc.</t>
+          <t>Elastic N.V.</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.28</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>2469296.666666667</v>
+        <v>2275446.033333333</v>
       </c>
       <c r="E88" t="n">
-        <v>12.07999992370605</v>
+        <v>123.9599990844727</v>
       </c>
       <c r="F88" t="n">
-        <v>4.650000095367432</v>
+        <v>69</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.142856273984788</v>
+        <v>-23.71143095225986</v>
       </c>
       <c r="H88" t="n">
-        <v>1.01661135077318</v>
+        <v>0.5940297930399431</v>
       </c>
       <c r="I88" t="n">
-        <v>7.306500101089478</v>
+        <v>89.58400001525879</v>
       </c>
       <c r="J88" t="n">
-        <v>6.4864000415802</v>
+        <v>85.73419982910156</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -4758,7 +4760,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:05.161340</t>
+          <t>2025-06-05T23:33:06.065189</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -4768,37 +4770,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>FSLY</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Elastic N.V.</t>
+          <t>Fastly, Inc.</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>80.87</v>
+        <v>7.54</v>
       </c>
       <c r="D89" t="n">
-        <v>2178640</v>
+        <v>2481292.733333333</v>
       </c>
       <c r="E89" t="n">
-        <v>123.9599990844727</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="F89" t="n">
-        <v>69</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="G89" t="n">
-        <v>-22.27775072110791</v>
+        <v>-2.331604057390191</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5977830811279652</v>
+        <v>1.022460284308146</v>
       </c>
       <c r="I89" t="n">
-        <v>89.48499984741211</v>
+        <v>7.650000047683716</v>
       </c>
       <c r="J89" t="n">
-        <v>86.94459976196289</v>
+        <v>6.526800031661987</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4807,7 +4809,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:05.240891</t>
+          <t>2025-06-05T23:33:06.241105</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -4903,37 +4905,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices, Inc.</t>
+          <t>NVIDIA Corporation</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>110.73</v>
+        <v>139.99</v>
       </c>
       <c r="D2" t="n">
-        <v>39937796.66666666</v>
+        <v>221995621.3</v>
       </c>
       <c r="E2" t="n">
-        <v>187.2799987792969</v>
+        <v>153.1159160516902</v>
       </c>
       <c r="F2" t="n">
-        <v>76.48000335693359</v>
+        <v>86.62000274658203</v>
       </c>
       <c r="G2" t="n">
-        <v>-33.65487872599255</v>
+        <v>15.73415061207601</v>
       </c>
       <c r="H2" t="n">
-        <v>0.384275784222053</v>
+        <v>0.3837902888200692</v>
       </c>
       <c r="I2" t="n">
-        <v>109.2939994812012</v>
+        <v>133.1765007019043</v>
       </c>
       <c r="J2" t="n">
-        <v>101.6473997497559</v>
+        <v>117.8452001953125</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -4942,7 +4944,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:51.838338</t>
+          <t>2025-06-05T23:32:51.746325</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -4952,46 +4954,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intel Corporation</t>
+          <t>Advanced Micro Devices, Inc.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.55</v>
+        <v>115.69</v>
       </c>
       <c r="D3" t="n">
-        <v>74517170</v>
+        <v>39639065.16666666</v>
       </c>
       <c r="E3" t="n">
-        <v>36.92575583925323</v>
+        <v>187.2799987792969</v>
       </c>
       <c r="F3" t="n">
-        <v>17.67000007629395</v>
+        <v>76.48000335693359</v>
       </c>
       <c r="G3" t="n">
-        <v>-36.22685299684944</v>
+        <v>-30.63316747321661</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3762416662813228</v>
+        <v>0.3992399366979723</v>
       </c>
       <c r="I3" t="n">
-        <v>20.88449993133545</v>
+        <v>112.6859992980957</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0335998916626</v>
+        <v>102.1267997741699</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:51.863482</t>
+          <t>2025-06-05T23:32:51.754329</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -5001,46 +5003,46 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NVIDIA Corporation</t>
+          <t>Intel Corporation</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135.13</v>
+        <v>19.99</v>
       </c>
       <c r="D4" t="n">
-        <v>230300623.3333333</v>
+        <v>72968224.63333334</v>
       </c>
       <c r="E4" t="n">
-        <v>153.1159160516902</v>
+        <v>36.92575583925323</v>
       </c>
       <c r="F4" t="n">
-        <v>86.62000274658203</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="G4" t="n">
-        <v>23.29718344401015</v>
+        <v>-33.86979655743648</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3866295528802315</v>
+        <v>0.360460108530831</v>
       </c>
       <c r="I4" t="n">
-        <v>128.0970001220703</v>
+        <v>20.84099988937378</v>
       </c>
       <c r="J4" t="n">
-        <v>116.2016000366211</v>
+        <v>20.7061999130249</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:51.867299</t>
+          <t>2025-06-05T23:32:51.861514</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -5050,46 +5052,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marvell Technology, Inc.</t>
+          <t>QUALCOMM Incorporated</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60.19</v>
+        <v>147.56</v>
       </c>
       <c r="D5" t="n">
-        <v>19021673.33333333</v>
+        <v>8568465.233333332</v>
       </c>
       <c r="E5" t="n">
-        <v>127.3353330911318</v>
+        <v>227.0261655314419</v>
       </c>
       <c r="F5" t="n">
-        <v>47.03656077049741</v>
+        <v>120.8000030517578</v>
       </c>
       <c r="G5" t="n">
-        <v>-12.23791428282197</v>
+        <v>-28.42704866964717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5733775838315094</v>
+        <v>0.2598546029473691</v>
       </c>
       <c r="I5" t="n">
-        <v>62.14599990844727</v>
+        <v>149.2680000305176</v>
       </c>
       <c r="J5" t="n">
-        <v>59.94981170654297</v>
+        <v>145.1320008850098</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.208536</t>
+          <t>2025-06-05T23:32:52.118151</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -5099,35 +5101,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QUALCOMM Incorporated</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>145.2</v>
+        <v>259.93</v>
       </c>
       <c r="D6" t="n">
-        <v>8808443.333333334</v>
+        <v>20851626.36666667</v>
       </c>
       <c r="E6" t="n">
-        <v>227.0261655314419</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="F6" t="n">
-        <v>120.8000030517578</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>127.3511204867605</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87.76374628683541</v>
+      </c>
       <c r="H6" t="n">
-        <v>0.2950187002183183</v>
+        <v>0.3200645082349693</v>
       </c>
       <c r="I6" t="n">
-        <v>147.8314994812012</v>
+        <v>235.015998840332</v>
       </c>
       <c r="J6" t="n">
-        <v>145.9884007263184</v>
+        <v>201.1473992919922</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5136,56 +5140,56 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.217844</t>
+          <t>2025-06-05T23:32:52.184244</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>Marvell Technology, Inc.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>242.07</v>
+        <v>65.16</v>
       </c>
       <c r="D7" t="n">
-        <v>19771436.66666667</v>
+        <v>19908750.73333333</v>
       </c>
       <c r="E7" t="n">
-        <v>250.4490823233351</v>
+        <v>127.3353330911318</v>
       </c>
       <c r="F7" t="n">
-        <v>127.3511204867605</v>
+        <v>47.03656077049741</v>
       </c>
       <c r="G7" t="n">
-        <v>84.43369092455522</v>
+        <v>-4.000685207432609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3293211826753084</v>
+        <v>0.5324739787865247</v>
       </c>
       <c r="I7" t="n">
-        <v>224.1504989624023</v>
+        <v>62.8185001373291</v>
       </c>
       <c r="J7" t="n">
-        <v>195.8501992797852</v>
+        <v>59.35588775634766</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.234830</t>
+          <t>2025-06-05T23:32:52.448503</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -5204,10 +5208,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80.79000000000001</v>
+        <v>84.91</v>
       </c>
       <c r="D8" t="n">
-        <v>10879480</v>
+        <v>10174193.1</v>
       </c>
       <c r="E8" t="n">
         <v>111.9745134294298</v>
@@ -5216,16 +5220,16 @@
         <v>56.31999969482422</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.56285626878236</v>
+        <v>-10.94521037371275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4449884761488646</v>
+        <v>0.4207420306646481</v>
       </c>
       <c r="I8" t="n">
-        <v>80.80050048828124</v>
+        <v>82.75900077819824</v>
       </c>
       <c r="J8" t="n">
-        <v>74.11400024414063</v>
+        <v>74.64940048217774</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5234,7 +5238,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:52.649884</t>
+          <t>2025-06-05T23:32:52.715119</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -5253,10 +5257,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>756.88</v>
+        <v>791.89</v>
       </c>
       <c r="D9" t="n">
-        <v>1115460</v>
+        <v>1094718.466666667</v>
       </c>
       <c r="E9" t="n">
         <v>888.0589538254965</v>
@@ -5265,16 +5269,16 @@
         <v>550.0059693767323</v>
       </c>
       <c r="G9" t="n">
-        <v>0.578095723035732</v>
+        <v>2.566079702608537</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4357521351352004</v>
+        <v>0.41017706794535</v>
       </c>
       <c r="I9" t="n">
-        <v>754.3549774169921</v>
+        <v>772.0365203857422</v>
       </c>
       <c r="J9" t="n">
-        <v>703.0491125488281</v>
+        <v>707.9806823730469</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5283,7 +5287,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.090105</t>
+          <t>2025-06-05T23:32:52.883946</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -5302,28 +5306,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>156.75</v>
+        <v>164.19</v>
       </c>
       <c r="D10" t="n">
-        <v>7338410</v>
+        <v>7253533.4</v>
       </c>
       <c r="E10" t="n">
-        <v>253.4949750137349</v>
+        <v>253.4949443860414</v>
       </c>
       <c r="F10" t="n">
         <v>123.3891353973954</v>
       </c>
       <c r="G10" t="n">
-        <v>-26.43157132979388</v>
+        <v>-25.25759056643078</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4323057455707556</v>
+        <v>0.4145496262739519</v>
       </c>
       <c r="I10" t="n">
-        <v>161.5378234863281</v>
+        <v>162.9545166015625</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1494679260254</v>
+        <v>151.7851493835449</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5332,7 +5336,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:53.129566</t>
+          <t>2025-06-05T23:32:53.151006</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -5428,46 +5432,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Enphase Energy, Inc.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>346.46</v>
+        <v>41.3</v>
       </c>
       <c r="D2" t="n">
-        <v>109983446.6666667</v>
+        <v>7570030.666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5400085449219</v>
+        <v>141.6300048828125</v>
       </c>
       <c r="F2" t="n">
-        <v>167.4100036621094</v>
+        <v>37.59000015258789</v>
       </c>
       <c r="G2" t="n">
-        <v>94.55300308440377</v>
+        <v>-68.78307007982202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5065269580190835</v>
+        <v>1.019445385562892</v>
       </c>
       <c r="I2" t="n">
-        <v>326.0320022583008</v>
+        <v>44.69499988555908</v>
       </c>
       <c r="J2" t="n">
-        <v>286.4134017944336</v>
+        <v>49.11559997558594</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Medium Price</t>
+          <t>Low Price</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.214328</t>
+          <t>2025-06-05T23:32:57.211275</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -5477,46 +5481,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enphase Energy, Inc.</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41.39</v>
+        <v>284.7</v>
       </c>
       <c r="D3" t="n">
-        <v>8054286.666666667</v>
+        <v>113544045.6666667</v>
       </c>
       <c r="E3" t="n">
-        <v>141.6300048828125</v>
+        <v>488.5400085449219</v>
       </c>
       <c r="F3" t="n">
-        <v>37.59000015258789</v>
+        <v>167.4100036621094</v>
       </c>
       <c r="G3" t="n">
-        <v>-67.6387811603945</v>
+        <v>59.99775671621672</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9914614076746127</v>
+        <v>0.7457384561821915</v>
       </c>
       <c r="I3" t="n">
-        <v>45.09749984741211</v>
+        <v>335.2655014038086</v>
       </c>
       <c r="J3" t="n">
-        <v>50.68819999694824</v>
+        <v>291.4576010131836</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Low Price</t>
+          <t>Medium Price</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.432778</t>
+          <t>2025-06-05T23:32:57.275278</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -5535,28 +5539,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.86</v>
+        <v>17.74</v>
       </c>
       <c r="D4" t="n">
-        <v>5551740</v>
+        <v>5445721.9</v>
       </c>
       <c r="E4" t="n">
-        <v>51.5</v>
+        <v>49.56999969482422</v>
       </c>
       <c r="F4" t="n">
         <v>10.23999977111816</v>
       </c>
       <c r="G4" t="n">
-        <v>-63.5435803256937</v>
+        <v>-63.28642408286609</v>
       </c>
       <c r="H4" t="n">
-        <v>1.586818169510589</v>
+        <v>1.576848027968764</v>
       </c>
       <c r="I4" t="n">
-        <v>17.64450011253357</v>
+        <v>18.40750007629395</v>
       </c>
       <c r="J4" t="n">
-        <v>15.54100017547607</v>
+        <v>15.57660011291504</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -5565,7 +5569,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.521823</t>
+          <t>2025-06-05T23:32:57.438752</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -5584,10 +5588,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>158.08</v>
+        <v>163.84</v>
       </c>
       <c r="D5" t="n">
-        <v>5643810</v>
+        <v>5617673.466666667</v>
       </c>
       <c r="E5" t="n">
         <v>306.7699890136719</v>
@@ -5596,16 +5600,16 @@
         <v>116.5599975585938</v>
       </c>
       <c r="G5" t="n">
-        <v>-41.83102879360793</v>
+        <v>-40.08411445458411</v>
       </c>
       <c r="H5" t="n">
-        <v>1.017142443930709</v>
+        <v>1.049970409991838</v>
       </c>
       <c r="I5" t="n">
-        <v>156.52799949646</v>
+        <v>162.4494987487793</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3160006713867</v>
+        <v>142.5681997680664</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -5614,7 +5618,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.526957</t>
+          <t>2025-06-05T23:32:57.527504</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -5633,10 +5637,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
       <c r="D6" t="n">
-        <v>883906.6666666666</v>
+        <v>938167.8666666667</v>
       </c>
       <c r="E6" t="n">
         <v>3.369999885559082</v>
@@ -5645,16 +5649,16 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G6" t="n">
-        <v>-20.57142938886371</v>
+        <v>19.17807973108998</v>
       </c>
       <c r="H6" t="n">
-        <v>1.025758611520389</v>
+        <v>1.256332462573182</v>
       </c>
       <c r="I6" t="n">
-        <v>1.683499991893768</v>
+        <v>1.667999994754791</v>
       </c>
       <c r="J6" t="n">
-        <v>1.684299998283386</v>
+        <v>1.695499997138977</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -5663,7 +5667,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.759883</t>
+          <t>2025-06-05T23:32:57.733347</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -5682,10 +5686,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.49</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>19793273.33333333</v>
+        <v>21199808.43333333</v>
       </c>
       <c r="E7" t="n">
         <v>22.26000022888184</v>
@@ -5694,16 +5698,16 @@
         <v>5.449999809265137</v>
       </c>
       <c r="G7" t="n">
-        <v>-48.20193809572081</v>
+        <v>-41.96675652383588</v>
       </c>
       <c r="H7" t="n">
-        <v>1.797408540191027</v>
+        <v>1.877072010582525</v>
       </c>
       <c r="I7" t="n">
-        <v>9.130999970436097</v>
+        <v>9.292999958992004</v>
       </c>
       <c r="J7" t="n">
-        <v>7.623400011062622</v>
+        <v>7.737799997329712</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -5712,7 +5716,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.841942</t>
+          <t>2025-06-05T23:32:57.806655</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -5731,28 +5735,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70.64</v>
+        <v>71.5</v>
       </c>
       <c r="D8" t="n">
-        <v>14094040</v>
+        <v>13614329.56666667</v>
       </c>
       <c r="E8" t="n">
-        <v>84.82785464854152</v>
+        <v>84.14697436217105</v>
       </c>
       <c r="F8" t="n">
-        <v>61.72000122070312</v>
+        <v>61.22460215339155</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.233681660890836</v>
+        <v>-3.998265921474553</v>
       </c>
       <c r="H8" t="n">
-        <v>0.387725349909488</v>
+        <v>0.3916328892610191</v>
       </c>
       <c r="I8" t="n">
-        <v>69.93250045776367</v>
+        <v>70.24787139892578</v>
       </c>
       <c r="J8" t="n">
-        <v>68.69740005493163</v>
+        <v>68.22685356140137</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -5761,7 +5765,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:57.914326</t>
+          <t>2025-06-05T23:32:57.915441</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -5780,28 +5784,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8827</v>
+        <v>0.8715000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>148271590</v>
+        <v>149733260.9666667</v>
       </c>
       <c r="E9" t="n">
-        <v>3.549999952316284</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="F9" t="n">
         <v>0.6899999976158142</v>
       </c>
       <c r="G9" t="n">
-        <v>-73.57357311130954</v>
+        <v>-70.9499994913737</v>
       </c>
       <c r="H9" t="n">
-        <v>1.10782531330222</v>
+        <v>1.201215112007532</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8189999997615814</v>
+        <v>0.8355750024318696</v>
       </c>
       <c r="J9" t="n">
-        <v>1.015800002813339</v>
+        <v>0.9626300048828125</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -5810,7 +5814,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.707651</t>
+          <t>2025-06-05T23:33:00.094730</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -5829,10 +5833,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.47</v>
+        <v>20.45</v>
       </c>
       <c r="D10" t="n">
-        <v>5813933.333333333</v>
+        <v>5886388.3</v>
       </c>
       <c r="E10" t="n">
         <v>29.82500076293945</v>
@@ -5841,16 +5845,16 @@
         <v>9.020000457763672</v>
       </c>
       <c r="G10" t="n">
-        <v>13.17401751675358</v>
+        <v>33.2247573597872</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5499533422643637</v>
+        <v>0.6702907238778909</v>
       </c>
       <c r="I10" t="n">
-        <v>18.47650003433228</v>
+        <v>19.16450004577637</v>
       </c>
       <c r="J10" t="n">
-        <v>18.92240001678467</v>
+        <v>18.60020000457764</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -5859,7 +5863,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:59.810484</t>
+          <t>2025-06-05T23:33:00.145853</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -5878,28 +5882,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="D11" t="n">
-        <v>7356813.333333333</v>
+        <v>7730205.333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>3.230000019073486</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-58.25242725937682</v>
+        <v>-49.10394349462507</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6514000652288174</v>
+        <v>0.6658471105859257</v>
       </c>
       <c r="I11" t="n">
-        <v>1.341999983787537</v>
+        <v>1.364999973773956</v>
       </c>
       <c r="J11" t="n">
-        <v>1.244200000762939</v>
+        <v>1.247799999713898</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -5908,7 +5912,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-06-01T00:43:00.050488</t>
+          <t>2025-06-05T23:33:00.430021</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -6013,28 +6017,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>460.36</v>
+        <v>467.68</v>
       </c>
       <c r="D2" t="n">
-        <v>22264463.33333333</v>
+        <v>21753175.03333334</v>
       </c>
       <c r="E2" t="n">
-        <v>464.7864695275555</v>
+        <v>469.6499938964844</v>
       </c>
       <c r="F2" t="n">
         <v>344.1581969485817</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74560797897401</v>
+        <v>11.01142940633311</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1644783728041524</v>
+        <v>0.144086887336154</v>
       </c>
       <c r="I2" t="n">
-        <v>448.9110870361328</v>
+        <v>454.989338684082</v>
       </c>
       <c r="J2" t="n">
-        <v>408.5308880615235</v>
+        <v>414.3912939453125</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -6043,7 +6047,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.566488</t>
+          <t>2025-06-05T23:32:54.636947</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -6062,10 +6066,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171.74</v>
+        <v>168.21</v>
       </c>
       <c r="D3" t="n">
-        <v>41768930</v>
+        <v>42703369.43333333</v>
       </c>
       <c r="E3" t="n">
         <v>206.8118208130025</v>
@@ -6074,16 +6078,16 @@
         <v>140.5299987792969</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03541854499018449</v>
+        <v>-4.36585511005142</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3816439111419104</v>
+        <v>0.2748133075318104</v>
       </c>
       <c r="I3" t="n">
-        <v>164.5334999084473</v>
+        <v>165.9644996643066</v>
       </c>
       <c r="J3" t="n">
-        <v>159.9798010253906</v>
+        <v>160.1086010742187</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6092,7 +6096,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.656301</t>
+          <t>2025-06-05T23:32:54.740878</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -6111,10 +6115,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>205.01</v>
+        <v>207.91</v>
       </c>
       <c r="D4" t="n">
-        <v>45338356.66666666</v>
+        <v>43045635.36666667</v>
       </c>
       <c r="E4" t="n">
         <v>242.5200042724609</v>
@@ -6123,16 +6127,16 @@
         <v>151.6100006103516</v>
       </c>
       <c r="G4" t="n">
-        <v>16.19246864095769</v>
+        <v>12.38378576330237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3525302413067643</v>
+        <v>0.335899957159056</v>
       </c>
       <c r="I4" t="n">
-        <v>200.6550003051758</v>
+        <v>204.5275001525879</v>
       </c>
       <c r="J4" t="n">
-        <v>191.887799987793</v>
+        <v>192.4351998901367</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6141,7 +6145,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.787475</t>
+          <t>2025-06-05T23:32:54.792101</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -6160,10 +6164,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>647.49</v>
+        <v>684.62</v>
       </c>
       <c r="D5" t="n">
-        <v>14869060</v>
+        <v>14456261.03333333</v>
       </c>
       <c r="E5" t="n">
         <v>740.2514192957425</v>
@@ -6172,16 +6176,16 @@
         <v>441.4789064419887</v>
       </c>
       <c r="G5" t="n">
-        <v>39.2053082502082</v>
+        <v>39.16022847121325</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3686143808998931</v>
+        <v>0.3618946675579996</v>
       </c>
       <c r="I5" t="n">
-        <v>628.2525024414062</v>
+        <v>644.7480010986328</v>
       </c>
       <c r="J5" t="n">
-        <v>582.7108020019531</v>
+        <v>588.3690026855469</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6190,7 +6194,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:54.958576</t>
+          <t>2025-06-05T23:32:54.964527</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -6209,28 +6213,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>165.53</v>
+        <v>171.14</v>
       </c>
       <c r="D6" t="n">
-        <v>8319586.666666667</v>
+        <v>7869926.666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>197.1156726739735</v>
+        <v>197.1156885625032</v>
       </c>
       <c r="F6" t="n">
-        <v>113.2848267763727</v>
+        <v>118.4345550853782</v>
       </c>
       <c r="G6" t="n">
-        <v>42.82673510864592</v>
+        <v>40.12251034709016</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3011883978509222</v>
+        <v>0.2764794878937573</v>
       </c>
       <c r="I6" t="n">
-        <v>157.2329986572266</v>
+        <v>161.1260002136231</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7389268493652</v>
+        <v>147.0068644714355</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -6239,7 +6243,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.059176</t>
+          <t>2025-06-05T23:32:55.081875</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -6258,28 +6262,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>265.37</v>
+        <v>267.14</v>
       </c>
       <c r="D7" t="n">
-        <v>7003306.666666667</v>
+        <v>7179870</v>
       </c>
       <c r="E7" t="n">
-        <v>368.00124444558</v>
+        <v>368.0012138342595</v>
       </c>
       <c r="F7" t="n">
-        <v>214.8030626524035</v>
+        <v>226.4449644491641</v>
       </c>
       <c r="G7" t="n">
-        <v>13.85549527793282</v>
+        <v>10.68677208301341</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2996049665032905</v>
+        <v>0.2916840078971484</v>
       </c>
       <c r="I7" t="n">
-        <v>280.2565017700196</v>
+        <v>278.1115036010742</v>
       </c>
       <c r="J7" t="n">
-        <v>269.4417926025391</v>
+        <v>267.9209808349609</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6288,7 +6292,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.198354</t>
+          <t>2025-06-05T23:32:55.232492</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -6307,28 +6311,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1011.09</v>
+        <v>1017.6</v>
       </c>
       <c r="D8" t="n">
-        <v>1719846.666666667</v>
+        <v>1572228.266666667</v>
       </c>
       <c r="E8" t="n">
         <v>1198.089965820312</v>
       </c>
       <c r="F8" t="n">
-        <v>637.989990234375</v>
+        <v>678.6599731445312</v>
       </c>
       <c r="G8" t="n">
-        <v>53.91138144524912</v>
+        <v>44.71813164154248</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2247897511812254</v>
+        <v>0.199478829031951</v>
       </c>
       <c r="I8" t="n">
-        <v>1008.525500488281</v>
+        <v>1015.994000244141</v>
       </c>
       <c r="J8" t="n">
-        <v>899.6183996582031</v>
+        <v>913.4253991699219</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -6337,7 +6341,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.331968</t>
+          <t>2025-06-05T23:32:55.283834</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -6356,28 +6360,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>205.67</v>
+        <v>210.1</v>
       </c>
       <c r="D9" t="n">
-        <v>5203520</v>
+        <v>5395056.133333334</v>
       </c>
       <c r="E9" t="n">
-        <v>209.8000030517578</v>
+        <v>214.8300018310547</v>
       </c>
       <c r="F9" t="n">
         <v>107.129997253418</v>
       </c>
       <c r="G9" t="n">
-        <v>51.02805788703968</v>
+        <v>59.11846166806862</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5124865411259437</v>
+        <v>0.5171638358880306</v>
       </c>
       <c r="I9" t="n">
-        <v>184.8859992980957</v>
+        <v>193.1099998474121</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9647994995117</v>
+        <v>167.9135995483398</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -6386,7 +6390,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.360960</t>
+          <t>2025-06-05T23:32:55.410486</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -6405,28 +6409,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>131.78</v>
+        <v>119.91</v>
       </c>
       <c r="D10" t="n">
-        <v>97790753.33333333</v>
+        <v>99071277.8</v>
       </c>
       <c r="E10" t="n">
-        <v>133.4900054931641</v>
+        <v>135.2799987792969</v>
       </c>
       <c r="F10" t="n">
-        <v>21.0049991607666</v>
+        <v>21.22999954223633</v>
       </c>
       <c r="G10" t="n">
-        <v>507.8413142265332</v>
+        <v>404.0353049496778</v>
       </c>
       <c r="H10" t="n">
-        <v>0.736416975725012</v>
+        <v>0.6158409486391677</v>
       </c>
       <c r="I10" t="n">
-        <v>122.8784999847412</v>
+        <v>125.26549949646</v>
       </c>
       <c r="J10" t="n">
-        <v>105.6977998352051</v>
+        <v>108.5683996582031</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -6435,7 +6439,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.627242</t>
+          <t>2025-06-05T23:32:55.560603</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -6454,10 +6458,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26.59</v>
+        <v>25.34</v>
       </c>
       <c r="D11" t="n">
-        <v>5905093.333333333</v>
+        <v>6550707.2</v>
       </c>
       <c r="E11" t="n">
         <v>45.08000183105469</v>
@@ -6466,16 +6470,16 @@
         <v>17.03000068664551</v>
       </c>
       <c r="G11" t="n">
-        <v>-10.07778009127924</v>
+        <v>-15.3357838482686</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8950444396189311</v>
+        <v>0.9359111690524528</v>
       </c>
       <c r="I11" t="n">
-        <v>23.50149993896484</v>
+        <v>24.18499994277954</v>
       </c>
       <c r="J11" t="n">
-        <v>22.08619995117187</v>
+        <v>22.29119995117188</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -6484,7 +6488,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-06-01T00:42:55.704552</t>
+          <t>2025-06-05T23:32:55.685406</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -6502,7 +6506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6596,6 +6600,22 @@
         <v>15.97072367055732</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>88</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152.6294068181818</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.66837410218531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
